--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholaswertz/personal_projects/codi_pres/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8915AA8F-C477-0846-BAA3-CF714F57F0DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94EF561-16B8-FB45-BC85-8EE8EF9B6016}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -44,28 +44,28 @@
     <t>sum</t>
   </si>
   <si>
-    <t>lt_addon_percent</t>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>long_percent</t>
+  </si>
+  <si>
+    <t>short_percent</t>
   </si>
   <si>
     <t>st_addon_percent</t>
   </si>
   <si>
-    <t>short_percent</t>
-  </si>
-  <si>
-    <t>long_percent</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
+    <t>lt_addon_percent</t>
   </si>
   <si>
     <t>Quarter</t>
@@ -76,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -149,17 +149,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,19 +468,10 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K1048576"/>
+      <selection activeCell="G2" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -551,10 +542,10 @@
         <v>3356</v>
       </c>
       <c r="G3">
-        <v>120880</v>
+        <v>120280</v>
       </c>
       <c r="H3">
-        <v>129896</v>
+        <v>129296</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -577,10 +568,10 @@
         <v>8700</v>
       </c>
       <c r="G4">
-        <v>199673.5</v>
+        <v>198413.5</v>
       </c>
       <c r="H4">
-        <v>223823.5</v>
+        <v>222563.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -603,10 +594,10 @@
         <v>5400</v>
       </c>
       <c r="G5">
-        <v>253875.64499999999</v>
+        <v>251890.905</v>
       </c>
       <c r="H5">
-        <v>306105.64500000002</v>
+        <v>304120.90500000003</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -629,10 +620,10 @@
         <v>7400</v>
       </c>
       <c r="G6">
-        <v>181161.94015000001</v>
+        <v>178382.63214999999</v>
       </c>
       <c r="H6">
-        <v>211099.94015000001</v>
+        <v>208320.63214999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -655,10 +646,10 @@
         <v>14800</v>
       </c>
       <c r="G7">
-        <v>155658.2759605</v>
+        <v>149369.1111145</v>
       </c>
       <c r="H7">
-        <v>194862.2759605</v>
+        <v>188573.1111145</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -681,10 +672,10 @@
         <v>11000</v>
       </c>
       <c r="G8">
-        <v>364284.95527773502</v>
+        <v>358156.784447935</v>
       </c>
       <c r="H8">
-        <v>399676.95527773502</v>
+        <v>393548.784447935</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -707,10 +698,10 @@
         <v>9800</v>
       </c>
       <c r="G9">
-        <v>121560.72214717649</v>
+        <v>115594.107981373</v>
       </c>
       <c r="H9">
-        <v>155572.72214717639</v>
+        <v>149606.107981373</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -733,10 +724,10 @@
         <v>2200</v>
       </c>
       <c r="G10">
-        <v>182910.19269747881</v>
+        <v>169066.95122081431</v>
       </c>
       <c r="H10">
-        <v>209322.19269747881</v>
+        <v>195478.95122081431</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -759,10 +750,10 @@
         <v>11200</v>
       </c>
       <c r="G11">
-        <v>250710.8881863023</v>
+        <v>242057.59775743869</v>
       </c>
       <c r="H11">
-        <v>298622.88818630233</v>
+        <v>289969.59775743872</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -785,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>159641.2703593435</v>
+        <v>148444.7456901618</v>
       </c>
       <c r="H12">
-        <v>196353.2703593435</v>
+        <v>185156.7456901618</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -811,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>162459.6172844976</v>
+        <v>142269.49006086669</v>
       </c>
       <c r="H13">
-        <v>200371.6172844976</v>
+        <v>180181.49006086669</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -828,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>38308.199999999997</v>
+        <v>38195</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -837,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>355028.05383441242</v>
+        <v>337302.79330269271</v>
       </c>
       <c r="H14">
-        <v>393336.25383441237</v>
+        <v>375497.79330269271</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -854,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>38308.199999999997</v>
+        <v>38195</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -863,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>124555.8550028212</v>
+        <v>108707.3857017735</v>
       </c>
       <c r="H15">
-        <v>162864.05500282129</v>
+        <v>146902.38570177351</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -880,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>38878.699999999997</v>
+        <v>38602.5</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -889,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>186685.72891301871</v>
+        <v>154938.80733282669</v>
       </c>
       <c r="H16">
-        <v>225564.4289130187</v>
+        <v>193541.30733282669</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -906,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>39480.699999999997</v>
+        <v>39032.5</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -915,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>282102.85311073012</v>
+        <v>257086.09124901149</v>
       </c>
       <c r="H17">
-        <v>321583.55311073008</v>
+        <v>296118.59124901152</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -932,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>39480.699999999997</v>
+        <v>39032.5</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -941,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>170576.83622848109</v>
+        <v>144084.1765864818</v>
       </c>
       <c r="H18">
-        <v>210057.53622848121</v>
+        <v>183116.6765864818</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -958,7 +949,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>39606.839999999997</v>
+        <v>39122.6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -967,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>167698.02239067489</v>
+        <v>127691.3833878763</v>
       </c>
       <c r="H19">
-        <v>207304.86239067491</v>
+        <v>166813.9833878763</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -984,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>39606.839999999997</v>
+        <v>39122.6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -993,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>391911.82673598808</v>
+        <v>353618.86731859861</v>
       </c>
       <c r="H20">
-        <v>431518.66673598811</v>
+        <v>392741.46731859847</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1010,7 +1001,7 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>39606.839999999997</v>
+        <v>39122.6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1019,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>146852.4656255072</v>
+        <v>114750.1521961565</v>
       </c>
       <c r="H21">
-        <v>186459.3056255072</v>
+        <v>153872.75219615651</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1036,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="D22">
-        <v>39606.839999999997</v>
+        <v>39122.6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1045,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>222249.3127593268</v>
+        <v>165328.4914909552</v>
       </c>
       <c r="H22">
-        <v>261856.1527593268</v>
+        <v>204451.09149095521</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1062,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>40481.839999999997</v>
+        <v>39747.599999999999</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1071,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>289211.13222290331</v>
+        <v>245459.59597564241</v>
       </c>
       <c r="H23">
-        <v>329692.97222290328</v>
+        <v>285207.19597564242</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1088,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="D24">
-        <v>40481.839999999997</v>
+        <v>39747.599999999999</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1097,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>196453.01271650649</v>
+        <v>150225.53853291171</v>
       </c>
       <c r="H24">
-        <v>236934.85271650649</v>
+        <v>189973.13853291169</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1114,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="D25">
-        <v>40565.839999999997</v>
+        <v>39807.599999999999</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1123,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>206135.22199223831</v>
+        <v>137677.65018494049</v>
       </c>
       <c r="H25">
-        <v>246701.0619922383</v>
+        <v>177485.25018494049</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1140,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>40989.773999999998</v>
+        <v>40104.75</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1149,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>411429.75588278827</v>
+        <v>345547.66413890611</v>
       </c>
       <c r="H26">
-        <v>452419.52988278831</v>
+        <v>385652.41413890611</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1166,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>40989.773999999998</v>
+        <v>40104.75</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1175,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>177352.56088384349</v>
+        <v>121209.8571868132</v>
       </c>
       <c r="H27">
-        <v>218342.33488384349</v>
+        <v>161314.60718681329</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1192,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <v>41600.209000000003</v>
+        <v>40532.625</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1201,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>270227.33332487929</v>
+        <v>177167.94692674029</v>
       </c>
       <c r="H28">
-        <v>311827.54232487932</v>
+        <v>217700.57192674029</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1218,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>42244.349000000002</v>
+        <v>40984.125</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1227,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>332904.80980715062</v>
+        <v>256038.47780555239</v>
       </c>
       <c r="H29">
-        <v>375149.15880715061</v>
+        <v>297022.60280555242</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1244,7 +1235,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>42244.349000000002</v>
+        <v>40984.125</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1253,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>238829.3511183112</v>
+        <v>159447.42215805891</v>
       </c>
       <c r="H30">
-        <v>281073.70011831122</v>
+        <v>200431.54715805891</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1270,7 +1261,7 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>42379.318800000001</v>
+        <v>41078.730000000003</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1279,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>259131.0591199832</v>
+        <v>149172.75544487091</v>
       </c>
       <c r="H31">
-        <v>301510.37791998318</v>
+        <v>190251.48544487081</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1296,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="D32">
-        <v>42379.318800000001</v>
+        <v>41078.730000000003</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1305,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>464212.6598326707</v>
+        <v>357345.86718610488</v>
       </c>
       <c r="H32">
-        <v>506591.97863267071</v>
+        <v>398424.59718610492</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1322,7 +1313,7 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <v>42379.318800000001</v>
+        <v>41078.730000000003</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1331,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>222701.98570646581</v>
+        <v>129141.3230691403</v>
       </c>
       <c r="H33">
-        <v>265081.30450646579</v>
+        <v>170220.0530691403</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1348,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <v>42379.318800000001</v>
+        <v>41078.730000000003</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1357,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>334468.89574900811</v>
+        <v>190089.06249024879</v>
       </c>
       <c r="H34">
-        <v>376848.21454900812</v>
+        <v>231167.79249024871</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1374,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="D35">
-        <v>43315.568800000001</v>
+        <v>41734.980000000003</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1383,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>384366.42435075762</v>
+        <v>264413.85857899499</v>
       </c>
       <c r="H35">
-        <v>427681.99315075763</v>
+        <v>306148.83857899503</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1400,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="D36">
-        <v>43315.568800000001</v>
+        <v>41734.980000000003</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1409,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>293007.59301369678</v>
+        <v>167667.04166525509</v>
       </c>
       <c r="H36">
-        <v>336323.16181369679</v>
+        <v>209402.0216652551</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1426,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="D37">
-        <v>43405.448799999998</v>
+        <v>41797.980000000003</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1435,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>331634.28915836097</v>
+        <v>161823.6122870463</v>
       </c>
       <c r="H37">
-        <v>375039.73795836099</v>
+        <v>203621.59228704631</v>
       </c>
     </row>
   </sheetData>
@@ -1447,11 +1438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C32A36D-8866-2045-A91A-41B2F4ED4E29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64ACBE1-9FBD-2041-AA31-DE395994CED1}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1486,28 +1477,28 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
@@ -1524,17 +1515,17 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E2">
         <v>5660</v>
       </c>
       <c r="F2" s="2">
-        <f>E2/Q2</f>
+        <f t="shared" ref="F2:F37" si="0">E2/Q2</f>
         <v>3.0679169602688492E-2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f>SUM(E2:E4)/SUM(Q2:Q4)</f>
         <v>4.7843822897960742E-2</v>
       </c>
@@ -1542,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <f>H2/Q2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
+        <f t="shared" ref="I2:I37" si="1">H2/Q2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
         <f>SUM(H2:H4)/SUM(Q2:Q4)</f>
         <v>1.8951727905211632E-3</v>
       </c>
@@ -1553,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <f>K2/Q2</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
+        <f t="shared" ref="L2:L37" si="2">K2/Q2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
         <f>SUM(K2:K4)/SUM(Q2:Q4)</f>
         <v>2.2400199178944258E-2</v>
       </c>
@@ -1564,12 +1555,12 @@
         <v>178830</v>
       </c>
       <c r="O2" s="2">
-        <f>N2/Q2</f>
+        <f t="shared" ref="O2:O37" si="3">N2/Q2</f>
         <v>0.96932083039731154</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <f>SUM(N2:N4)/SUM(Q2:Q4)</f>
-        <v>0.92786080513257385</v>
+        <v>0.92440490180868229</v>
       </c>
       <c r="Q2">
         <v>184490</v>
@@ -1585,39 +1576,39 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
       <c r="E3">
         <v>5660</v>
       </c>
       <c r="F3" s="2">
-        <f>E3/Q3</f>
+        <f t="shared" si="0"/>
         <v>4.3573320194617231E-2</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="6"/>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I37" si="0">H3/Q3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6"/>
       <c r="K3">
         <v>3356</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L37" si="1">K3/Q3</f>
+        <f t="shared" si="2"/>
         <v>2.5836053458151136E-2</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="6"/>
       <c r="N3">
-        <v>120880</v>
+        <v>120280</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O37" si="2">N3/Q3</f>
-        <v>0.93059062634723166</v>
-      </c>
-      <c r="P3" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.92597154646794355</v>
+      </c>
+      <c r="P3" s="6"/>
       <c r="Q3">
         <v>129896</v>
       </c>
@@ -1632,39 +1623,39 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4">
         <v>14430</v>
       </c>
       <c r="F4" s="2">
-        <f>E4/Q4</f>
+        <f t="shared" si="0"/>
         <v>6.4470442111753234E-2</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="6"/>
       <c r="H4">
         <v>1020</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.557162228273617E-3</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="6"/>
       <c r="K4">
         <v>8700</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8869913123510264E-2</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="6"/>
       <c r="N4">
-        <v>199673.5</v>
+        <v>198413.5</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.89210248253646285</v>
-      </c>
-      <c r="P4" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.88647304684271311</v>
+      </c>
+      <c r="P4" s="6"/>
       <c r="Q4">
         <v>223823.5</v>
       </c>
@@ -1679,52 +1670,52 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E5">
         <v>46790</v>
       </c>
       <c r="F5" s="2">
-        <f>E5/Q5</f>
+        <f t="shared" si="0"/>
         <v>0.15285572404259321</v>
       </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5" si="3">SUM(E5:E7)/SUM(Q5:Q7)</f>
+      <c r="G5" s="5">
+        <f>SUM(E5:E7)/SUM(Q5:Q7)</f>
         <v>0.13118412598248716</v>
       </c>
       <c r="H5">
         <v>40</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3067383974575182E-4</v>
       </c>
-      <c r="J5" s="6">
-        <f t="shared" ref="J5" si="4">SUM(H5:H7)/SUM(Q5:Q7)</f>
+      <c r="J5" s="5">
+        <f>SUM(H5:H7)/SUM(Q5:Q7)</f>
         <v>5.0556979139398982E-4</v>
       </c>
       <c r="K5">
         <v>5400</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7640968365676496E-2</v>
       </c>
-      <c r="M5" s="6">
-        <f t="shared" ref="M5" si="5">SUM(K5:K7)/SUM(Q5:Q7)</f>
+      <c r="M5" s="5">
+        <f>SUM(K5:K7)/SUM(Q5:Q7)</f>
         <v>3.8760350673539216E-2</v>
       </c>
       <c r="N5">
-        <v>253875.64499999999</v>
+        <v>251890.905</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="2"/>
-        <v>0.82937263375198444</v>
-      </c>
-      <c r="P5" s="6">
-        <f t="shared" ref="P5" si="6">SUM(N5:N7)/SUM(Q5:Q7)</f>
-        <v>0.82954995355257966</v>
+        <f t="shared" si="3"/>
+        <v>0.82288879383455993</v>
+      </c>
+      <c r="P5" s="5">
+        <f>SUM(N5:N7)/SUM(Q5:Q7)</f>
+        <v>0.81402725768373063</v>
       </c>
       <c r="Q5">
         <v>306105.64500000002</v>
@@ -1740,39 +1731,39 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6">
         <v>22410</v>
       </c>
       <c r="F6" s="2">
-        <f>E6/Q6</f>
+        <f t="shared" si="0"/>
         <v>0.10615824895107152</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="6"/>
       <c r="H6">
         <v>128</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0634787441932864E-4</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="K6">
         <v>7400</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5054486489867441E-2</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="6"/>
       <c r="N6">
-        <v>181161.94015000001</v>
+        <v>178382.63214999999</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.85818091668464169</v>
-      </c>
-      <c r="P6" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.84501507685529287</v>
+      </c>
+      <c r="P6" s="6"/>
       <c r="Q6">
         <v>211099.94015000001</v>
       </c>
@@ -1787,39 +1778,39 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="E7">
         <v>24212</v>
       </c>
       <c r="F7" s="2">
-        <f>E7/Q7</f>
+        <f t="shared" si="0"/>
         <v>0.1242518588097983</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="6"/>
       <c r="H7">
         <v>192</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8531128743933882E-4</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="6"/>
       <c r="K7">
         <v>14800</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5951078406782377E-2</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="6"/>
       <c r="N7">
-        <v>155658.2759605</v>
+        <v>149369.1111145</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.79881175149597994</v>
-      </c>
-      <c r="P7" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.76653682904113363</v>
+      </c>
+      <c r="P7" s="6"/>
       <c r="Q7">
         <v>194862.2759605</v>
       </c>
@@ -1834,52 +1825,52 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8">
         <v>24392</v>
       </c>
       <c r="F8" s="2">
-        <f>E8/Q8</f>
+        <f t="shared" si="0"/>
         <v>6.1029287973458538E-2</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" ref="G8" si="7">SUM(E8:E10)/SUM(Q8:Q10)</f>
+      <c r="G8" s="5">
+        <f>SUM(E8:E10)/SUM(Q8:Q10)</f>
         <v>9.5237613160347956E-2</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" ref="J8" si="8">SUM(H8:H10)/SUM(Q8:Q10)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <f>SUM(H8:H10)/SUM(Q8:Q10)</f>
         <v>0</v>
       </c>
       <c r="K8">
         <v>11000</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7522227275665952E-2</v>
       </c>
-      <c r="M8" s="6">
-        <f t="shared" ref="M8" si="9">SUM(K8:K10)/SUM(Q8:Q10)</f>
+      <c r="M8" s="5">
+        <f>SUM(K8:K10)/SUM(Q8:Q10)</f>
         <v>3.0082194884201316E-2</v>
       </c>
       <c r="N8">
-        <v>364284.95527773502</v>
+        <v>358156.784447935</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.91144848475087548</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" ref="P8" si="10">SUM(N8:N10)/SUM(Q8:Q10)</f>
-        <v>0.87468019195545088</v>
+        <f t="shared" si="3"/>
+        <v>0.89611567471797893</v>
+      </c>
+      <c r="P8" s="5">
+        <f>SUM(N8:N10)/SUM(Q8:Q10)</f>
+        <v>0.84075528903152319</v>
       </c>
       <c r="Q8">
         <v>399676.95527773502</v>
@@ -1895,39 +1886,39 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9">
         <v>24212</v>
       </c>
       <c r="F9" s="2">
-        <f>E9/Q9</f>
+        <f t="shared" si="0"/>
         <v>0.15563139646740085</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="6"/>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="6"/>
       <c r="K9">
         <v>9800</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2993048297560222E-2</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="6"/>
       <c r="N9">
-        <v>121560.72214717649</v>
+        <v>115594.107981373</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.78137555523503954</v>
-      </c>
-      <c r="P9" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.74302298234530828</v>
+      </c>
+      <c r="P9" s="6"/>
       <c r="Q9">
         <v>155572.72214717639</v>
       </c>
@@ -1942,39 +1933,39 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10">
         <v>24212</v>
       </c>
       <c r="F10" s="2">
-        <f>E10/Q10</f>
+        <f t="shared" si="0"/>
         <v>0.11566857621729673</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="6"/>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6"/>
       <c r="K10">
         <v>2200</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0510113484142276E-2</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="6"/>
       <c r="N10">
-        <v>182910.19269747881</v>
+        <v>169066.95122081431</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.87382131029856103</v>
-      </c>
-      <c r="P10" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.80768765624941141</v>
+      </c>
+      <c r="P10" s="6"/>
       <c r="Q10">
         <v>209322.19269747881</v>
       </c>
@@ -1989,52 +1980,52 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E11">
         <v>36712</v>
       </c>
       <c r="F11" s="2">
-        <f>E11/Q11</f>
+        <f t="shared" si="0"/>
         <v>0.12293766302700959</v>
       </c>
-      <c r="G11" s="6">
-        <f t="shared" ref="G11" si="11">SUM(E11:E13)/SUM(Q11:Q13)</f>
+      <c r="G11" s="5">
+        <f>SUM(E11:E13)/SUM(Q11:Q13)</f>
         <v>0.16011556212584577</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" ref="J11" si="12">SUM(H11:H13)/SUM(Q11:Q13)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <f>SUM(H11:H13)/SUM(Q11:Q13)</f>
         <v>0</v>
       </c>
       <c r="K11">
         <v>11200</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7505497545829908E-2</v>
       </c>
-      <c r="M11" s="6">
-        <f t="shared" ref="M11" si="13">SUM(K11:K13)/SUM(Q11:Q13)</f>
+      <c r="M11" s="5">
+        <f>SUM(K11:K13)/SUM(Q11:Q13)</f>
         <v>1.6107047997139044E-2</v>
       </c>
       <c r="N11">
-        <v>250710.8881863023</v>
+        <v>242057.59775743869</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.83955683942716042</v>
-      </c>
-      <c r="P11" s="6">
-        <f t="shared" ref="P11" si="14">SUM(N11:N13)/SUM(Q11:Q13)</f>
-        <v>0.82377738987701521</v>
+        <f t="shared" si="3"/>
+        <v>0.81057952130724098</v>
+      </c>
+      <c r="P11" s="5">
+        <f>SUM(N11:N13)/SUM(Q11:Q13)</f>
+        <v>0.76619477623612975</v>
       </c>
       <c r="Q11">
         <v>298622.88818630233</v>
@@ -2050,39 +2041,39 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4"/>
       <c r="E12">
         <v>36712</v>
       </c>
       <c r="F12" s="2">
-        <f>E12/Q12</f>
+        <f t="shared" si="0"/>
         <v>0.18696912932906012</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="6"/>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="6"/>
       <c r="N12">
-        <v>159641.2703593435</v>
+        <v>148444.7456901618</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="2"/>
-        <v>0.81303087067093993</v>
-      </c>
-      <c r="P12" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.75600852187740519</v>
+      </c>
+      <c r="P12" s="6"/>
       <c r="Q12">
         <v>196353.2703593435</v>
       </c>
@@ -2097,39 +2088,39 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="4"/>
       <c r="E13">
         <v>37912</v>
       </c>
       <c r="F13" s="2">
-        <f>E13/Q13</f>
+        <f t="shared" si="0"/>
         <v>0.18920843437706378</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="6"/>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="6"/>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="6"/>
       <c r="N13">
-        <v>162459.6172844976</v>
+        <v>142269.49006086669</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.81079156562293619</v>
-      </c>
-      <c r="P13" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.71002815662692087</v>
+      </c>
+      <c r="P13" s="6"/>
       <c r="Q13">
         <v>200371.6172844976</v>
       </c>
@@ -2144,52 +2135,52 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>38308.199999999997</v>
+        <v>38195</v>
       </c>
       <c r="F14" s="2">
-        <f>E14/Q14</f>
-        <v>9.7393005670225033E-2</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" ref="G14" si="15">SUM(E14:E16)/SUM(Q14:Q16)</f>
-        <v>0.14773638976397116</v>
+        <f t="shared" si="0"/>
+        <v>9.7105211196930302E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(E14:E16)/SUM(Q14:Q16)</f>
+        <v>0.14709348535075042</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" ref="J14" si="16">SUM(H14:H16)/SUM(Q14:Q16)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <f>SUM(H14:H16)/SUM(Q14:Q16)</f>
         <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <f t="shared" ref="M14" si="17">SUM(K14:K16)/SUM(Q14:Q16)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <f>SUM(K14:K16)/SUM(Q14:Q16)</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <v>355028.05383441242</v>
+        <v>337302.79330269271</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="2"/>
-        <v>0.90260699432977509</v>
-      </c>
-      <c r="P14" s="6">
-        <f t="shared" ref="P14" si="18">SUM(N14:N16)/SUM(Q14:Q16)</f>
-        <v>0.85226361023602881</v>
+        <f t="shared" si="3"/>
+        <v>0.85754310723844751</v>
+      </c>
+      <c r="P14" s="5">
+        <f>SUM(N14:N16)/SUM(Q14:Q16)</f>
+        <v>0.76870822808750938</v>
       </c>
       <c r="Q14">
         <v>393336.25383441237</v>
@@ -2205,39 +2196,39 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="4"/>
       <c r="E15">
-        <v>38308.199999999997</v>
+        <v>38195</v>
       </c>
       <c r="F15" s="2">
-        <f>E15/Q15</f>
-        <v>0.23521580620927304</v>
-      </c>
-      <c r="G15" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.23452074799033065</v>
+      </c>
+      <c r="G15" s="6"/>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="6"/>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="6"/>
       <c r="N15">
-        <v>124555.8550028212</v>
+        <v>108707.3857017735</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="2"/>
-        <v>0.76478419379072637</v>
-      </c>
-      <c r="P15" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.66747316158799042</v>
+      </c>
+      <c r="P15" s="6"/>
       <c r="Q15">
         <v>162864.05500282129</v>
       </c>
@@ -2252,39 +2243,39 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4"/>
       <c r="E16">
-        <v>38878.699999999997</v>
+        <v>38602.5</v>
       </c>
       <c r="F16" s="2">
-        <f>E16/Q16</f>
-        <v>0.17236183997341289</v>
-      </c>
-      <c r="G16" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.17113735612491343</v>
+      </c>
+      <c r="G16" s="6"/>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6"/>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="6"/>
       <c r="N16">
-        <v>186685.72891301871</v>
+        <v>154938.80733282669</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.82763816002658719</v>
-      </c>
-      <c r="P16" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.68689379827957542</v>
+      </c>
+      <c r="P16" s="6"/>
       <c r="Q16">
         <v>225564.4289130187</v>
       </c>
@@ -2299,52 +2290,52 @@
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>39480.699999999997</v>
+        <v>39032.5</v>
       </c>
       <c r="F17" s="2">
-        <f>E17/Q17</f>
-        <v>0.12276964918789147</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" ref="G17" si="19">SUM(E17:E19)/SUM(Q17:Q19)</f>
-        <v>0.16045590306358609</v>
+        <f t="shared" si="0"/>
+        <v>0.12137592119507441</v>
+      </c>
+      <c r="G17" s="5">
+        <f>SUM(E17:E19)/SUM(Q17:Q19)</f>
+        <v>0.15858751201716667</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" ref="J17" si="20">SUM(H17:H19)/SUM(Q17:Q19)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <f>SUM(H17:H19)/SUM(Q17:Q19)</f>
         <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <f t="shared" ref="M17" si="21">SUM(K17:K19)/SUM(Q17:Q19)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <f>SUM(K17:K19)/SUM(Q17:Q19)</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <v>282102.85311073012</v>
+        <v>257086.09124901149</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="2"/>
-        <v>0.87723035081210865</v>
-      </c>
-      <c r="P17" s="6">
-        <f t="shared" ref="P17" si="22">SUM(N17:N19)/SUM(Q17:Q19)</f>
-        <v>0.83954409693641374</v>
+        <f t="shared" si="3"/>
+        <v>0.79943793381898998</v>
+      </c>
+      <c r="P17" s="5">
+        <f>SUM(N17:N19)/SUM(Q17:Q19)</f>
+        <v>0.71569733887207132</v>
       </c>
       <c r="Q17">
         <v>321583.55311073008</v>
@@ -2360,39 +2351,39 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="4"/>
       <c r="E18">
-        <v>39480.699999999997</v>
+        <v>39032.5</v>
       </c>
       <c r="F18" s="2">
-        <f>E18/Q18</f>
-        <v>0.1879518379052896</v>
-      </c>
-      <c r="G18" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.18581813678678991</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="6"/>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="6"/>
       <c r="N18">
-        <v>170576.83622848109</v>
+        <v>144084.1765864818</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.81204816209470976</v>
-      </c>
-      <c r="P18" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.68592719486988707</v>
+      </c>
+      <c r="P18" s="6"/>
       <c r="Q18">
         <v>210057.53622848121</v>
       </c>
@@ -2407,39 +2398,39 @@
       <c r="C19">
         <v>6</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="4"/>
       <c r="E19">
-        <v>39606.839999999997</v>
+        <v>39122.6</v>
       </c>
       <c r="F19" s="2">
-        <f>E19/Q19</f>
-        <v>0.19105601066587241</v>
-      </c>
-      <c r="G19" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.18872012720218678</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="6"/>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="6"/>
       <c r="N19">
-        <v>167698.02239067489</v>
+        <v>127691.3833878763</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.80894398933412748</v>
-      </c>
-      <c r="P19" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.61595942282934202</v>
+      </c>
+      <c r="P19" s="6"/>
       <c r="Q19">
         <v>207304.86239067491</v>
       </c>
@@ -2454,52 +2445,52 @@
       <c r="C20">
         <v>7</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>13</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>39606.839999999997</v>
+        <v>39122.6</v>
       </c>
       <c r="F20" s="2">
-        <f>E20/Q20</f>
-        <v>9.1784766345304511E-2</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" ref="G20" si="23">SUM(E20:E22)/SUM(Q20:Q22)</f>
-        <v>0.13504877408986962</v>
+        <f t="shared" si="0"/>
+        <v>9.0662590093549766E-2</v>
+      </c>
+      <c r="G20" s="5">
+        <f>SUM(E20:E22)/SUM(Q20:Q22)</f>
+        <v>0.13339764467976575</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" ref="J20" si="24">SUM(H20:H22)/SUM(Q20:Q22)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <f>SUM(H20:H22)/SUM(Q20:Q22)</f>
         <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" ref="M20" si="25">SUM(K20:K22)/SUM(Q20:Q22)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <f>SUM(K20:K22)/SUM(Q20:Q22)</f>
         <v>0</v>
       </c>
       <c r="N20">
-        <v>391911.82673598808</v>
+        <v>353618.86731859861</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.90821523365469536</v>
-      </c>
-      <c r="P20" s="6">
-        <f t="shared" ref="P20" si="26">SUM(N20:N22)/SUM(Q20:Q22)</f>
-        <v>0.86495122591013029</v>
+        <f t="shared" si="3"/>
+        <v>0.81947525003582244</v>
+      </c>
+      <c r="P20" s="5">
+        <f>SUM(N20:N22)/SUM(Q20:Q22)</f>
+        <v>0.72024657024832794</v>
       </c>
       <c r="Q20">
         <v>431518.66673598811</v>
@@ -2515,39 +2506,39 @@
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4"/>
       <c r="E21">
-        <v>39606.839999999997</v>
+        <v>39122.6</v>
       </c>
       <c r="F21" s="2">
-        <f>E21/Q21</f>
-        <v>0.21241546442068202</v>
-      </c>
-      <c r="G21" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.2098184366221737</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6"/>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="6"/>
       <c r="N21">
-        <v>146852.4656255072</v>
+        <v>114750.1521961565</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.78758453557931796</v>
-      </c>
-      <c r="P21" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.61541660155393685</v>
+      </c>
+      <c r="P21" s="6"/>
       <c r="Q21">
         <v>186459.3056255072</v>
       </c>
@@ -2562,39 +2553,39 @@
       <c r="C22">
         <v>9</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="4"/>
       <c r="E22">
-        <v>39606.839999999997</v>
+        <v>39122.6</v>
       </c>
       <c r="F22" s="2">
-        <f>E22/Q22</f>
-        <v>0.1512541889225831</v>
-      </c>
-      <c r="G22" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.14940492933903968</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6"/>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="6"/>
       <c r="N22">
-        <v>222249.3127593268</v>
+        <v>165328.4914909552</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.84874581107741687</v>
-      </c>
-      <c r="P22" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.63137142186194639</v>
+      </c>
+      <c r="P22" s="6"/>
       <c r="Q22">
         <v>261856.1527593268</v>
       </c>
@@ -2609,52 +2600,52 @@
       <c r="C23">
         <v>10</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>14</v>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>40481.839999999997</v>
+        <v>39747.599999999999</v>
       </c>
       <c r="F23" s="2">
-        <f>E23/Q23</f>
-        <v>0.12278648139527368</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" ref="G23" si="27">SUM(E23:E25)/SUM(Q23:Q25)</f>
-        <v>0.14942235785879976</v>
+        <f t="shared" si="0"/>
+        <v>0.12055943968719753</v>
+      </c>
+      <c r="G23" s="5">
+        <f>SUM(E23:E25)/SUM(Q23:Q25)</f>
+        <v>0.14668457239983188</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" ref="J23" si="28">SUM(H23:H25)/SUM(Q23:Q25)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <f>SUM(H23:H25)/SUM(Q23:Q25)</f>
         <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <f t="shared" ref="M23" si="29">SUM(K23:K25)/SUM(Q23:Q25)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <f>SUM(K23:K25)/SUM(Q23:Q25)</f>
         <v>0</v>
       </c>
       <c r="N23">
-        <v>289211.13222290331</v>
+        <v>245459.59597564241</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.87721351860472641</v>
-      </c>
-      <c r="P23" s="6">
-        <f t="shared" ref="P23" si="30">SUM(N23:N25)/SUM(Q23:Q25)</f>
-        <v>0.85057764214120035</v>
+        <f t="shared" si="3"/>
+        <v>0.74450963974351503</v>
+      </c>
+      <c r="P23" s="5">
+        <f>SUM(N23:N25)/SUM(Q23:Q25)</f>
+        <v>0.65577750066845764</v>
       </c>
       <c r="Q23">
         <v>329692.97222290328</v>
@@ -2670,39 +2661,39 @@
       <c r="C24">
         <v>11</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="4"/>
       <c r="E24">
-        <v>40481.839999999997</v>
+        <v>39747.599999999999</v>
       </c>
       <c r="F24" s="2">
-        <f>E24/Q24</f>
-        <v>0.17085641701027701</v>
-      </c>
-      <c r="G24" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.16775750610045606</v>
+      </c>
+      <c r="G24" s="6"/>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="6"/>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="6"/>
       <c r="N24">
-        <v>196453.01271650649</v>
+        <v>150225.53853291171</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.82914358298972302</v>
-      </c>
-      <c r="P24" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.63403731789791673</v>
+      </c>
+      <c r="P24" s="6"/>
       <c r="Q24">
         <v>236934.85271650649</v>
       </c>
@@ -2717,39 +2708,39 @@
       <c r="C25">
         <v>12</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="4"/>
       <c r="E25">
-        <v>40565.839999999997</v>
+        <v>39807.599999999999</v>
       </c>
       <c r="F25" s="2">
-        <f>E25/Q25</f>
-        <v>0.16443317946185523</v>
-      </c>
-      <c r="G25" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.16135966208873645</v>
+      </c>
+      <c r="G25" s="6"/>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="6"/>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="6"/>
       <c r="N25">
-        <v>206135.22199223831</v>
+        <v>137677.65018494049</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="2"/>
-        <v>0.83556682053814479</v>
-      </c>
-      <c r="P25" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.55807481764821953</v>
+      </c>
+      <c r="P25" s="6"/>
       <c r="Q25">
         <v>246701.0619922383</v>
       </c>
@@ -2764,52 +2755,52 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>11</v>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>40989.773999999998</v>
+        <v>40104.75</v>
       </c>
       <c r="F26" s="2">
-        <f>E26/Q26</f>
-        <v>9.0601247940422736E-2</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" ref="G26" si="31">SUM(E26:E28)/SUM(Q26:Q28)</f>
-        <v>0.12576947818499198</v>
+        <f t="shared" si="0"/>
+        <v>8.8645045916541751E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <f>SUM(E26:E28)/SUM(Q26:Q28)</f>
+        <v>0.12288156592019414</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" ref="J26" si="32">SUM(H26:H28)/SUM(Q26:Q28)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <f>SUM(H26:H28)/SUM(Q26:Q28)</f>
         <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" ref="M26" si="33">SUM(K26:K28)/SUM(Q26:Q28)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <f>SUM(K26:K28)/SUM(Q26:Q28)</f>
         <v>0</v>
       </c>
       <c r="N26">
-        <v>411429.75588278827</v>
+        <v>345547.66413890611</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="2"/>
-        <v>0.90939875205957721</v>
-      </c>
-      <c r="P26" s="6">
-        <f t="shared" ref="P26" si="34">SUM(N26:N28)/SUM(Q26:Q28)</f>
-        <v>0.87423052181500804</v>
+        <f t="shared" si="3"/>
+        <v>0.76377707263970174</v>
+      </c>
+      <c r="P26" s="5">
+        <f>SUM(N26:N28)/SUM(Q26:Q28)</f>
+        <v>0.65533524339377403</v>
       </c>
       <c r="Q26">
         <v>452419.52988278831</v>
@@ -2825,39 +2816,39 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="4"/>
       <c r="E27">
-        <v>40989.773999999998</v>
+        <v>40104.75</v>
       </c>
       <c r="F27" s="2">
-        <f>E27/Q27</f>
-        <v>0.18773168300964746</v>
-      </c>
-      <c r="G27" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.18367830508607244</v>
+      </c>
+      <c r="G27" s="6"/>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="6"/>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6"/>
       <c r="N27">
-        <v>177352.56088384349</v>
+        <v>121209.8571868132</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="2"/>
-        <v>0.81226831699035251</v>
-      </c>
-      <c r="P27" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.55513676379478105</v>
+      </c>
+      <c r="P27" s="6"/>
       <c r="Q27">
         <v>218342.33488384349</v>
       </c>
@@ -2872,39 +2863,39 @@
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="4"/>
       <c r="E28">
-        <v>41600.209000000003</v>
+        <v>40532.625</v>
       </c>
       <c r="F28" s="2">
-        <f>E28/Q28</f>
-        <v>0.1334077441968182</v>
-      </c>
-      <c r="G28" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.12998410819584003</v>
+      </c>
+      <c r="G28" s="6"/>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f>H28/Q28</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="6"/>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="6"/>
       <c r="N28">
-        <v>270227.33332487929</v>
+        <v>177167.94692674029</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="2"/>
-        <v>0.86659225580318167</v>
-      </c>
-      <c r="P28" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.56816003360651457</v>
+      </c>
+      <c r="P28" s="6"/>
       <c r="Q28">
         <v>311827.54232487932</v>
       </c>
@@ -2919,52 +2910,52 @@
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>12</v>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>42244.349000000002</v>
+        <v>40984.125</v>
       </c>
       <c r="F29" s="2">
-        <f>E29/Q29</f>
-        <v>0.11260680720789289</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" ref="G29" si="35">SUM(E29:E31)/SUM(Q29:Q31)</f>
-        <v>0.13246696670763392</v>
+        <f t="shared" si="0"/>
+        <v>0.10924754604359468</v>
+      </c>
+      <c r="G29" s="5">
+        <f>SUM(E29:E31)/SUM(Q29:Q31)</f>
+        <v>0.12847729959261803</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" ref="J29" si="36">SUM(H29:H31)/SUM(Q29:Q31)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f>SUM(H29:H31)/SUM(Q29:Q31)</f>
         <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" ref="M29" si="37">SUM(K29:K31)/SUM(Q29:Q31)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <f>SUM(K29:K31)/SUM(Q29:Q31)</f>
         <v>0</v>
       </c>
       <c r="N29">
-        <v>332904.80980715062</v>
+        <v>256038.47780555239</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="2"/>
-        <v>0.88739319279210715</v>
-      </c>
-      <c r="P29" s="6">
-        <f t="shared" ref="P29" si="38">SUM(N29:N31)/SUM(Q29:Q31)</f>
-        <v>0.8675330332923662</v>
+        <f t="shared" si="3"/>
+        <v>0.68249780599180732</v>
+      </c>
+      <c r="P29" s="5">
+        <f>SUM(N29:N31)/SUM(Q29:Q31)</f>
+        <v>0.58957821832344381</v>
       </c>
       <c r="Q29">
         <v>375149.15880715061</v>
@@ -2980,39 +2971,39 @@
       <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="4"/>
       <c r="E30">
-        <v>42244.349000000002</v>
+        <v>40984.125</v>
       </c>
       <c r="F30" s="2">
-        <f>E30/Q30</f>
-        <v>0.15029634214164561</v>
-      </c>
-      <c r="G30" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.14581273517496912</v>
+      </c>
+      <c r="G30" s="6"/>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="6"/>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="6"/>
       <c r="N30">
-        <v>238829.3511183112</v>
+        <v>159447.42215805891</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="2"/>
-        <v>0.84970365785835433</v>
-      </c>
-      <c r="P30" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.56727976360272536</v>
+      </c>
+      <c r="P30" s="6"/>
       <c r="Q30">
         <v>281073.70011831122</v>
       </c>
@@ -3027,39 +3018,39 @@
       <c r="C31">
         <v>6</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="4"/>
       <c r="E31">
-        <v>42379.318800000001</v>
+        <v>41078.730000000003</v>
       </c>
       <c r="F31" s="2">
-        <f>E31/Q31</f>
-        <v>0.14055674996118012</v>
-      </c>
-      <c r="G31" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.13624317107553011</v>
+      </c>
+      <c r="G31" s="6"/>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="6"/>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="6"/>
       <c r="N31">
-        <v>259131.0591199832</v>
+        <v>149172.75544487091</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="2"/>
-        <v>0.85944325003881994</v>
-      </c>
-      <c r="P31" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.49475164494821922</v>
+      </c>
+      <c r="P31" s="6"/>
       <c r="Q31">
         <v>301510.37791998318</v>
       </c>
@@ -3074,52 +3065,52 @@
       <c r="C32">
         <v>7</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>13</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>42379.318800000001</v>
+        <v>41078.730000000003</v>
       </c>
       <c r="F32" s="2">
-        <f>E32/Q32</f>
-        <v>8.3655724108354271E-2</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" ref="G32" si="39">SUM(E32:E34)/SUM(Q32:Q34)</f>
-        <v>0.11069706283767052</v>
+        <f t="shared" si="0"/>
+        <v>8.1088394077763609E-2</v>
+      </c>
+      <c r="G32" s="5">
+        <f>SUM(E32:E34)/SUM(Q32:Q34)</f>
+        <v>0.10729985485518707</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
-        <f t="shared" ref="J32" si="40">SUM(H32:H34)/SUM(Q32:Q34)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f>SUM(H32:H34)/SUM(Q32:Q34)</f>
         <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
-        <f t="shared" ref="M32" si="41">SUM(K32:K34)/SUM(Q32:Q34)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <f>SUM(K32:K34)/SUM(Q32:Q34)</f>
         <v>0</v>
       </c>
       <c r="N32">
-        <v>464212.6598326707</v>
+        <v>357345.86718610488</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="2"/>
-        <v>0.91634427589164569</v>
-      </c>
-      <c r="P32" s="6">
-        <f t="shared" ref="P32" si="42">SUM(N32:N34)/SUM(Q32:Q34)</f>
-        <v>0.88930293716232944</v>
+        <f t="shared" si="3"/>
+        <v>0.70539187799737346</v>
+      </c>
+      <c r="P32" s="5">
+        <f>SUM(N32:N34)/SUM(Q32:Q34)</f>
+        <v>0.58908453529809601</v>
       </c>
       <c r="Q32">
         <v>506591.97863267071</v>
@@ -3135,39 +3126,39 @@
       <c r="C33">
         <v>8</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="4"/>
       <c r="E33">
-        <v>42379.318800000001</v>
+        <v>41078.730000000003</v>
       </c>
       <c r="F33" s="2">
-        <f>E33/Q33</f>
-        <v>0.15987290721577951</v>
-      </c>
-      <c r="G33" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.15496653027448046</v>
+      </c>
+      <c r="G33" s="6"/>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="6"/>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="6"/>
       <c r="N33">
-        <v>222701.98570646581</v>
+        <v>129141.3230691403</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="2"/>
-        <v>0.8401270927842206</v>
-      </c>
-      <c r="P33" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.48717627714100192</v>
+      </c>
+      <c r="P33" s="6"/>
       <c r="Q33">
         <v>265081.30450646579</v>
       </c>
@@ -3182,39 +3173,39 @@
       <c r="C34">
         <v>9</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="4"/>
       <c r="E34">
-        <v>42379.318800000001</v>
+        <v>41078.730000000003</v>
       </c>
       <c r="F34" s="2">
-        <f>E34/Q34</f>
-        <v>0.11245726306735276</v>
-      </c>
-      <c r="G34" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.10900603588943851</v>
+      </c>
+      <c r="G34" s="6"/>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="6"/>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="6"/>
       <c r="N34">
-        <v>334468.89574900811</v>
+        <v>190089.06249024879</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="2"/>
-        <v>0.88754273693264718</v>
-      </c>
-      <c r="P34" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.50441810562307499</v>
+      </c>
+      <c r="P34" s="6"/>
       <c r="Q34">
         <v>376848.21454900812</v>
       </c>
@@ -3229,52 +3220,52 @@
       <c r="C35">
         <v>10</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>14</v>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E35">
-        <v>43315.568800000001</v>
+        <v>41734.980000000003</v>
       </c>
       <c r="F35" s="2">
-        <f>E35/Q35</f>
-        <v>0.1012798516039727</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" ref="G35" si="43">SUM(E35:E37)/SUM(Q35:Q37)</f>
-        <v>0.1141628281799527</v>
+        <f t="shared" si="0"/>
+        <v>9.7584141180544051E-2</v>
+      </c>
+      <c r="G35" s="5">
+        <f>SUM(E35:E37)/SUM(Q35:Q37)</f>
+        <v>0.10997629749127762</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" ref="J35" si="44">SUM(H35:H37)/SUM(Q35:Q37)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <f>SUM(H35:H37)/SUM(Q35:Q37)</f>
         <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
-        <f t="shared" ref="M35" si="45">SUM(K35:K37)/SUM(Q35:Q37)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <f>SUM(K35:K37)/SUM(Q35:Q37)</f>
         <v>0</v>
       </c>
       <c r="N35">
-        <v>384366.42435075762</v>
+        <v>264413.85857899499</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="2"/>
-        <v>0.89872014839602732</v>
-      </c>
-      <c r="P35" s="6">
-        <f t="shared" ref="P35" si="46">SUM(N35:N37)/SUM(Q35:Q37)</f>
-        <v>0.8858371718200474</v>
+        <f t="shared" si="3"/>
+        <v>0.6182487521418496</v>
+      </c>
+      <c r="P35" s="5">
+        <f>SUM(N35:N37)/SUM(Q35:Q37)</f>
+        <v>0.52140571124227042</v>
       </c>
       <c r="Q35">
         <v>427681.99315075763</v>
@@ -3290,39 +3281,39 @@
       <c r="C36">
         <v>11</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="4"/>
       <c r="E36">
-        <v>43315.568800000001</v>
+        <v>41734.980000000003</v>
       </c>
       <c r="F36" s="2">
-        <f>E36/Q36</f>
-        <v>0.12879151280099546</v>
-      </c>
-      <c r="G36" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.12409189951395237</v>
+      </c>
+      <c r="G36" s="6"/>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="6"/>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="6"/>
       <c r="N36">
-        <v>293007.59301369678</v>
+        <v>167667.04166525509</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="2"/>
-        <v>0.87120848719900446</v>
-      </c>
-      <c r="P36" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.4985295712643566</v>
+      </c>
+      <c r="P36" s="6"/>
       <c r="Q36">
         <v>336323.16181369679</v>
       </c>
@@ -3337,105 +3328,105 @@
       <c r="C37">
         <v>12</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="4"/>
       <c r="E37">
-        <v>43405.448799999998</v>
+        <v>41797.980000000003</v>
       </c>
       <c r="F37" s="2">
-        <f>E37/Q37</f>
-        <v>0.1157355992095406</v>
-      </c>
-      <c r="G37" s="5"/>
+        <f t="shared" si="0"/>
+        <v>0.11144946993494499</v>
+      </c>
+      <c r="G37" s="6"/>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="6"/>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="5"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="6"/>
       <c r="N37">
-        <v>331634.28915836097</v>
+        <v>161823.6122870463</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="2"/>
-        <v>0.88426440079045932</v>
-      </c>
-      <c r="P37" s="5"/>
+        <f t="shared" si="3"/>
+        <v>0.43148390932646413</v>
+      </c>
+      <c r="P37" s="6"/>
       <c r="Q37">
         <v>375039.73795836099</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J22"/>
     <mergeCell ref="J26:J28"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="P35:P37"/>
     <mergeCell ref="J29:J31"/>
     <mergeCell ref="J32:J34"/>
     <mergeCell ref="J35:J37"/>
     <mergeCell ref="M29:M31"/>
     <mergeCell ref="M32:M34"/>
     <mergeCell ref="M35:M37"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
     <mergeCell ref="M26:M28"/>
+    <mergeCell ref="P11:P13"/>
     <mergeCell ref="P14:P16"/>
     <mergeCell ref="P17:P19"/>
     <mergeCell ref="P20:P22"/>
     <mergeCell ref="P23:P25"/>
-    <mergeCell ref="P26:P28"/>
-    <mergeCell ref="P29:P31"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="P5:P7"/>
     <mergeCell ref="P8:P10"/>
-    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G22"/>
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:G31"/>
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="D17:D19"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholaswertz/personal_projects/codi_pres/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B78599-BD0E-5D4C-A92C-6773CB3656E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DB6B8B-D201-D84A-BC21-363A19284319}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="54">
   <si>
     <t>year</t>
   </si>
@@ -180,12 +180,22 @@
   <si>
     <t>Long Term</t>
   </si>
+  <si>
+    <t xml:space="preserve">Short Term Bookings  </t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
@@ -302,7 +312,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -320,9 +330,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -389,6 +396,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -509,6 +519,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,7 +928,7 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>TCV Through 2024</a:t>
+              <a:t>Revenue Through 2024</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -1185,6 +1201,7 @@
         <c:crossAx val="658907824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="4000000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1266,7 +1283,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800"/>
-              <a:t>Projected TCV Thru Q4 2024 </a:t>
+              <a:t>Projected Revenue Through Q4 2024 </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1625,6 +1642,1060 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Daily Revenue </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4E08-4847-81CA-9A16BBEA65E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4E08-4847-81CA-9A16BBEA65E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MESS AROUND'!$Q$82:$Q$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v> Short Term Bookings   </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Long Term Bookings </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MESS AROUND'!$R$82:$R$83</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2382.4499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>469.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E08-4847-81CA-9A16BBEA65E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="658995568"/>
+        <c:axId val="623531104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658995568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623531104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623531104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658995568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Projected Yearly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Revenue</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7D95-DF46-810C-3454429211AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7D95-DF46-810C-3454429211AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7D95-DF46-810C-3454429211AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>'MESS AROUND'!$S$54:$S$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MESS AROUND'!$T$54:$T$56</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2821731.9308359013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6674796.1367346589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10072786.846637385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D95-DF46-810C-3454429211AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="815080864"/>
+        <c:axId val="624592736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="815080864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624592736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="624592736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815080864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Projected Yearly Growth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0423-A045-8912-A49A8EA28B81}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MESS AROUND'!$U$46:$U$47</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2022-2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023-2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MESS AROUND'!$V$46:$V$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.3654961918219275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87644678396803766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0423-A045-8912-A49A8EA28B81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="625635296"/>
+        <c:axId val="624410928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="625635296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624410928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="624410928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625635296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1660,7 +2731,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>TCV Q1</a:t>
+              <a:t>Total YTD Revenue Q1</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2172,6 +3243,27 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.18181821244148594"/>
+                  <c:y val="3.1662271760519542E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-48D0-FF47-91DA-3E9EDD987D25}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
@@ -4575,7 +5667,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> TCV with Projected Growth </a:t>
+              <a:t> Revenue with Projected Growth </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5137,11 +6229,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MESS AROUND'!$H$1</c:f>
+              <c:f>'MESS AROUND'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Short Term Add-Ons</c:v>
+                  <c:v>Short Term Bookings</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5277,7 +6369,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MESS AROUND'!$H$2:$H$37</c:f>
+              <c:f>'MESS AROUND'!$K$2:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -5285,109 +6377,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1020</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192</c:v>
+                  <c:v>14800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>302.41583423999992</c:v>
+                  <c:v>12813.919999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>340.50526847999998</c:v>
+                  <c:v>7916.7779858799604</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>390.96977471999998</c:v>
+                  <c:v>8436.1852514270267</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>433.51630560000001</c:v>
+                  <c:v>22013.3787072019</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>473.14438200000001</c:v>
+                  <c:v>7743.0857639359128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>518.24319479999997</c:v>
+                  <c:v>11960.41446632545</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>564.5129958</c:v>
+                  <c:v>21379.325623764224</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.00999520000005</c:v>
+                  <c:v>12841.634795712649</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>646.99703956799988</c:v>
+                  <c:v>12142.385614049579</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>687.58751951999989</c:v>
+                  <c:v>35735.803322162545</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>728.1779994719999</c:v>
+                  <c:v>12280.921603510566</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>768.76847942399991</c:v>
+                  <c:v>18680.281085652561</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>822.2888093759999</c:v>
+                  <c:v>29198.55296463607</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>863.52773932799994</c:v>
+                  <c:v>18766.228354725205</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>906.13243727999998</c:v>
+                  <c:v>18020.09068987114</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>954.50588351999988</c:v>
+                  <c:v>47288.833645111314</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>996.11536373999991</c:v>
+                  <c:v>17310.898475566268</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1048.79626362</c:v>
+                  <c:v>26359.635341344216</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1103.0008380300001</c:v>
+                  <c:v>39621.713764240099</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1145.5226874</c:v>
+                  <c:v>25625.560562648006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1190.7869389416001</c:v>
+                  <c:v>24864.19543083902</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1233.4069428912003</c:v>
+                  <c:v>61694.43464305508</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1276.0269468408001</c:v>
+                  <c:v>23066.192578851747</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1318.6469507904001</c:v>
+                  <c:v>35086.213354950145</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1383.0137672400001</c:v>
+                  <c:v>50382.34206214673</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1426.3146436896002</c:v>
+                  <c:v>32948.122930687612</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1471.8339416592005</c:v>
+                  <c:v>32765.232661347458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6216,6 +7308,126 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8115,6 +9327,1517 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -12290,7 +15013,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>645584</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
@@ -12326,15 +15049,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>275167</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1121833</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>1068917</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12363,16 +15086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>645583</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>136524</xdr:rowOff>
+      <xdr:rowOff>31752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>497415</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>52917</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12532,15 +15255,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:rowOff>74084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>433917</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12569,15 +15292,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>296332</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>173567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>137583</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508001</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12605,14 +15328,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>740833</xdr:colOff>
+      <xdr:colOff>1005417</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
@@ -12641,16 +15364,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>349251</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>783167</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>402167</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12670,6 +15393,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>772584</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>179917</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A41751-2565-974E-B9FA-A1E792CDF713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1053042</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>746125</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1510FB-69B3-D542-9165-297788668FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>68789</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>136527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5EA5DE-80FB-5D46-BAAF-ED289813C3F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13950,14 +16781,14 @@
     <col min="3" max="3" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="8" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15" style="8" customWidth="1"/>
+    <col min="9" max="10" width="15" style="7" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12" style="7" customWidth="1"/>
     <col min="13" max="13" width="12" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="7" customWidth="1"/>
     <col min="16" max="16" width="12.1640625" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" style="2" customWidth="1"/>
@@ -16712,8 +19543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5406410-507F-7242-B0B0-10CF93E06CBD}">
   <dimension ref="A1:AE46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:Q24"/>
+    <sheetView topLeftCell="E17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16723,14 +19554,14 @@
     <col min="3" max="3" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="8" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="15" style="8" customWidth="1"/>
+    <col min="9" max="13" width="15" style="7" customWidth="1"/>
     <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12" style="7" customWidth="1"/>
     <col min="16" max="16" width="12" style="2" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="7" customWidth="1"/>
     <col min="19" max="19" width="12.1640625" style="2" customWidth="1"/>
     <col min="20" max="20" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" style="2" customWidth="1"/>
@@ -16764,7 +19595,7 @@
         <v>13</v>
       </c>
       <c r="J1" s="4"/>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>28</v>
       </c>
       <c r="L1" s="4"/>
@@ -16846,7 +19677,7 @@
         <f>SUM(H2:H4)/SUM(T2:T4)</f>
         <v>1.9017450375175143E-3</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <f>E2+H2</f>
         <v>5660</v>
       </c>
@@ -16858,7 +19689,7 @@
         <f>G2+J2</f>
         <v>4.9911484955239074E-2</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <v>0</v>
       </c>
       <c r="O2" s="6">
@@ -16880,7 +19711,7 @@
         <f>SUM(Q2:Q4)/SUM(T2:T4)</f>
         <v>0.92761063448367154</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="9">
         <f t="shared" ref="T2:T10" si="5">SUM(E2,H2,N2,Q2)</f>
         <v>184490</v>
       </c>
@@ -16937,7 +19768,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="42"/>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <f t="shared" ref="K3:K10" si="6">E3+H3</f>
         <v>5660</v>
       </c>
@@ -16946,7 +19777,7 @@
         <v>4.3775522831332757E-2</v>
       </c>
       <c r="M3" s="49"/>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>3356</v>
       </c>
       <c r="O3" s="6">
@@ -16962,7 +19793,7 @@
         <v>0.93026853112238583</v>
       </c>
       <c r="S3" s="42"/>
-      <c r="T3" s="10">
+      <c r="T3" s="9">
         <f t="shared" si="5"/>
         <v>129296</v>
       </c>
@@ -17016,7 +19847,7 @@
         <v>4.5829617165438182E-3</v>
       </c>
       <c r="J4" s="42"/>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <f t="shared" si="6"/>
         <v>15450</v>
       </c>
@@ -17025,7 +19856,7 @@
         <v>6.9418390706472544E-2</v>
       </c>
       <c r="M4" s="49"/>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <v>8700</v>
       </c>
       <c r="O4" s="6">
@@ -17041,7 +19872,7 @@
         <v>0.89149164171124196</v>
       </c>
       <c r="S4" s="42"/>
-      <c r="T4" s="10">
+      <c r="T4" s="9">
         <f t="shared" si="5"/>
         <v>222563.5</v>
       </c>
@@ -17103,7 +19934,7 @@
         <f>SUM(H5:H7)/SUM(T5:T7)</f>
         <v>5.1354133739038262E-4</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <f t="shared" si="6"/>
         <v>46830</v>
       </c>
@@ -17115,7 +19946,7 @@
         <f t="shared" ref="M5" si="9">G5+J5</f>
         <v>0.1337661063604749</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <v>5400</v>
       </c>
       <c r="O5" s="6">
@@ -17137,7 +19968,7 @@
         <f>SUM(Q5:Q7)/SUM(T5:T7)</f>
         <v>0.82686239110626247</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="9">
         <f t="shared" si="5"/>
         <v>304120.90500000003</v>
       </c>
@@ -17196,7 +20027,7 @@
         <v>6.1443745959754189E-4</v>
       </c>
       <c r="J6" s="42"/>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <f t="shared" si="6"/>
         <v>22538</v>
       </c>
@@ -17205,7 +20036,7 @@
         <v>0.10818899581569842</v>
       </c>
       <c r="M6" s="49"/>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <v>7400</v>
       </c>
       <c r="O6" s="6">
@@ -17221,7 +20052,7 @@
         <v>0.85628883855131865</v>
       </c>
       <c r="S6" s="42"/>
-      <c r="T6" s="10">
+      <c r="T6" s="9">
         <f t="shared" si="5"/>
         <v>208320.63214999999</v>
       </c>
@@ -17273,7 +20104,7 @@
         <v>1.0181727334573126E-3</v>
       </c>
       <c r="J7" s="42"/>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <f t="shared" si="6"/>
         <v>24404</v>
       </c>
@@ -17282,7 +20113,7 @@
         <v>0.12941399680881382</v>
       </c>
       <c r="M7" s="49"/>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>14800</v>
       </c>
       <c r="O7" s="6">
@@ -17298,7 +20129,7 @@
         <v>0.79210185498718499</v>
       </c>
       <c r="S7" s="42"/>
-      <c r="T7" s="10">
+      <c r="T7" s="9">
         <f t="shared" si="5"/>
         <v>188573.1111145</v>
       </c>
@@ -17358,7 +20189,7 @@
         <f>SUM(H8:H10)/SUM(T8:T10)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <f t="shared" si="6"/>
         <v>24392</v>
       </c>
@@ -17370,7 +20201,7 @@
         <f t="shared" ref="M8" si="10">G8+J8</f>
         <v>9.8581997868069024E-2</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <v>11000</v>
       </c>
       <c r="O8" s="6">
@@ -17392,7 +20223,7 @@
         <f>SUM(Q8:Q10)/SUM(T8:T10)</f>
         <v>0.87027943435883737</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="9">
         <f t="shared" si="5"/>
         <v>393548.784447935</v>
       </c>
@@ -17451,7 +20282,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="42"/>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f t="shared" si="6"/>
         <v>24212</v>
       </c>
@@ -17460,7 +20291,7 @@
         <v>0.16183831212970637</v>
       </c>
       <c r="M9" s="49"/>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>9800</v>
       </c>
       <c r="O9" s="6">
@@ -17476,7 +20307,7 @@
         <v>0.77265634098151437</v>
       </c>
       <c r="S9" s="42"/>
-      <c r="T9" s="10">
+      <c r="T9" s="9">
         <f t="shared" si="5"/>
         <v>149606.107981373</v>
       </c>
@@ -17528,7 +20359,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="42"/>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <f t="shared" si="6"/>
         <v>24212</v>
       </c>
@@ -17537,7 +20368,7 @@
         <v>0.12385988286099389</v>
       </c>
       <c r="M10" s="49"/>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>2200</v>
       </c>
       <c r="O10" s="6">
@@ -17553,7 +20384,7 @@
         <v>0.86488570848651203</v>
       </c>
       <c r="S10" s="42"/>
-      <c r="T10" s="10">
+      <c r="T10" s="9">
         <f t="shared" si="5"/>
         <v>195478.95122081431</v>
       </c>
@@ -17582,7 +20413,7 @@
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <f>AVERAGE(E2:E10)</f>
         <v>21330.888888888891</v>
       </c>
@@ -17590,11 +20421,11 @@
         <f>AVERAGE(F2:F10)</f>
         <v>9.7421288056251804E-2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f>AVERAGE(G2:G10)</f>
         <v>9.3281434269625041E-2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f t="shared" ref="H11:S11" si="12">AVERAGE(H2:H10)</f>
         <v>153.33333333333334</v>
       </c>
@@ -17602,11 +20433,11 @@
         <f t="shared" si="12"/>
         <v>7.0523317188958361E-4</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <f t="shared" si="12"/>
         <v>8.0509545830263231E-4</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f t="shared" ref="K11" si="13">AVERAGE(K2:K10)</f>
         <v>21484.222222222223</v>
       </c>
@@ -17614,11 +20445,11 @@
         <f t="shared" ref="L11" si="14">AVERAGE(L2:L10)</f>
         <v>9.8126521228141389E-2</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f t="shared" ref="M11" si="15">AVERAGE(M2:M10)</f>
         <v>9.4086529727927679E-2</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <f t="shared" si="12"/>
         <v>6961.7777777777774</v>
       </c>
@@ -17626,11 +20457,11 @@
         <f t="shared" si="12"/>
         <v>3.3502096723122744E-2</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <f t="shared" si="12"/>
         <v>3.0995983622481894E-2</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="8">
         <f t="shared" si="12"/>
         <v>191109.33243495805</v>
       </c>
@@ -17638,11 +20469,11 @@
         <f t="shared" si="12"/>
         <v>0.86837138204873587</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="7">
         <f t="shared" si="12"/>
         <v>0.87491748664959046</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="9">
         <f t="shared" ref="T11" si="16">AVERAGE(T2:T10)</f>
         <v>219555.33243495805</v>
       </c>
@@ -17650,7 +20481,7 @@
         <f t="shared" ref="U11" si="17">AVERAGE(U2:U10)</f>
         <v>0.14407192591628948</v>
       </c>
-      <c r="V11" s="8"/>
+      <c r="V11" s="7"/>
       <c r="AE11" s="38"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -17663,13 +20494,13 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <f>SUM(E2:E10)</f>
         <v>191978</v>
       </c>
       <c r="T13" s="69">
-        <f>SUM(T2:T11)</f>
-        <v>2195553.3243495803</v>
+        <f>SUM(T2:T10)</f>
+        <v>1975997.9919146225</v>
       </c>
       <c r="AE13" s="38"/>
     </row>
@@ -17680,7 +20511,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <f>SUM(H2:H10)</f>
         <v>1380</v>
       </c>
@@ -17693,21 +20524,21 @@
       <c r="AE15" s="38"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="Q16" s="10"/>
+      <c r="Q16" s="9"/>
       <c r="AE16" s="38"/>
     </row>
     <row r="17" spans="10:31" x14ac:dyDescent="0.2">
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="9">
         <f>SUM(N13:N14)</f>
         <v>193358</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="7">
         <f>Q17/Q20</f>
         <v>9.7853338308632493E-2</v>
       </c>
@@ -17717,25 +20548,29 @@
       <c r="P18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="9">
         <f>SUM(Q2:Q10)</f>
         <v>1719983.9919146225</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <f>Q18/Q20</f>
         <v>0.87043812744367322</v>
       </c>
       <c r="AE18" s="38"/>
     </row>
     <row r="19" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J19" s="69">
+        <f>SUM(T2:T10)</f>
+        <v>1975997.9919146225</v>
+      </c>
       <c r="P19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="9">
         <f>SUM(N2:N10)</f>
         <v>62656</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="7">
         <f>Q19/Q20</f>
         <v>3.1708534247694313E-2</v>
       </c>
@@ -17744,7 +20579,7 @@
       <c r="P20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="9">
         <f>SUM(Q16:Q19)</f>
         <v>1975997.9919146225</v>
       </c>
@@ -17758,10 +20593,10 @@
       <c r="P23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="9">
         <v>2382.4516129032199</v>
       </c>
-      <c r="S23" s="13">
+      <c r="S23" s="12">
         <v>44583</v>
       </c>
     </row>
@@ -17769,98 +20604,102 @@
       <c r="P24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="9">
         <v>469.159527672617</v>
       </c>
-      <c r="S24" s="13">
+      <c r="S24" s="12">
         <v>44614</v>
       </c>
     </row>
     <row r="25" spans="10:31" x14ac:dyDescent="0.2">
-      <c r="S25" s="13">
+      <c r="S25" s="12">
         <v>44642</v>
       </c>
     </row>
     <row r="26" spans="10:31" x14ac:dyDescent="0.2">
-      <c r="S26" s="13">
+      <c r="S26" s="12">
         <v>44673</v>
       </c>
     </row>
     <row r="27" spans="10:31" x14ac:dyDescent="0.2">
-      <c r="S27" s="13">
+      <c r="S27" s="12">
         <v>44703</v>
       </c>
     </row>
     <row r="28" spans="10:31" x14ac:dyDescent="0.2">
-      <c r="S28" s="13">
+      <c r="Q28" s="2">
+        <f>Q23/Q24</f>
+        <v>5.0781268894228067</v>
+      </c>
+      <c r="S28" s="12">
         <v>44734</v>
       </c>
     </row>
     <row r="29" spans="10:31" x14ac:dyDescent="0.2">
-      <c r="S29" s="13">
+      <c r="S29" s="12">
         <v>44764</v>
       </c>
     </row>
     <row r="30" spans="10:31" x14ac:dyDescent="0.2">
-      <c r="S30" s="13">
+      <c r="S30" s="12">
         <v>44795</v>
       </c>
     </row>
     <row r="31" spans="10:31" x14ac:dyDescent="0.2">
-      <c r="S31" s="13">
+      <c r="S31" s="12">
         <v>44826</v>
       </c>
     </row>
     <row r="32" spans="10:31" x14ac:dyDescent="0.2">
-      <c r="S32" s="13">
+      <c r="S32" s="12">
         <v>44856</v>
       </c>
     </row>
     <row r="33" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S33" s="13">
+      <c r="S33" s="12">
         <v>44887</v>
       </c>
     </row>
     <row r="34" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S34" s="13">
+      <c r="S34" s="12">
         <v>44917</v>
       </c>
     </row>
     <row r="35" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S35" s="13"/>
+      <c r="S35" s="12"/>
     </row>
     <row r="36" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S36" s="13"/>
+      <c r="S36" s="12"/>
     </row>
     <row r="37" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S37" s="13"/>
+      <c r="S37" s="12"/>
     </row>
     <row r="38" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S38" s="13"/>
+      <c r="S38" s="12"/>
     </row>
     <row r="39" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S39" s="13"/>
+      <c r="S39" s="12"/>
     </row>
     <row r="40" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S40" s="13"/>
+      <c r="S40" s="12"/>
     </row>
     <row r="41" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S41" s="13"/>
+      <c r="S41" s="12"/>
     </row>
     <row r="42" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S42" s="13"/>
+      <c r="S42" s="12"/>
     </row>
     <row r="43" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S43" s="13"/>
+      <c r="S43" s="12"/>
     </row>
     <row r="44" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S44" s="13"/>
+      <c r="S44" s="12"/>
     </row>
     <row r="45" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S45" s="13"/>
+      <c r="S45" s="12"/>
     </row>
     <row r="46" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S46" s="13"/>
+      <c r="S46" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -17892,6 +20731,7 @@
     <mergeCell ref="V8:V10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -17900,7 +20740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF849664-9594-BE47-A4EC-2151CAEBE8CC}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
@@ -17911,16 +20751,16 @@
     <col min="3" max="3" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="8" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15" style="8" customWidth="1"/>
+    <col min="9" max="10" width="15" style="7" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12" style="7" customWidth="1"/>
     <col min="13" max="13" width="12" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="7" customWidth="1"/>
     <col min="16" max="16" width="12.1640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" style="2" customWidth="1"/>
     <col min="19" max="19" width="18.1640625" style="2" customWidth="1"/>
     <col min="20" max="20" width="8.83203125" style="2"/>
@@ -17966,7 +20806,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="3"/>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="5" t="s">
@@ -18048,7 +20888,7 @@
         <f>SUM(N2:N4)/SUM(Q2:Q4)</f>
         <v>0.92761063448367154</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <f>SUM(E2,H2,K2,N2)</f>
         <v>184490</v>
       </c>
@@ -18073,7 +20913,7 @@
       <c r="X2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="14">
+      <c r="AA2" s="13">
         <v>44562</v>
       </c>
     </row>
@@ -18120,7 +20960,7 @@
         <v>0.93026853112238583</v>
       </c>
       <c r="P3" s="42"/>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <f>SUM(E3,H3,K3,N3)</f>
         <v>129296</v>
       </c>
@@ -18142,7 +20982,7 @@
         <v>2</v>
       </c>
       <c r="X3" s="43"/>
-      <c r="AA3" s="14">
+      <c r="AA3" s="13">
         <v>44593</v>
       </c>
     </row>
@@ -18189,7 +21029,7 @@
         <v>0.89149164171124196</v>
       </c>
       <c r="P4" s="42"/>
-      <c r="Q4" s="10">
+      <c r="Q4" s="9">
         <f t="shared" ref="Q4:Q37" si="4">SUM(E4,H4,K4,N4)</f>
         <v>222563.5</v>
       </c>
@@ -18211,7 +21051,7 @@
         <v>3</v>
       </c>
       <c r="X4" s="44"/>
-      <c r="AA4" s="14">
+      <c r="AA4" s="13">
         <v>44621</v>
       </c>
     </row>
@@ -18272,7 +21112,7 @@
         <f>SUM(N5:N7)/SUM(Q5:Q7)</f>
         <v>0.82686239110626247</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <f t="shared" si="4"/>
         <v>304120.90500000003</v>
       </c>
@@ -18299,7 +21139,7 @@
       <c r="X5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AA5" s="13">
         <v>44652</v>
       </c>
     </row>
@@ -18346,7 +21186,7 @@
         <v>0.85628883855131865</v>
       </c>
       <c r="P6" s="42"/>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <f t="shared" si="4"/>
         <v>208320.63214999999</v>
       </c>
@@ -18366,7 +21206,7 @@
         <v>5</v>
       </c>
       <c r="X6" s="43"/>
-      <c r="AA6" s="14">
+      <c r="AA6" s="13">
         <v>44682</v>
       </c>
     </row>
@@ -18413,7 +21253,7 @@
         <v>0.79210185498718499</v>
       </c>
       <c r="P7" s="42"/>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <f t="shared" si="4"/>
         <v>188573.1111145</v>
       </c>
@@ -18433,7 +21273,7 @@
         <v>6</v>
       </c>
       <c r="X7" s="44"/>
-      <c r="AA7" s="14">
+      <c r="AA7" s="13">
         <v>44713</v>
       </c>
     </row>
@@ -18494,7 +21334,7 @@
         <f>SUM(N8:N10)/SUM(Q8:Q10)</f>
         <v>0.87027943435883737</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <f t="shared" si="4"/>
         <v>393548.784447935</v>
       </c>
@@ -18521,7 +21361,7 @@
       <c r="X8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA8" s="13">
         <v>44743</v>
       </c>
     </row>
@@ -18568,7 +21408,7 @@
         <v>0.77265634098151437</v>
       </c>
       <c r="P9" s="42"/>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <f t="shared" si="4"/>
         <v>149606.107981373</v>
       </c>
@@ -18588,7 +21428,7 @@
         <v>8</v>
       </c>
       <c r="X9" s="41"/>
-      <c r="AA9" s="14">
+      <c r="AA9" s="13">
         <v>44774</v>
       </c>
     </row>
@@ -18635,7 +21475,7 @@
         <v>0.86488570848651203</v>
       </c>
       <c r="P10" s="42"/>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <f t="shared" si="4"/>
         <v>195478.95122081431</v>
       </c>
@@ -18655,7 +21495,7 @@
         <v>9</v>
       </c>
       <c r="X10" s="41"/>
-      <c r="AA10" s="14">
+      <c r="AA10" s="13">
         <v>44805</v>
       </c>
     </row>
@@ -18716,7 +21556,7 @@
         <f>SUM(N11:N13)/SUM(Q11:Q13)</f>
         <v>0.81301001798810835</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <f t="shared" si="4"/>
         <v>289969.59775743866</v>
       </c>
@@ -18743,7 +21583,7 @@
       <c r="X11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AA11" s="14">
+      <c r="AA11" s="13">
         <v>44835</v>
       </c>
     </row>
@@ -18790,7 +21630,7 @@
         <v>0.8017247502209115</v>
       </c>
       <c r="P12" s="42"/>
-      <c r="Q12" s="10">
+      <c r="Q12" s="9">
         <f t="shared" si="4"/>
         <v>185156.7456901618</v>
       </c>
@@ -18810,7 +21650,7 @@
         <v>11</v>
       </c>
       <c r="X12" s="41"/>
-      <c r="AA12" s="14">
+      <c r="AA12" s="13">
         <v>44866</v>
       </c>
     </row>
@@ -18857,7 +21697,7 @@
         <v>0.78958992964708508</v>
       </c>
       <c r="P13" s="42"/>
-      <c r="Q13" s="10">
+      <c r="Q13" s="9">
         <f t="shared" si="4"/>
         <v>180181.49006086669</v>
       </c>
@@ -18877,7 +21717,7 @@
         <v>12</v>
       </c>
       <c r="X13" s="41"/>
-      <c r="AA13" s="14">
+      <c r="AA13" s="13">
         <v>44896</v>
       </c>
     </row>
@@ -18938,7 +21778,7 @@
         <f>SUM(N14:N16)/SUM(Q14:Q16)</f>
         <v>0.83938282360435112</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <f t="shared" si="4"/>
         <v>375497.79330269271</v>
       </c>
@@ -18966,7 +21806,7 @@
       <c r="X14" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AA14" s="13">
         <v>44927</v>
       </c>
     </row>
@@ -19013,7 +21853,7 @@
         <v>0.73999741517105333</v>
       </c>
       <c r="P15" s="42"/>
-      <c r="Q15" s="10">
+      <c r="Q15" s="9">
         <f t="shared" si="4"/>
         <v>146902.38570177351</v>
       </c>
@@ -19031,7 +21871,7 @@
         <v>2</v>
       </c>
       <c r="X15" s="41"/>
-      <c r="AA15" s="14">
+      <c r="AA15" s="13">
         <v>44958</v>
       </c>
     </row>
@@ -19078,7 +21918,7 @@
         <v>0.80054645423255033</v>
       </c>
       <c r="P16" s="42"/>
-      <c r="Q16" s="10">
+      <c r="Q16" s="9">
         <f t="shared" si="4"/>
         <v>193541.30733282669</v>
       </c>
@@ -19096,7 +21936,7 @@
         <v>3</v>
       </c>
       <c r="X16" s="41"/>
-      <c r="AA16" s="14">
+      <c r="AA16" s="13">
         <v>44986</v>
       </c>
     </row>
@@ -19157,7 +21997,7 @@
         <f>SUM(N17:N19)/SUM(Q17:Q19)</f>
         <v>0.81860887575043007</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="9">
         <f t="shared" si="4"/>
         <v>296118.59124901146</v>
       </c>
@@ -19182,7 +22022,7 @@
       <c r="X17" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AA17" s="14">
+      <c r="AA17" s="13">
         <v>45017</v>
       </c>
     </row>
@@ -19229,7 +22069,7 @@
         <v>0.78684355391538663</v>
       </c>
       <c r="P18" s="42"/>
-      <c r="Q18" s="10">
+      <c r="Q18" s="9">
         <f t="shared" si="4"/>
         <v>183116.6765864818</v>
       </c>
@@ -19247,7 +22087,7 @@
         <v>5</v>
       </c>
       <c r="X18" s="41"/>
-      <c r="AA18" s="14">
+      <c r="AA18" s="13">
         <v>45047</v>
       </c>
     </row>
@@ -19294,7 +22134,7 @@
         <v>0.76547169964143813</v>
       </c>
       <c r="P19" s="42"/>
-      <c r="Q19" s="10">
+      <c r="Q19" s="9">
         <f t="shared" si="4"/>
         <v>166813.9833878763</v>
       </c>
@@ -19312,7 +22152,7 @@
         <v>6</v>
       </c>
       <c r="X19" s="41"/>
-      <c r="AA19" s="14">
+      <c r="AA19" s="13">
         <v>45078</v>
       </c>
     </row>
@@ -19373,7 +22213,7 @@
         <f>SUM(N20:N22)/SUM(Q20:Q22)</f>
         <v>0.84373156597681342</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="9">
         <f t="shared" si="4"/>
         <v>392741.46731859859</v>
       </c>
@@ -19398,7 +22238,7 @@
       <c r="X20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AA20" s="14">
+      <c r="AA20" s="13">
         <v>45108</v>
       </c>
     </row>
@@ -19445,7 +22285,7 @@
         <v>0.74574705760688131</v>
       </c>
       <c r="P21" s="42"/>
-      <c r="Q21" s="10">
+      <c r="Q21" s="9">
         <f t="shared" si="4"/>
         <v>153872.75219615651</v>
       </c>
@@ -19463,7 +22303,7 @@
         <v>8</v>
       </c>
       <c r="X21" s="41"/>
-      <c r="AA21" s="14">
+      <c r="AA21" s="13">
         <v>45139</v>
       </c>
     </row>
@@ -19510,7 +22350,7 @@
         <v>0.80864567797266684</v>
       </c>
       <c r="P22" s="42"/>
-      <c r="Q22" s="10">
+      <c r="Q22" s="9">
         <f t="shared" si="4"/>
         <v>204451.09149095521</v>
       </c>
@@ -19528,7 +22368,7 @@
         <v>9</v>
       </c>
       <c r="X22" s="41"/>
-      <c r="AA22" s="14">
+      <c r="AA22" s="13">
         <v>45170</v>
       </c>
     </row>
@@ -19589,7 +22429,7 @@
         <f>SUM(N23:N25)/SUM(Q23:Q25)</f>
         <v>0.81720684712366587</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="9">
         <f t="shared" si="4"/>
         <v>285207.19597564242</v>
       </c>
@@ -19614,7 +22454,7 @@
       <c r="X23" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AA23" s="14">
+      <c r="AA23" s="13">
         <v>45200</v>
       </c>
     </row>
@@ -19661,7 +22501,7 @@
         <v>0.79077252548989196</v>
       </c>
       <c r="P24" s="42"/>
-      <c r="Q24" s="10">
+      <c r="Q24" s="9">
         <f t="shared" si="4"/>
         <v>189973.13853291172</v>
       </c>
@@ -19679,7 +22519,7 @@
         <v>11</v>
       </c>
       <c r="X24" s="41"/>
-      <c r="AA24" s="14">
+      <c r="AA24" s="13">
         <v>45231</v>
       </c>
     </row>
@@ -19726,7 +22566,7 @@
         <v>0.77571319330186428</v>
       </c>
       <c r="P25" s="42"/>
-      <c r="Q25" s="10">
+      <c r="Q25" s="9">
         <f t="shared" si="4"/>
         <v>177485.25018494049</v>
       </c>
@@ -19744,7 +22584,7 @@
         <v>12</v>
       </c>
       <c r="X25" s="41"/>
-      <c r="AA25" s="14">
+      <c r="AA25" s="13">
         <v>45261</v>
       </c>
     </row>
@@ -19805,7 +22645,7 @@
         <f>SUM(N26:N28)/SUM(Q26:Q28)</f>
         <v>0.84209854574007525</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="9">
         <f t="shared" si="4"/>
         <v>385652.41413890611</v>
       </c>
@@ -19833,7 +22673,7 @@
       <c r="X26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AA26" s="14">
+      <c r="AA26" s="13">
         <v>45292</v>
       </c>
     </row>
@@ -19880,7 +22720,7 @@
         <v>0.75138798215863989</v>
       </c>
       <c r="P27" s="42"/>
-      <c r="Q27" s="10">
+      <c r="Q27" s="9">
         <f t="shared" si="4"/>
         <v>161314.6071868132</v>
       </c>
@@ -19898,7 +22738,7 @@
         <v>2</v>
       </c>
       <c r="X27" s="41"/>
-      <c r="AA27" s="14">
+      <c r="AA27" s="13">
         <v>45323</v>
       </c>
     </row>
@@ -19945,7 +22785,7 @@
         <v>0.81381479781486343</v>
       </c>
       <c r="P28" s="42"/>
-      <c r="Q28" s="10">
+      <c r="Q28" s="9">
         <f t="shared" si="4"/>
         <v>217700.57192674029</v>
       </c>
@@ -19963,7 +22803,7 @@
         <v>3</v>
       </c>
       <c r="X28" s="41"/>
-      <c r="AA28" s="14">
+      <c r="AA28" s="13">
         <v>45352</v>
       </c>
     </row>
@@ -20024,7 +22864,7 @@
         <f>SUM(N29:N31)/SUM(Q29:Q31)</f>
         <v>0.8210760917686637</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="9">
         <f t="shared" si="4"/>
         <v>297022.60280555242</v>
       </c>
@@ -20049,7 +22889,7 @@
       <c r="X29" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AA29" s="14">
+      <c r="AA29" s="13">
         <v>45383</v>
       </c>
     </row>
@@ -20096,7 +22936,7 @@
         <v>0.79552058754662902</v>
       </c>
       <c r="P30" s="42"/>
-      <c r="Q30" s="10">
+      <c r="Q30" s="9">
         <f t="shared" si="4"/>
         <v>200431.54715805891</v>
       </c>
@@ -20114,7 +22954,7 @@
         <v>5</v>
       </c>
       <c r="X30" s="41"/>
-      <c r="AA30" s="14">
+      <c r="AA30" s="13">
         <v>45413</v>
       </c>
     </row>
@@ -20161,7 +23001,7 @@
         <v>0.78408194866944481</v>
       </c>
       <c r="P31" s="42"/>
-      <c r="Q31" s="10">
+      <c r="Q31" s="9">
         <f t="shared" si="4"/>
         <v>190251.48544487092</v>
       </c>
@@ -20179,7 +23019,7 @@
         <v>6</v>
       </c>
       <c r="X31" s="41"/>
-      <c r="AA31" s="14">
+      <c r="AA31" s="13">
         <v>45444</v>
       </c>
     </row>
@@ -20240,7 +23080,7 @@
         <f>SUM(N32:N34)/SUM(Q32:Q34)</f>
         <v>0.84591863865361927</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="9">
         <f t="shared" si="4"/>
         <v>398424.59718610486</v>
       </c>
@@ -20265,7 +23105,7 @@
       <c r="X32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AA32" s="14">
+      <c r="AA32" s="13">
         <v>45474</v>
       </c>
     </row>
@@ -20312,7 +23152,7 @@
         <v>0.75867279289758793</v>
       </c>
       <c r="P33" s="42"/>
-      <c r="Q33" s="10">
+      <c r="Q33" s="9">
         <f t="shared" si="4"/>
         <v>170220.0530691403</v>
       </c>
@@ -20330,7 +23170,7 @@
         <v>8</v>
       </c>
       <c r="X33" s="41"/>
-      <c r="AA33" s="14">
+      <c r="AA33" s="13">
         <v>45505</v>
       </c>
     </row>
@@ -20377,7 +23217,7 @@
         <v>0.82229907740399089</v>
       </c>
       <c r="P34" s="42"/>
-      <c r="Q34" s="10">
+      <c r="Q34" s="9">
         <f t="shared" si="4"/>
         <v>231167.7924902488</v>
       </c>
@@ -20395,7 +23235,7 @@
         <v>9</v>
       </c>
       <c r="X34" s="41"/>
-      <c r="AA34" s="14">
+      <c r="AA34" s="13">
         <v>45536</v>
       </c>
     </row>
@@ -20456,7 +23296,7 @@
         <f>SUM(N35:N37)/SUM(Q35:Q37)</f>
         <v>0.82581654850781616</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="9">
         <f t="shared" si="4"/>
         <v>306148.83857899497</v>
       </c>
@@ -20481,7 +23321,7 @@
       <c r="X35" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AA35" s="14">
+      <c r="AA35" s="13">
         <v>45566</v>
       </c>
     </row>
@@ -20528,7 +23368,7 @@
         <v>0.80069447435079444</v>
       </c>
       <c r="P36" s="42"/>
-      <c r="Q36" s="10">
+      <c r="Q36" s="9">
         <f t="shared" si="4"/>
         <v>209402.0216652551</v>
       </c>
@@ -20546,7 +23386,7 @@
         <v>11</v>
       </c>
       <c r="X36" s="41"/>
-      <c r="AA36" s="14">
+      <c r="AA36" s="13">
         <v>45597</v>
       </c>
     </row>
@@ -20593,7 +23433,7 @@
         <v>0.79472717244506563</v>
       </c>
       <c r="P37" s="42"/>
-      <c r="Q37" s="10">
+      <c r="Q37" s="9">
         <f t="shared" si="4"/>
         <v>203621.59228704631</v>
       </c>
@@ -20611,7 +23451,7 @@
         <v>12</v>
       </c>
       <c r="X37" s="41"/>
-      <c r="AA37" s="14">
+      <c r="AA37" s="13">
         <v>45627</v>
       </c>
     </row>
@@ -20660,7 +23500,7 @@
         <f t="shared" si="17"/>
         <v>0.8409668679218596</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="Q38" s="14">
         <f t="shared" si="17"/>
         <v>232455.15507279686</v>
       </c>
@@ -20678,17 +23518,17 @@
         <v>30</v>
       </c>
       <c r="O42" s="50"/>
-      <c r="P42" s="16"/>
+      <c r="P42" s="15"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="N43" s="50"/>
       <c r="O43" s="50"/>
-      <c r="P43" s="16"/>
+      <c r="P43" s="15"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="N44" s="50"/>
       <c r="O44" s="50"/>
-      <c r="P44" s="17">
+      <c r="P44" s="16">
         <f>AVERAGE(L3:L11)</f>
         <v>3.779373437778967E-2</v>
       </c>
@@ -20698,7 +23538,7 @@
         <v>29</v>
       </c>
       <c r="O46" s="50"/>
-      <c r="P46" s="18">
+      <c r="P46" s="17">
         <f>AVERAGE(K3:K11)/AVERAGE(N3:N11)</f>
         <v>4.1417406900984971E-2</v>
       </c>
@@ -20706,17 +23546,17 @@
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="N47" s="50"/>
       <c r="O47" s="50"/>
-      <c r="P47" s="16"/>
+      <c r="P47" s="15"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="N48" s="50"/>
       <c r="O48" s="50"/>
-      <c r="P48" s="16"/>
+      <c r="P48" s="15"/>
     </row>
     <row r="49" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N49" s="50"/>
       <c r="O49" s="50"/>
-      <c r="P49" s="16"/>
+      <c r="P49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="99">
@@ -20829,7 +23669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB81C31-BA4B-374B-ABC6-1BF8E401F175}">
   <dimension ref="A1:AB115"/>
   <sheetViews>
-    <sheetView topLeftCell="H29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
@@ -20840,17 +23680,17 @@
     <col min="3" max="3" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="8" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15" style="8" customWidth="1"/>
+    <col min="9" max="10" width="15" style="7" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12" style="7" customWidth="1"/>
     <col min="13" max="13" width="12" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="7" customWidth="1"/>
     <col min="16" max="16" width="12.1640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.1640625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="9" customWidth="1"/>
     <col min="19" max="19" width="21" style="2" customWidth="1"/>
     <col min="20" max="20" width="18.1640625" style="2" customWidth="1"/>
     <col min="21" max="21" width="8.83203125" style="2"/>
@@ -20896,10 +23736,10 @@
         <v>11</v>
       </c>
       <c r="P1" s="3"/>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="20" t="s">
         <v>32</v>
       </c>
       <c r="S1" s="5" t="s">
@@ -20981,7 +23821,7 @@
         <f>SUM(N2:N4)/SUM(Q2:Q4)</f>
         <v>0.92761063448367154</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <f>SUM(E2,H2,K2,N2)</f>
         <v>184490</v>
       </c>
@@ -21010,7 +23850,7 @@
       <c r="Y2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="14">
+      <c r="AB2" s="13">
         <v>44562</v>
       </c>
     </row>
@@ -21057,7 +23897,7 @@
         <v>0.93026853112238583</v>
       </c>
       <c r="P3" s="42"/>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <f>SUM(E3,H3,K3,N3)</f>
         <v>129296</v>
       </c>
@@ -21080,7 +23920,7 @@
         <v>2</v>
       </c>
       <c r="Y3" s="43"/>
-      <c r="AB3" s="14">
+      <c r="AB3" s="13">
         <v>44593</v>
       </c>
     </row>
@@ -21127,7 +23967,7 @@
         <v>0.89149164171124196</v>
       </c>
       <c r="P4" s="42"/>
-      <c r="Q4" s="10">
+      <c r="Q4" s="9">
         <f t="shared" ref="Q4:Q37" si="4">SUM(E4,H4,K4,N4)</f>
         <v>222563.5</v>
       </c>
@@ -21150,7 +23990,7 @@
         <v>3</v>
       </c>
       <c r="Y4" s="44"/>
-      <c r="AB4" s="14">
+      <c r="AB4" s="13">
         <v>44621</v>
       </c>
     </row>
@@ -21211,7 +24051,7 @@
         <f>SUM(N5:N7)/SUM(Q5:Q7)</f>
         <v>0.82686239110626247</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <f t="shared" si="4"/>
         <v>304120.90500000003</v>
       </c>
@@ -21242,7 +24082,7 @@
       <c r="Y5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB5" s="13">
         <v>44652</v>
       </c>
     </row>
@@ -21289,7 +24129,7 @@
         <v>0.85628883855131865</v>
       </c>
       <c r="P6" s="42"/>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <f t="shared" si="4"/>
         <v>208320.63214999999</v>
       </c>
@@ -21310,7 +24150,7 @@
         <v>5</v>
       </c>
       <c r="Y6" s="43"/>
-      <c r="AB6" s="14">
+      <c r="AB6" s="13">
         <v>44682</v>
       </c>
     </row>
@@ -21357,7 +24197,7 @@
         <v>0.79210185498718499</v>
       </c>
       <c r="P7" s="42"/>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <f t="shared" si="4"/>
         <v>188573.1111145</v>
       </c>
@@ -21378,7 +24218,7 @@
         <v>6</v>
       </c>
       <c r="Y7" s="44"/>
-      <c r="AB7" s="14">
+      <c r="AB7" s="13">
         <v>44713</v>
       </c>
     </row>
@@ -21439,7 +24279,7 @@
         <f>SUM(N8:N10)/SUM(Q8:Q10)</f>
         <v>0.87027943435883737</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <f t="shared" si="4"/>
         <v>393548.784447935</v>
       </c>
@@ -21470,7 +24310,7 @@
       <c r="Y8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AB8" s="13">
         <v>44743</v>
       </c>
     </row>
@@ -21517,7 +24357,7 @@
         <v>0.77265634098151437</v>
       </c>
       <c r="P9" s="42"/>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <f t="shared" si="4"/>
         <v>149606.107981373</v>
       </c>
@@ -21538,7 +24378,7 @@
         <v>8</v>
       </c>
       <c r="Y9" s="41"/>
-      <c r="AB9" s="14">
+      <c r="AB9" s="13">
         <v>44774</v>
       </c>
     </row>
@@ -21585,7 +24425,7 @@
         <v>0.86488570848651203</v>
       </c>
       <c r="P10" s="42"/>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <f t="shared" si="4"/>
         <v>195478.95122081431</v>
       </c>
@@ -21606,7 +24446,7 @@
         <v>9</v>
       </c>
       <c r="Y10" s="41"/>
-      <c r="AB10" s="14">
+      <c r="AB10" s="13">
         <v>44805</v>
       </c>
     </row>
@@ -21668,7 +24508,7 @@
         <f>SUM(N11:N13)/SUM(Q11:Q13)</f>
         <v>0.79738951262260316</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <f>SUM(E11,H11,K11,N11)</f>
         <v>290233.92415743868</v>
       </c>
@@ -21699,7 +24539,7 @@
       <c r="Y11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AB11" s="14">
+      <c r="AB11" s="13">
         <v>44835</v>
       </c>
     </row>
@@ -21748,7 +24588,7 @@
         <v>0.77489854788567825</v>
       </c>
       <c r="P12" s="42"/>
-      <c r="Q12" s="10">
+      <c r="Q12" s="9">
         <f t="shared" si="4"/>
         <v>191566.6845617347</v>
       </c>
@@ -21769,7 +24609,7 @@
         <v>11</v>
       </c>
       <c r="Y12" s="41"/>
-      <c r="AB12" s="14">
+      <c r="AB12" s="13">
         <v>44866</v>
       </c>
     </row>
@@ -21818,7 +24658,7 @@
         <v>0.7634760146746038</v>
       </c>
       <c r="P13" s="42"/>
-      <c r="Q13" s="10">
+      <c r="Q13" s="9">
         <f t="shared" si="4"/>
         <v>186344.41334938657</v>
       </c>
@@ -21839,7 +24679,7 @@
         <v>12</v>
       </c>
       <c r="Y13" s="41"/>
-      <c r="AB13" s="14">
+      <c r="AB13" s="13">
         <v>44896</v>
       </c>
     </row>
@@ -21902,7 +24742,7 @@
         <f>SUM(N14:N16)/SUM(Q14:Q16)</f>
         <v>0.8102879029254495</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <f t="shared" si="4"/>
         <v>389737.13294542418</v>
       </c>
@@ -21934,7 +24774,7 @@
       <c r="Y14" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AB14" s="13">
         <v>44927</v>
       </c>
     </row>
@@ -21983,7 +24823,7 @@
         <v>0.71669902657226048</v>
       </c>
       <c r="P15" s="42"/>
-      <c r="Q15" s="10">
+      <c r="Q15" s="9">
         <f t="shared" si="4"/>
         <v>151677.87546982692</v>
       </c>
@@ -22002,7 +24842,7 @@
         <v>2</v>
       </c>
       <c r="Y15" s="41"/>
-      <c r="AB15" s="14">
+      <c r="AB15" s="13">
         <v>44958</v>
       </c>
     </row>
@@ -22051,7 +24891,7 @@
         <v>0.77378981700423899</v>
       </c>
       <c r="P16" s="42"/>
-      <c r="Q16" s="10">
+      <c r="Q16" s="9">
         <f t="shared" si="4"/>
         <v>200233.71195640572</v>
       </c>
@@ -22070,7 +24910,7 @@
         <v>3</v>
       </c>
       <c r="Y16" s="41"/>
-      <c r="AB16" s="14">
+      <c r="AB16" s="13">
         <v>44986</v>
       </c>
     </row>
@@ -22133,7 +24973,7 @@
         <f>SUM(N17:N19)/SUM(Q17:Q19)</f>
         <v>0.79077637550432045</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="9">
         <f t="shared" si="4"/>
         <v>307042.98942672054</v>
       </c>
@@ -22162,7 +25002,7 @@
       <c r="Y17" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AB17" s="14">
+      <c r="AB17" s="13">
         <v>45017</v>
       </c>
     </row>
@@ -22211,7 +25051,7 @@
         <v>0.76088957288677694</v>
       </c>
       <c r="P18" s="42"/>
-      <c r="Q18" s="10">
+      <c r="Q18" s="9">
         <f t="shared" si="4"/>
         <v>189362.79549716215</v>
       </c>
@@ -22230,7 +25070,7 @@
         <v>5</v>
       </c>
       <c r="Y18" s="41"/>
-      <c r="AB18" s="14">
+      <c r="AB18" s="13">
         <v>45047</v>
       </c>
     </row>
@@ -22279,7 +25119,7 @@
         <v>0.74074623324870603</v>
       </c>
       <c r="P19" s="42"/>
-      <c r="Q19" s="10">
+      <c r="Q19" s="9">
         <f t="shared" si="4"/>
         <v>172382.08938013436</v>
       </c>
@@ -22298,7 +25138,7 @@
         <v>6</v>
       </c>
       <c r="Y19" s="41"/>
-      <c r="AB19" s="14">
+      <c r="AB19" s="13">
         <v>45078</v>
       </c>
     </row>
@@ -22361,7 +25201,7 @@
         <f>SUM(N20:N22)/SUM(Q20:Q22)</f>
         <v>0.8143689875820197</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="9">
         <f t="shared" si="4"/>
         <v>407662.97114558861</v>
       </c>
@@ -22390,7 +25230,7 @@
       <c r="Y20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AB20" s="14">
+      <c r="AB20" s="13">
         <v>45108</v>
       </c>
     </row>
@@ -22439,7 +25279,7 @@
         <v>0.72213011752655798</v>
       </c>
       <c r="P21" s="42"/>
-      <c r="Q21" s="10">
+      <c r="Q21" s="9">
         <f t="shared" si="4"/>
         <v>158905.09121707737</v>
       </c>
@@ -22458,7 +25298,7 @@
         <v>8</v>
       </c>
       <c r="Y21" s="41"/>
-      <c r="AB21" s="14">
+      <c r="AB21" s="13">
         <v>45139</v>
       </c>
     </row>
@@ -22507,7 +25347,7 @@
         <v>0.78140912969041898</v>
       </c>
       <c r="P22" s="42"/>
-      <c r="Q22" s="10">
+      <c r="Q22" s="9">
         <f t="shared" si="4"/>
         <v>211577.37375868074</v>
       </c>
@@ -22526,7 +25366,7 @@
         <v>9</v>
       </c>
       <c r="Y22" s="41"/>
-      <c r="AB22" s="14">
+      <c r="AB22" s="13">
         <v>45170</v>
       </c>
     </row>
@@ -22589,7 +25429,7 @@
         <f>SUM(N23:N25)/SUM(Q23:Q25)</f>
         <v>0.78945858252617362</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="9">
         <f t="shared" si="4"/>
         <v>295655.40596903401</v>
       </c>
@@ -22618,7 +25458,7 @@
       <c r="Y23" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AB23" s="14">
+      <c r="AB23" s="13">
         <v>45200</v>
       </c>
     </row>
@@ -22667,7 +25507,7 @@
         <v>0.76458959788794656</v>
       </c>
       <c r="P24" s="42"/>
-      <c r="Q24" s="10">
+      <c r="Q24" s="9">
         <f t="shared" si="4"/>
         <v>196478.65854817425</v>
       </c>
@@ -22686,7 +25526,7 @@
         <v>11</v>
       </c>
       <c r="Y24" s="41"/>
-      <c r="AB24" s="14">
+      <c r="AB24" s="13">
         <v>45231</v>
       </c>
     </row>
@@ -22735,7 +25575,7 @@
         <v>0.75040257140525346</v>
       </c>
       <c r="P25" s="42"/>
-      <c r="Q25" s="10">
+      <c r="Q25" s="9">
         <f t="shared" si="4"/>
         <v>183471.71962259701</v>
       </c>
@@ -22754,7 +25594,7 @@
         <v>12</v>
       </c>
       <c r="Y25" s="41"/>
-      <c r="AB25" s="14">
+      <c r="AB25" s="13">
         <v>45261</v>
       </c>
     </row>
@@ -22817,7 +25657,7 @@
         <f>SUM(N26:N28)/SUM(Q26:Q28)</f>
         <v>0.81283661436067101</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="9">
         <f t="shared" si="4"/>
         <v>400246.84163425682</v>
       </c>
@@ -22849,7 +25689,7 @@
       <c r="Y26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AB26" s="13">
         <v>45292</v>
       </c>
     </row>
@@ -22898,7 +25738,7 @@
         <v>0.72745650436485043</v>
       </c>
       <c r="P27" s="42"/>
-      <c r="Q27" s="10">
+      <c r="Q27" s="9">
         <f t="shared" si="4"/>
         <v>166621.44947434726</v>
       </c>
@@ -22917,7 +25757,7 @@
         <v>2</v>
       </c>
       <c r="Y27" s="41"/>
-      <c r="AB27" s="14">
+      <c r="AB27" s="13">
         <v>45323</v>
       </c>
     </row>
@@ -22966,7 +25806,7 @@
         <v>0.7862698267745154</v>
       </c>
       <c r="P28" s="42"/>
-      <c r="Q28" s="10">
+      <c r="Q28" s="9">
         <f t="shared" si="4"/>
         <v>225327.15982950735</v>
       </c>
@@ -22985,7 +25825,7 @@
         <v>3</v>
       </c>
       <c r="Y28" s="41"/>
-      <c r="AB28" s="14">
+      <c r="AB28" s="13">
         <v>45352</v>
       </c>
     </row>
@@ -23048,7 +25888,7 @@
         <f>SUM(N29:N31)/SUM(Q29:Q31)</f>
         <v>0.79309506166251731</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="9">
         <f t="shared" si="4"/>
         <v>307917.68148670229</v>
       </c>
@@ -23077,7 +25917,7 @@
       <c r="Y29" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AB29" s="14">
+      <c r="AB29" s="13">
         <v>45383</v>
       </c>
     </row>
@@ -23126,7 +25966,7 @@
         <v>0.76905970107507593</v>
       </c>
       <c r="P30" s="42"/>
-      <c r="Q30" s="10">
+      <c r="Q30" s="9">
         <f t="shared" si="4"/>
         <v>207327.75613540254</v>
       </c>
@@ -23145,7 +25985,7 @@
         <v>5</v>
       </c>
       <c r="Y30" s="41"/>
-      <c r="AB30" s="14">
+      <c r="AB30" s="13">
         <v>45413</v>
       </c>
     </row>
@@ -23194,7 +26034,7 @@
         <v>0.75828831466774316</v>
       </c>
       <c r="P31" s="42"/>
-      <c r="Q31" s="10">
+      <c r="Q31" s="9">
         <f t="shared" si="4"/>
         <v>196723.00437628856</v>
       </c>
@@ -23213,7 +26053,7 @@
         <v>6</v>
       </c>
       <c r="Y31" s="41"/>
-      <c r="AB31" s="14">
+      <c r="AB31" s="13">
         <v>45444</v>
       </c>
     </row>
@@ -23276,7 +26116,7 @@
         <f>SUM(N32:N34)/SUM(Q32:Q34)</f>
         <v>0.8164210068671296</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="9">
         <f t="shared" si="4"/>
         <v>413514.48294360965</v>
       </c>
@@ -23305,7 +26145,7 @@
       <c r="Y32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AB32" s="14">
+      <c r="AB32" s="13">
         <v>45474</v>
       </c>
     </row>
@@ -23354,7 +26194,7 @@
         <v>0.73433217116416671</v>
       </c>
       <c r="P33" s="42"/>
-      <c r="Q33" s="10">
+      <c r="Q33" s="9">
         <f t="shared" si="4"/>
         <v>175862.27070020273</v>
       </c>
@@ -23373,7 +26213,7 @@
         <v>8</v>
       </c>
       <c r="Y33" s="41"/>
-      <c r="AB33" s="14">
+      <c r="AB33" s="13">
         <v>45505</v>
       </c>
     </row>
@@ -23422,7 +26262,7 @@
         <v>0.79424428174363415</v>
       </c>
       <c r="P34" s="42"/>
-      <c r="Q34" s="10">
+      <c r="Q34" s="9">
         <f t="shared" si="4"/>
         <v>239333.24653334508</v>
       </c>
@@ -23441,7 +26281,7 @@
         <v>9</v>
       </c>
       <c r="Y34" s="41"/>
-      <c r="AB34" s="14">
+      <c r="AB34" s="13">
         <v>45536</v>
       </c>
     </row>
@@ -23504,7 +26344,7 @@
         <f>SUM(N35:N37)/SUM(Q35:Q37)</f>
         <v>0.7975490756701944</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="9">
         <f t="shared" si="4"/>
         <v>317396.06418016541</v>
       </c>
@@ -23533,7 +26373,7 @@
       <c r="Y35" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AB35" s="14">
+      <c r="AB35" s="13">
         <v>45566</v>
       </c>
     </row>
@@ -23582,7 +26422,7 @@
         <v>0.77392910294523953</v>
       </c>
       <c r="P36" s="42"/>
-      <c r="Q36" s="10">
+      <c r="Q36" s="9">
         <f t="shared" si="4"/>
         <v>216643.92904619666</v>
       </c>
@@ -23601,7 +26441,7 @@
         <v>11</v>
       </c>
       <c r="Y36" s="41"/>
-      <c r="AB36" s="14">
+      <c r="AB36" s="13">
         <v>45597</v>
       </c>
     </row>
@@ -23650,7 +26490,7 @@
         <v>0.76831283138493267</v>
       </c>
       <c r="P37" s="42"/>
-      <c r="Q37" s="10">
+      <c r="Q37" s="9">
         <f t="shared" si="4"/>
         <v>210622.03529173002</v>
       </c>
@@ -23669,7 +26509,7 @@
         <v>12</v>
       </c>
       <c r="Y37" s="41"/>
-      <c r="AB37" s="14">
+      <c r="AB37" s="13">
         <v>45627</v>
       </c>
     </row>
@@ -23718,11 +26558,11 @@
         <f t="shared" si="30"/>
         <v>0.82057796497248736</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="Q38" s="14">
         <f t="shared" si="30"/>
         <v>238496.29862643784</v>
       </c>
-      <c r="R38" s="15">
+      <c r="R38" s="14">
         <f>AVERAGE(R2:R37)</f>
         <v>715488.89587931347</v>
       </c>
@@ -23740,21 +26580,21 @@
         <v>30</v>
       </c>
       <c r="O42" s="50"/>
-      <c r="P42" s="19"/>
+      <c r="P42" s="18"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N43" s="50"/>
       <c r="O43" s="50"/>
-      <c r="P43" s="19"/>
+      <c r="P43" s="18"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N44" s="50"/>
       <c r="O44" s="50"/>
-      <c r="P44" s="17">
+      <c r="P44" s="16">
         <f>AVERAGE(L3:L11)</f>
         <v>3.7789825830108155E-2</v>
       </c>
-      <c r="Q44" s="10" t="s">
+      <c r="Q44" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -23763,11 +26603,11 @@
         <v>29</v>
       </c>
       <c r="O46" s="50"/>
-      <c r="P46" s="18">
+      <c r="P46" s="17">
         <f>AVERAGE(K3:K11)/AVERAGE(N3:N11)</f>
         <v>4.1417406900984971E-2</v>
       </c>
-      <c r="Q46" s="10" t="s">
+      <c r="Q46" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S46" s="2">
@@ -23778,73 +26618,73 @@
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N47" s="50"/>
       <c r="O47" s="50"/>
-      <c r="P47" s="19"/>
+      <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N48" s="50"/>
       <c r="O48" s="50"/>
-      <c r="P48" s="19"/>
+      <c r="P48" s="18"/>
     </row>
     <row r="49" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N49" s="50"/>
       <c r="O49" s="50"/>
-      <c r="P49" s="19"/>
+      <c r="P49" s="18"/>
     </row>
     <row r="51" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N51" s="52" t="s">
         <v>31</v>
       </c>
       <c r="O51" s="52"/>
-      <c r="P51" s="18">
+      <c r="P51" s="17">
         <f xml:space="preserve"> AVERAGE(H2:H10)/AVERAGE(E2:E10)</f>
         <v>7.1883236620862807E-3</v>
       </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Q51" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="106" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S106" s="20">
+      <c r="S106" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S107" s="20">
+      <c r="S107" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S108" s="20">
+      <c r="S108" s="19">
         <v>1020</v>
       </c>
     </row>
     <row r="109" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S109" s="20">
+      <c r="S109" s="19">
         <v>40</v>
       </c>
     </row>
     <row r="110" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S110" s="20">
+      <c r="S110" s="19">
         <v>128</v>
       </c>
     </row>
     <row r="111" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S111" s="20">
+      <c r="S111" s="19">
         <v>192</v>
       </c>
     </row>
     <row r="112" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S112" s="20">
+      <c r="S112" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S113" s="20">
+      <c r="S113" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S114" s="20">
+      <c r="S114" s="19">
         <v>0</v>
       </c>
     </row>
@@ -23978,7 +26818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E22EE66-CC4E-194C-A45E-C828223F15A9}">
   <dimension ref="A1:AB115"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -23989,17 +26829,17 @@
     <col min="3" max="3" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="8" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15" style="8" customWidth="1"/>
+    <col min="9" max="10" width="15" style="7" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12" style="7" customWidth="1"/>
     <col min="13" max="13" width="12" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="7" customWidth="1"/>
     <col min="16" max="16" width="12.1640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.1640625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="9" customWidth="1"/>
     <col min="19" max="19" width="21" style="2" customWidth="1"/>
     <col min="20" max="20" width="18.1640625" style="2" customWidth="1"/>
     <col min="21" max="21" width="8.83203125" style="2"/>
@@ -24045,10 +26885,10 @@
         <v>11</v>
       </c>
       <c r="P1" s="3"/>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="20" t="s">
         <v>32</v>
       </c>
       <c r="S1" s="5" t="s">
@@ -24130,7 +26970,7 @@
         <f>SUM(N2:N4)/SUM(Q2:Q4)</f>
         <v>0.92761063448367154</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <f>SUM(E2,H2,K2,N2)</f>
         <v>184490</v>
       </c>
@@ -24159,7 +26999,7 @@
       <c r="Y2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="14">
+      <c r="AB2" s="13">
         <v>44562</v>
       </c>
     </row>
@@ -24206,7 +27046,7 @@
         <v>0.93026853112238583</v>
       </c>
       <c r="P3" s="42"/>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <f>SUM(E3,H3,K3,N3)</f>
         <v>129296</v>
       </c>
@@ -24229,7 +27069,7 @@
         <v>2</v>
       </c>
       <c r="Y3" s="43"/>
-      <c r="AB3" s="14">
+      <c r="AB3" s="13">
         <v>44593</v>
       </c>
     </row>
@@ -24276,7 +27116,7 @@
         <v>0.89149164171124196</v>
       </c>
       <c r="P4" s="42"/>
-      <c r="Q4" s="10">
+      <c r="Q4" s="9">
         <f t="shared" ref="Q4:Q37" si="4">SUM(E4,H4,K4,N4)</f>
         <v>222563.5</v>
       </c>
@@ -24299,7 +27139,7 @@
         <v>3</v>
       </c>
       <c r="Y4" s="44"/>
-      <c r="AB4" s="14">
+      <c r="AB4" s="13">
         <v>44621</v>
       </c>
     </row>
@@ -24360,7 +27200,7 @@
         <f>SUM(N5:N7)/SUM(Q5:Q7)</f>
         <v>0.82686239110626247</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <f t="shared" si="4"/>
         <v>304120.90500000003</v>
       </c>
@@ -24391,7 +27231,7 @@
       <c r="Y5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB5" s="13">
         <v>44652</v>
       </c>
     </row>
@@ -24438,7 +27278,7 @@
         <v>0.85628883855131865</v>
       </c>
       <c r="P6" s="42"/>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <f t="shared" si="4"/>
         <v>208320.63214999999</v>
       </c>
@@ -24459,7 +27299,7 @@
         <v>5</v>
       </c>
       <c r="Y6" s="43"/>
-      <c r="AB6" s="14">
+      <c r="AB6" s="13">
         <v>44682</v>
       </c>
     </row>
@@ -24506,7 +27346,7 @@
         <v>0.79210185498718499</v>
       </c>
       <c r="P7" s="42"/>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <f t="shared" si="4"/>
         <v>188573.1111145</v>
       </c>
@@ -24527,7 +27367,7 @@
         <v>6</v>
       </c>
       <c r="Y7" s="44"/>
-      <c r="AB7" s="14">
+      <c r="AB7" s="13">
         <v>44713</v>
       </c>
     </row>
@@ -24588,7 +27428,7 @@
         <f>SUM(N8:N10)/SUM(Q8:Q10)</f>
         <v>0.87027943435883737</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <f t="shared" si="4"/>
         <v>393548.784447935</v>
       </c>
@@ -24619,7 +27459,7 @@
       <c r="Y8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AB8" s="13">
         <v>44743</v>
       </c>
     </row>
@@ -24666,7 +27506,7 @@
         <v>0.77265634098151437</v>
       </c>
       <c r="P9" s="42"/>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <f t="shared" si="4"/>
         <v>149606.107981373</v>
       </c>
@@ -24687,7 +27527,7 @@
         <v>8</v>
       </c>
       <c r="Y9" s="41"/>
-      <c r="AB9" s="14">
+      <c r="AB9" s="13">
         <v>44774</v>
       </c>
     </row>
@@ -24734,7 +27574,7 @@
         <v>0.86488570848651203</v>
       </c>
       <c r="P10" s="42"/>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <f t="shared" si="4"/>
         <v>195478.95122081431</v>
       </c>
@@ -24755,7 +27595,7 @@
         <v>9</v>
       </c>
       <c r="Y10" s="41"/>
-      <c r="AB10" s="14">
+      <c r="AB10" s="13">
         <v>44805</v>
       </c>
     </row>
@@ -24817,7 +27657,7 @@
         <f>SUM(N11:N13)/SUM(Q11:Q13)</f>
         <v>0.79738951262260316</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <f>SUM(E11,H11,K11,N11)</f>
         <v>290233.92415743868</v>
       </c>
@@ -24848,7 +27688,7 @@
       <c r="Y11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AB11" s="14">
+      <c r="AB11" s="13">
         <v>44835</v>
       </c>
     </row>
@@ -24897,7 +27737,7 @@
         <v>0.77489854788567825</v>
       </c>
       <c r="P12" s="42"/>
-      <c r="Q12" s="10">
+      <c r="Q12" s="9">
         <f t="shared" si="4"/>
         <v>191566.6845617347</v>
       </c>
@@ -24918,7 +27758,7 @@
         <v>11</v>
       </c>
       <c r="Y12" s="41"/>
-      <c r="AB12" s="14">
+      <c r="AB12" s="13">
         <v>44866</v>
       </c>
     </row>
@@ -24967,7 +27807,7 @@
         <v>0.7634760146746038</v>
       </c>
       <c r="P13" s="42"/>
-      <c r="Q13" s="10">
+      <c r="Q13" s="9">
         <f t="shared" si="4"/>
         <v>186344.41334938657</v>
       </c>
@@ -24988,7 +27828,7 @@
         <v>12</v>
       </c>
       <c r="Y13" s="41"/>
-      <c r="AB13" s="14">
+      <c r="AB13" s="13">
         <v>44896</v>
       </c>
     </row>
@@ -25051,7 +27891,7 @@
         <f>SUM(N14:N16)/SUM(Q14:Q16)</f>
         <v>0.8102879029254495</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <f t="shared" si="4"/>
         <v>389737.13294542418</v>
       </c>
@@ -25083,7 +27923,7 @@
       <c r="Y14" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AB14" s="13">
         <v>44927</v>
       </c>
     </row>
@@ -25132,7 +27972,7 @@
         <v>0.71669902657226048</v>
       </c>
       <c r="P15" s="42"/>
-      <c r="Q15" s="10">
+      <c r="Q15" s="9">
         <f t="shared" si="4"/>
         <v>151677.87546982692</v>
       </c>
@@ -25151,7 +27991,7 @@
         <v>2</v>
       </c>
       <c r="Y15" s="41"/>
-      <c r="AB15" s="14">
+      <c r="AB15" s="13">
         <v>44958</v>
       </c>
     </row>
@@ -25200,7 +28040,7 @@
         <v>0.77378981700423899</v>
       </c>
       <c r="P16" s="42"/>
-      <c r="Q16" s="10">
+      <c r="Q16" s="9">
         <f t="shared" si="4"/>
         <v>200233.71195640572</v>
       </c>
@@ -25219,7 +28059,7 @@
         <v>3</v>
       </c>
       <c r="Y16" s="41"/>
-      <c r="AB16" s="14">
+      <c r="AB16" s="13">
         <v>44986</v>
       </c>
     </row>
@@ -25282,7 +28122,7 @@
         <f>SUM(N17:N19)/SUM(Q17:Q19)</f>
         <v>0.79077637550432045</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="9">
         <f t="shared" si="4"/>
         <v>307042.98942672054</v>
       </c>
@@ -25311,7 +28151,7 @@
       <c r="Y17" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AB17" s="14">
+      <c r="AB17" s="13">
         <v>45017</v>
       </c>
     </row>
@@ -25360,7 +28200,7 @@
         <v>0.76088957288677694</v>
       </c>
       <c r="P18" s="42"/>
-      <c r="Q18" s="10">
+      <c r="Q18" s="9">
         <f t="shared" si="4"/>
         <v>189362.79549716215</v>
       </c>
@@ -25379,7 +28219,7 @@
         <v>5</v>
       </c>
       <c r="Y18" s="41"/>
-      <c r="AB18" s="14">
+      <c r="AB18" s="13">
         <v>45047</v>
       </c>
     </row>
@@ -25428,7 +28268,7 @@
         <v>0.74074623324870603</v>
       </c>
       <c r="P19" s="42"/>
-      <c r="Q19" s="10">
+      <c r="Q19" s="9">
         <f t="shared" si="4"/>
         <v>172382.08938013436</v>
       </c>
@@ -25447,7 +28287,7 @@
         <v>6</v>
       </c>
       <c r="Y19" s="41"/>
-      <c r="AB19" s="14">
+      <c r="AB19" s="13">
         <v>45078</v>
       </c>
     </row>
@@ -25510,7 +28350,7 @@
         <f>SUM(N20:N22)/SUM(Q20:Q22)</f>
         <v>0.8143689875820197</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="9">
         <f t="shared" si="4"/>
         <v>407662.97114558861</v>
       </c>
@@ -25539,7 +28379,7 @@
       <c r="Y20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AB20" s="14">
+      <c r="AB20" s="13">
         <v>45108</v>
       </c>
     </row>
@@ -25588,7 +28428,7 @@
         <v>0.72213011752655798</v>
       </c>
       <c r="P21" s="42"/>
-      <c r="Q21" s="10">
+      <c r="Q21" s="9">
         <f t="shared" si="4"/>
         <v>158905.09121707737</v>
       </c>
@@ -25607,7 +28447,7 @@
         <v>8</v>
       </c>
       <c r="Y21" s="41"/>
-      <c r="AB21" s="14">
+      <c r="AB21" s="13">
         <v>45139</v>
       </c>
     </row>
@@ -25656,7 +28496,7 @@
         <v>0.78140912969041898</v>
       </c>
       <c r="P22" s="42"/>
-      <c r="Q22" s="10">
+      <c r="Q22" s="9">
         <f t="shared" si="4"/>
         <v>211577.37375868074</v>
       </c>
@@ -25675,7 +28515,7 @@
         <v>9</v>
       </c>
       <c r="Y22" s="41"/>
-      <c r="AB22" s="14">
+      <c r="AB22" s="13">
         <v>45170</v>
       </c>
     </row>
@@ -25738,7 +28578,7 @@
         <f>SUM(N23:N25)/SUM(Q23:Q25)</f>
         <v>0.78945858252617362</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="9">
         <f t="shared" si="4"/>
         <v>295655.40596903401</v>
       </c>
@@ -25767,7 +28607,7 @@
       <c r="Y23" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AB23" s="14">
+      <c r="AB23" s="13">
         <v>45200</v>
       </c>
     </row>
@@ -25816,7 +28656,7 @@
         <v>0.76458959788794656</v>
       </c>
       <c r="P24" s="42"/>
-      <c r="Q24" s="10">
+      <c r="Q24" s="9">
         <f t="shared" si="4"/>
         <v>196478.65854817425</v>
       </c>
@@ -25835,7 +28675,7 @@
         <v>11</v>
       </c>
       <c r="Y24" s="41"/>
-      <c r="AB24" s="14">
+      <c r="AB24" s="13">
         <v>45231</v>
       </c>
     </row>
@@ -25884,7 +28724,7 @@
         <v>0.75040257140525346</v>
       </c>
       <c r="P25" s="42"/>
-      <c r="Q25" s="10">
+      <c r="Q25" s="9">
         <f t="shared" si="4"/>
         <v>183471.71962259701</v>
       </c>
@@ -25903,7 +28743,7 @@
         <v>12</v>
       </c>
       <c r="Y25" s="41"/>
-      <c r="AB25" s="14">
+      <c r="AB25" s="13">
         <v>45261</v>
       </c>
     </row>
@@ -25966,7 +28806,7 @@
         <f>SUM(N26:N28)/SUM(Q26:Q28)</f>
         <v>0.81283661436067101</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="9">
         <f t="shared" si="4"/>
         <v>400246.84163425682</v>
       </c>
@@ -25998,7 +28838,7 @@
       <c r="Y26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AB26" s="13">
         <v>45292</v>
       </c>
     </row>
@@ -26047,7 +28887,7 @@
         <v>0.72745650436485043</v>
       </c>
       <c r="P27" s="42"/>
-      <c r="Q27" s="10">
+      <c r="Q27" s="9">
         <f t="shared" si="4"/>
         <v>166621.44947434726</v>
       </c>
@@ -26066,7 +28906,7 @@
         <v>2</v>
       </c>
       <c r="Y27" s="41"/>
-      <c r="AB27" s="14">
+      <c r="AB27" s="13">
         <v>45323</v>
       </c>
     </row>
@@ -26115,7 +28955,7 @@
         <v>0.7862698267745154</v>
       </c>
       <c r="P28" s="42"/>
-      <c r="Q28" s="10">
+      <c r="Q28" s="9">
         <f t="shared" si="4"/>
         <v>225327.15982950735</v>
       </c>
@@ -26134,7 +28974,7 @@
         <v>3</v>
       </c>
       <c r="Y28" s="41"/>
-      <c r="AB28" s="14">
+      <c r="AB28" s="13">
         <v>45352</v>
       </c>
     </row>
@@ -26197,7 +29037,7 @@
         <f>SUM(N29:N31)/SUM(Q29:Q31)</f>
         <v>0.79309506166251731</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="9">
         <f t="shared" si="4"/>
         <v>307917.68148670229</v>
       </c>
@@ -26226,7 +29066,7 @@
       <c r="Y29" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AB29" s="14">
+      <c r="AB29" s="13">
         <v>45383</v>
       </c>
     </row>
@@ -26275,7 +29115,7 @@
         <v>0.76905970107507593</v>
       </c>
       <c r="P30" s="42"/>
-      <c r="Q30" s="10">
+      <c r="Q30" s="9">
         <f t="shared" si="4"/>
         <v>207327.75613540254</v>
       </c>
@@ -26294,7 +29134,7 @@
         <v>5</v>
       </c>
       <c r="Y30" s="41"/>
-      <c r="AB30" s="14">
+      <c r="AB30" s="13">
         <v>45413</v>
       </c>
     </row>
@@ -26343,7 +29183,7 @@
         <v>0.75828831466774316</v>
       </c>
       <c r="P31" s="42"/>
-      <c r="Q31" s="10">
+      <c r="Q31" s="9">
         <f t="shared" si="4"/>
         <v>196723.00437628856</v>
       </c>
@@ -26362,7 +29202,7 @@
         <v>6</v>
       </c>
       <c r="Y31" s="41"/>
-      <c r="AB31" s="14">
+      <c r="AB31" s="13">
         <v>45444</v>
       </c>
     </row>
@@ -26425,7 +29265,7 @@
         <f>SUM(N32:N34)/SUM(Q32:Q34)</f>
         <v>0.8164210068671296</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="9">
         <f t="shared" si="4"/>
         <v>413514.48294360965</v>
       </c>
@@ -26454,7 +29294,7 @@
       <c r="Y32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AB32" s="14">
+      <c r="AB32" s="13">
         <v>45474</v>
       </c>
     </row>
@@ -26503,7 +29343,7 @@
         <v>0.73433217116416671</v>
       </c>
       <c r="P33" s="42"/>
-      <c r="Q33" s="10">
+      <c r="Q33" s="9">
         <f t="shared" si="4"/>
         <v>175862.27070020273</v>
       </c>
@@ -26522,7 +29362,7 @@
         <v>8</v>
       </c>
       <c r="Y33" s="41"/>
-      <c r="AB33" s="14">
+      <c r="AB33" s="13">
         <v>45505</v>
       </c>
     </row>
@@ -26571,7 +29411,7 @@
         <v>0.79424428174363415</v>
       </c>
       <c r="P34" s="42"/>
-      <c r="Q34" s="10">
+      <c r="Q34" s="9">
         <f t="shared" si="4"/>
         <v>239333.24653334508</v>
       </c>
@@ -26590,7 +29430,7 @@
         <v>9</v>
       </c>
       <c r="Y34" s="41"/>
-      <c r="AB34" s="14">
+      <c r="AB34" s="13">
         <v>45536</v>
       </c>
     </row>
@@ -26653,7 +29493,7 @@
         <f>SUM(N35:N37)/SUM(Q35:Q37)</f>
         <v>0.7975490756701944</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="9">
         <f t="shared" si="4"/>
         <v>317396.06418016541</v>
       </c>
@@ -26682,7 +29522,7 @@
       <c r="Y35" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AB35" s="14">
+      <c r="AB35" s="13">
         <v>45566</v>
       </c>
     </row>
@@ -26731,7 +29571,7 @@
         <v>0.77392910294523953</v>
       </c>
       <c r="P36" s="42"/>
-      <c r="Q36" s="10">
+      <c r="Q36" s="9">
         <f t="shared" si="4"/>
         <v>216643.92904619666</v>
       </c>
@@ -26750,7 +29590,7 @@
         <v>11</v>
       </c>
       <c r="Y36" s="41"/>
-      <c r="AB36" s="14">
+      <c r="AB36" s="13">
         <v>45597</v>
       </c>
     </row>
@@ -26799,7 +29639,7 @@
         <v>0.76831283138493267</v>
       </c>
       <c r="P37" s="42"/>
-      <c r="Q37" s="10">
+      <c r="Q37" s="9">
         <f t="shared" si="4"/>
         <v>210622.03529173002</v>
       </c>
@@ -26818,7 +29658,7 @@
         <v>12</v>
       </c>
       <c r="Y37" s="41"/>
-      <c r="AB37" s="14">
+      <c r="AB37" s="13">
         <v>45627</v>
       </c>
     </row>
@@ -26867,11 +29707,11 @@
         <f t="shared" si="30"/>
         <v>0.82057796497248736</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="Q38" s="14">
         <f t="shared" si="30"/>
         <v>238496.29862643784</v>
       </c>
-      <c r="R38" s="15">
+      <c r="R38" s="14">
         <f>AVERAGE(R2:R37)</f>
         <v>715488.89587931347</v>
       </c>
@@ -26889,21 +29729,21 @@
         <v>30</v>
       </c>
       <c r="O42" s="50"/>
-      <c r="P42" s="19"/>
+      <c r="P42" s="18"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N43" s="50"/>
       <c r="O43" s="50"/>
-      <c r="P43" s="19"/>
+      <c r="P43" s="18"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N44" s="50"/>
       <c r="O44" s="50"/>
-      <c r="P44" s="17">
+      <c r="P44" s="16">
         <f>AVERAGE(L3:L11)</f>
         <v>3.7789825830108155E-2</v>
       </c>
-      <c r="Q44" s="10" t="s">
+      <c r="Q44" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -26912,11 +29752,11 @@
         <v>29</v>
       </c>
       <c r="O46" s="50"/>
-      <c r="P46" s="18">
+      <c r="P46" s="17">
         <f>AVERAGE(K3:K11)/AVERAGE(N3:N11)</f>
         <v>4.1417406900984971E-2</v>
       </c>
-      <c r="Q46" s="10" t="s">
+      <c r="Q46" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S46" s="2">
@@ -26927,73 +29767,73 @@
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N47" s="50"/>
       <c r="O47" s="50"/>
-      <c r="P47" s="19"/>
+      <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N48" s="50"/>
       <c r="O48" s="50"/>
-      <c r="P48" s="19"/>
+      <c r="P48" s="18"/>
     </row>
     <row r="49" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N49" s="50"/>
       <c r="O49" s="50"/>
-      <c r="P49" s="19"/>
+      <c r="P49" s="18"/>
     </row>
     <row r="51" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N51" s="52" t="s">
         <v>31</v>
       </c>
       <c r="O51" s="52"/>
-      <c r="P51" s="18">
+      <c r="P51" s="17">
         <f xml:space="preserve"> AVERAGE(H2:H10)/AVERAGE(E2:E10)</f>
         <v>7.1883236620862807E-3</v>
       </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Q51" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="106" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S106" s="20">
+      <c r="S106" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S107" s="20">
+      <c r="S107" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S108" s="20">
+      <c r="S108" s="19">
         <v>1020</v>
       </c>
     </row>
     <row r="109" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S109" s="20">
+      <c r="S109" s="19">
         <v>40</v>
       </c>
     </row>
     <row r="110" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S110" s="20">
+      <c r="S110" s="19">
         <v>128</v>
       </c>
     </row>
     <row r="111" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S111" s="20">
+      <c r="S111" s="19">
         <v>192</v>
       </c>
     </row>
     <row r="112" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S112" s="20">
+      <c r="S112" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S113" s="20">
+      <c r="S113" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S114" s="20">
+      <c r="S114" s="19">
         <v>0</v>
       </c>
     </row>
@@ -27127,78 +29967,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50EF709-87E5-D14E-A97E-BB4876CB5DD5}">
   <dimension ref="A1:AH136"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AH18"/>
+    <sheetView tabSelected="1" topLeftCell="V38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AK64" sqref="AK64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" style="31" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="15" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="15" style="31" customWidth="1"/>
-    <col min="11" max="11" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="31" customWidth="1"/>
-    <col min="13" max="13" width="12" style="19" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="18" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.1640625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="19" customWidth="1"/>
-    <col min="17" max="17" width="17.1640625" style="28" customWidth="1"/>
-    <col min="18" max="18" width="16" style="28" customWidth="1"/>
-    <col min="19" max="19" width="21" style="19" customWidth="1"/>
-    <col min="20" max="20" width="18.1640625" style="19" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" style="19"/>
-    <col min="22" max="22" width="18.1640625" style="19" customWidth="1"/>
-    <col min="23" max="16384" width="8.83203125" style="19"/>
+    <col min="16" max="16" width="12.1640625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" style="27" customWidth="1"/>
+    <col min="18" max="18" width="16" style="27" customWidth="1"/>
+    <col min="19" max="19" width="21" style="18" customWidth="1"/>
+    <col min="20" max="20" width="18.1640625" style="18" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" style="18"/>
+    <col min="22" max="22" width="18.1640625" style="18" customWidth="1"/>
+    <col min="23" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="24" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="25" t="s">
         <v>32</v>
       </c>
       <c r="S1" s="5" t="s">
@@ -27207,22 +30047,22 @@
       <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>15</v>
       </c>
       <c r="V1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="22" t="s">
+      <c r="W1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -27985,23 +30825,23 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>2022</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>10</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <f>('TOTAL to 24 YES GROW '!E11)*(100%+(Z43))</f>
         <v>42002.199199999995</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <f>E11/Q11</f>
         <v>0.12649107131971732</v>
       </c>
@@ -28009,11 +30849,11 @@
         <f>SUM(E11:E13)/SUM(Q11:Q13)</f>
         <v>0.16978856894776453</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <f>'TOTAL to 24 YES GROW '!H11*(100%+(Z43))</f>
         <v>302.41583423999992</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <f t="shared" si="1"/>
         <v>9.1073571350196452E-4</v>
       </c>
@@ -28021,11 +30861,11 @@
         <f>SUM(H11:H13)/SUM(Q11:Q13)</f>
         <v>1.2224776964239047E-3</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="18">
         <f>'TOTAL to 24 YES GROW '!K11*(100%+(Z43))</f>
         <v>12813.919999999998</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="26">
         <f t="shared" si="2"/>
         <v>3.8589561962868647E-2</v>
       </c>
@@ -28033,11 +30873,11 @@
         <f>SUM(K11:K13)/SUM(Q11:Q13)</f>
         <v>3.4487067261967666E-2</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="18">
         <f>'TOTAL to 24 YES GROW '!N11*(100%+(Z43))</f>
         <v>276938.09759428556</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="26">
         <f t="shared" si="3"/>
         <v>0.83400863100391209</v>
       </c>
@@ -28045,7 +30885,7 @@
         <f>SUM(N11:N13)/SUM(Q11:Q13)</f>
         <v>0.79450188609384398</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="27">
         <f>SUM(E11,H11,K11,N11)</f>
         <v>332056.63262852555</v>
       </c>
@@ -28053,7 +30893,7 @@
         <f t="shared" ref="R11" si="10">SUM(Q11:Q13)</f>
         <v>845733.93892127858</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="26">
         <f>(Q11-Q10)/Q10</f>
         <v>0.69868229062387477</v>
       </c>
@@ -28064,19 +30904,19 @@
       <c r="U11" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="V11" s="19" t="s">
+      <c r="V11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="19">
+      <c r="W11" s="18">
         <v>2022</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="18">
         <v>10</v>
       </c>
       <c r="Y11" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AB11" s="29">
+      <c r="AB11" s="28">
         <v>44835</v>
       </c>
       <c r="AH11" s="38">
@@ -28085,74 +30925,74 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>2022</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>11</v>
       </c>
       <c r="D12" s="54"/>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <f>('TOTAL to 24 YES GROW '!E12)*(100%+(Z44))</f>
         <v>47292.398399999998</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <f t="shared" si="0"/>
         <v>0.19164083819683744</v>
       </c>
       <c r="G12" s="58"/>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <f>'TOTAL to 24 YES GROW '!H12*(100%+(Z44))</f>
         <v>340.50526847999998</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="26">
         <f t="shared" si="1"/>
         <v>1.3798140350172296E-3</v>
       </c>
       <c r="J12" s="58"/>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <f>'TOTAL to 24 YES GROW '!K12*(100%+(Z44))</f>
         <v>7916.7779858799604</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="26">
         <f t="shared" si="2"/>
         <v>3.2080799882467079E-2</v>
       </c>
       <c r="M12" s="58"/>
-      <c r="N12" s="19">
+      <c r="N12" s="18">
         <f>'TOTAL to 24 YES GROW '!N12*(100%+(Z44))</f>
         <v>191226.52139806669</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="26">
         <f t="shared" si="3"/>
         <v>0.77489854788567825</v>
       </c>
       <c r="P12" s="58"/>
-      <c r="Q12" s="28">
+      <c r="Q12" s="27">
         <f t="shared" ref="Q12:Q36" si="12">SUM(E12,H12,K12,N12)</f>
         <v>246776.20305242666</v>
       </c>
       <c r="R12" s="59"/>
-      <c r="S12" s="27">
+      <c r="S12" s="26">
         <f t="shared" ref="S12:S23" si="13">(Q12-Q11)/Q11</f>
         <v>-0.25682495452967746</v>
       </c>
       <c r="T12" s="58"/>
       <c r="U12" s="54"/>
-      <c r="V12" s="19" t="s">
+      <c r="V12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W12" s="19">
+      <c r="W12" s="18">
         <v>2022</v>
       </c>
-      <c r="X12" s="19">
+      <c r="X12" s="18">
         <v>11</v>
       </c>
       <c r="Y12" s="54"/>
-      <c r="AB12" s="29">
+      <c r="AB12" s="28">
         <v>44866</v>
       </c>
       <c r="AH12" s="38">
@@ -28161,74 +31001,74 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>2022</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>12</v>
       </c>
       <c r="D13" s="54"/>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <f>('TOTAL to 24 YES GROW '!E13)*(100%+(Z45))</f>
         <v>54301.357600000003</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="26">
         <f t="shared" si="0"/>
         <v>0.20345122946571451</v>
       </c>
       <c r="G13" s="58"/>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <f>'TOTAL to 24 YES GROW '!H13*(100%+(Z45))</f>
         <v>390.96977471999998</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="26">
         <f t="shared" si="1"/>
         <v>1.4648488521531442E-3</v>
       </c>
       <c r="J13" s="58"/>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <f>'TOTAL to 24 YES GROW '!K13*(100%+(Z45))</f>
         <v>8436.1852514270267</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="26">
         <f t="shared" si="2"/>
         <v>3.16079070075286E-2</v>
       </c>
       <c r="M13" s="58"/>
-      <c r="N13" s="19">
+      <c r="N13" s="18">
         <f>'TOTAL to 24 YES GROW '!N13*(100%+(Z45))</f>
         <v>203772.59061417938</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="26">
         <f t="shared" si="3"/>
         <v>0.7634760146746038</v>
       </c>
       <c r="P13" s="58"/>
-      <c r="Q13" s="28">
+      <c r="Q13" s="27">
         <f t="shared" si="12"/>
         <v>266901.1032403264</v>
       </c>
       <c r="R13" s="59"/>
-      <c r="S13" s="27">
+      <c r="S13" s="26">
         <f t="shared" si="13"/>
         <v>8.1551219035590233E-2</v>
       </c>
       <c r="T13" s="58"/>
       <c r="U13" s="54"/>
-      <c r="V13" s="19" t="s">
+      <c r="V13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W13" s="19">
+      <c r="W13" s="18">
         <v>2022</v>
       </c>
-      <c r="X13" s="19">
+      <c r="X13" s="18">
         <v>12</v>
       </c>
       <c r="Y13" s="54"/>
-      <c r="AB13" s="29">
+      <c r="AB13" s="28">
         <v>44896</v>
       </c>
       <c r="AH13" s="38">
@@ -28237,23 +31077,23 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>2023</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>1</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <f>('TOTAL to 24 YES GROW '!E14)*(100%+(Z46))</f>
         <v>60210.597999999998</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="26">
         <f t="shared" si="0"/>
         <v>9.8001952524622626E-2</v>
       </c>
@@ -28261,11 +31101,11 @@
         <f>SUM(E14:E16)/SUM(Q14:Q16)</f>
         <v>0.15848758460069692</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <f>'TOTAL to 24 YES GROW '!H14*(100%+(Z46))</f>
         <v>433.51630560000001</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="26">
         <f t="shared" si="1"/>
         <v>7.05614058177283E-4</v>
       </c>
@@ -28273,11 +31113,11 @@
         <f>SUM(H14:H16)/SUM(Q14:Q16)</f>
         <v>1.1411106091250179E-3</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="18">
         <f>'TOTAL to 24 YES GROW '!K14*(100%+(Z46))</f>
         <v>22013.3787072019</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="26">
         <f t="shared" si="2"/>
         <v>3.5830138989314461E-2</v>
       </c>
@@ -28285,11 +31125,11 @@
         <f>SUM(K14:K16)/SUM(Q14:Q16)</f>
         <v>3.340826965461241E-2</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="18">
         <f>'TOTAL to 24 YES GROW '!N14*(100%+(Z46))</f>
         <v>531724.12336236483</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="26">
         <f t="shared" si="3"/>
         <v>0.86546229442788569</v>
       </c>
@@ -28297,7 +31137,7 @@
         <f>SUM(N14:N16)/SUM(Q14:Q16)</f>
         <v>0.80696303513556567</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="27">
         <f t="shared" si="12"/>
         <v>614381.61637516669</v>
       </c>
@@ -28305,7 +31145,7 @@
         <f t="shared" ref="R14" si="14">SUM(Q14:Q16)</f>
         <v>1248699.180434918</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="26">
         <f t="shared" si="13"/>
         <v>1.3019073691200054</v>
       </c>
@@ -28320,16 +31160,16 @@
         <f>(SUM(Q14:Q25)-SUM(Q2:Q13))/SUM(Q2:Q13)</f>
         <v>1.3654961918219275</v>
       </c>
-      <c r="W14" s="19">
+      <c r="W14" s="18">
         <v>2023</v>
       </c>
-      <c r="X14" s="19">
+      <c r="X14" s="18">
         <v>1</v>
       </c>
       <c r="Y14" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="29">
+      <c r="AB14" s="28">
         <v>44927</v>
       </c>
       <c r="AH14" s="34">
@@ -28338,72 +31178,72 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>2023</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>2</v>
       </c>
       <c r="D15" s="54"/>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <f>('TOTAL to 24 YES GROW '!E15)*(100%+(Z47))</f>
         <v>65714.497499999998</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="26">
         <f t="shared" si="0"/>
         <v>0.25181655453499596</v>
       </c>
       <c r="G15" s="58"/>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <f>'TOTAL to 24 YES GROW '!H15*(100%+(Z47))</f>
         <v>473.14438200000001</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <f t="shared" si="1"/>
         <v>1.8130791926519712E-3</v>
       </c>
       <c r="J15" s="58"/>
-      <c r="K15" s="19">
+      <c r="K15" s="18">
         <f>'TOTAL to 24 YES GROW '!K15*(100%+(Z47))</f>
         <v>7743.0857639359128</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="26">
         <f t="shared" si="2"/>
         <v>2.967133970009158E-2</v>
       </c>
       <c r="M15" s="58"/>
-      <c r="N15" s="19">
+      <c r="N15" s="18">
         <f>'TOTAL to 24 YES GROW '!N15*(100%+(Z47))</f>
         <v>187031.05709990129</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="26">
         <f t="shared" si="3"/>
         <v>0.71669902657226037</v>
       </c>
       <c r="P15" s="58"/>
-      <c r="Q15" s="28">
+      <c r="Q15" s="27">
         <f t="shared" si="12"/>
         <v>260961.78474583721</v>
       </c>
       <c r="R15" s="59"/>
-      <c r="S15" s="27">
+      <c r="S15" s="26">
         <f t="shared" si="13"/>
         <v>-0.5752448025943484</v>
       </c>
       <c r="T15" s="58"/>
       <c r="U15" s="54"/>
       <c r="V15" s="58"/>
-      <c r="W15" s="19">
+      <c r="W15" s="18">
         <v>2023</v>
       </c>
-      <c r="X15" s="19">
+      <c r="X15" s="18">
         <v>2</v>
       </c>
       <c r="Y15" s="54"/>
-      <c r="AB15" s="29">
+      <c r="AB15" s="28">
         <v>44958</v>
       </c>
       <c r="AH15" s="34">
@@ -28412,72 +31252,72 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>14</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>2023</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>3</v>
       </c>
       <c r="D16" s="54"/>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <f>('TOTAL to 24 YES GROW '!E16)*(100%+(Z48))</f>
         <v>71978.2215</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <f t="shared" si="0"/>
         <v>0.19278721661217776</v>
       </c>
       <c r="G16" s="58"/>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <f>'TOTAL to 24 YES GROW '!H16*(100%+(Z48))</f>
         <v>518.24319479999997</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <f t="shared" si="1"/>
         <v>1.3880679596076798E-3</v>
       </c>
       <c r="J16" s="58"/>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <f>'TOTAL to 24 YES GROW '!K16*(100%+(Z48))</f>
         <v>11960.41446632545</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="26">
         <f t="shared" si="2"/>
         <v>3.2034898423975493E-2</v>
       </c>
       <c r="M16" s="58"/>
-      <c r="N16" s="19">
+      <c r="N16" s="18">
         <f>'TOTAL to 24 YES GROW '!N16*(100%+(Z48))</f>
         <v>288898.90015278867</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="26">
         <f t="shared" si="3"/>
         <v>0.7737898170042391</v>
       </c>
       <c r="P16" s="58"/>
-      <c r="Q16" s="28">
+      <c r="Q16" s="27">
         <f t="shared" si="12"/>
         <v>373355.77931391413</v>
       </c>
       <c r="R16" s="59"/>
-      <c r="S16" s="27">
+      <c r="S16" s="26">
         <f t="shared" si="13"/>
         <v>0.43069139290851588</v>
       </c>
       <c r="T16" s="58"/>
       <c r="U16" s="54"/>
       <c r="V16" s="58"/>
-      <c r="W16" s="19">
+      <c r="W16" s="18">
         <v>2023</v>
       </c>
-      <c r="X16" s="19">
+      <c r="X16" s="18">
         <v>3</v>
       </c>
       <c r="Y16" s="54"/>
-      <c r="AB16" s="29">
+      <c r="AB16" s="28">
         <v>44986</v>
       </c>
       <c r="AH16" s="34">
@@ -28486,23 +31326,23 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>2023</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <v>4</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <f>('TOTAL to 24 YES GROW '!E17)*(100%+(Z49))</f>
         <v>78404.582750000001</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <f t="shared" si="0"/>
         <v>0.12712389256265877</v>
       </c>
@@ -28510,11 +31350,11 @@
         <f>SUM(E17:E19)/SUM(Q17:Q19)</f>
         <v>0.17762687711586295</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <f>'TOTAL to 24 YES GROW '!H17*(100%+(Z49))</f>
         <v>564.5129958</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <f t="shared" si="1"/>
         <v>9.1529202645114309E-4</v>
       </c>
@@ -28522,11 +31362,11 @@
         <f>SUM(H17:H19)/SUM(Q17:Q19)</f>
         <v>1.2789135152342134E-3</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="18">
         <f>'TOTAL to 24 YES GROW '!K17*(100%+(Z49))</f>
         <v>21379.325623764224</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="26">
         <f t="shared" si="2"/>
         <v>3.4664084653361675E-2</v>
       </c>
@@ -28534,11 +31374,11 @@
         <f>SUM(K17:K19)/SUM(Q17:Q19)</f>
         <v>3.2641924589852676E-2</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="18">
         <f>'TOTAL to 24 YES GROW '!N17*(100%+(Z49))</f>
         <v>516408.83149188943</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="26">
         <f t="shared" si="3"/>
         <v>0.83729673075752842</v>
       </c>
@@ -28546,7 +31386,7 @@
         <f>SUM(N17:N19)/SUM(Q17:Q19)</f>
         <v>0.78845228477905027</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="27">
         <f t="shared" si="12"/>
         <v>616757.25286145369</v>
       </c>
@@ -28554,7 +31394,7 @@
         <f t="shared" ref="R17" si="17">SUM(Q17:Q19)</f>
         <v>1420361.9001049749</v>
       </c>
-      <c r="S17" s="27">
+      <c r="S17" s="26">
         <f t="shared" si="13"/>
         <v>0.65192903668136293</v>
       </c>
@@ -28566,16 +31406,16 @@
         <v>9</v>
       </c>
       <c r="V17" s="58"/>
-      <c r="W17" s="19">
+      <c r="W17" s="18">
         <v>2023</v>
       </c>
-      <c r="X17" s="19">
+      <c r="X17" s="18">
         <v>4</v>
       </c>
       <c r="Y17" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AB17" s="29">
+      <c r="AB17" s="28">
         <v>45017</v>
       </c>
       <c r="AH17" s="34">
@@ -28584,72 +31424,72 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <v>16</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>2023</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>5</v>
       </c>
       <c r="D18" s="54"/>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <f>('TOTAL to 24 YES GROW '!E18)*(100%+(Z50))</f>
         <v>84029.165999999997</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="26">
         <f t="shared" si="0"/>
         <v>0.20612549523005408</v>
       </c>
       <c r="G18" s="58"/>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <f>'TOTAL to 24 YES GROW '!H18*(100%+(Z50))</f>
         <v>605.00999520000005</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="26">
         <f t="shared" si="1"/>
         <v>1.4841035656563894E-3</v>
       </c>
       <c r="J18" s="58"/>
-      <c r="K18" s="19">
+      <c r="K18" s="18">
         <f>'TOTAL to 24 YES GROW '!K18*(100%+(Z50))</f>
         <v>12841.634795712649</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="26">
         <f t="shared" si="2"/>
         <v>3.1500828317512566E-2</v>
       </c>
       <c r="M18" s="58"/>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <f>'TOTAL to 24 YES GROW '!N18*(100%+(Z50))</f>
         <v>310184.41535537801</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="26">
         <f t="shared" si="3"/>
         <v>0.76088957288677694</v>
       </c>
       <c r="P18" s="58"/>
-      <c r="Q18" s="28">
+      <c r="Q18" s="27">
         <f t="shared" si="12"/>
         <v>407660.22614629066</v>
       </c>
       <c r="R18" s="59"/>
-      <c r="S18" s="27">
+      <c r="S18" s="26">
         <f t="shared" si="13"/>
         <v>-0.33902645772717632</v>
       </c>
       <c r="T18" s="58"/>
       <c r="U18" s="54"/>
       <c r="V18" s="58"/>
-      <c r="W18" s="19">
+      <c r="W18" s="18">
         <v>2023</v>
       </c>
-      <c r="X18" s="19">
+      <c r="X18" s="18">
         <v>5</v>
       </c>
       <c r="Y18" s="54"/>
-      <c r="AB18" s="29">
+      <c r="AB18" s="28">
         <v>45047</v>
       </c>
       <c r="AH18" s="34">
@@ -28658,72 +31498,72 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <v>17</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>2023</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <v>6</v>
       </c>
       <c r="D19" s="54"/>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <f>('TOTAL to 24 YES GROW '!E19)*(100%+(Z51))</f>
         <v>89860.699939999991</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="26">
         <f t="shared" si="0"/>
         <v>0.22695281244519222</v>
       </c>
       <c r="G19" s="58"/>
-      <c r="H19" s="19">
+      <c r="H19" s="18">
         <f>'TOTAL to 24 YES GROW '!H19*(100%+(Z51))</f>
         <v>646.99703956799988</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
         <f t="shared" si="1"/>
         <v>1.6340602496053838E-3</v>
       </c>
       <c r="J19" s="58"/>
-      <c r="K19" s="19">
+      <c r="K19" s="18">
         <f>'TOTAL to 24 YES GROW '!K19*(100%+(Z51))</f>
         <v>12142.385614049579</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="26">
         <f t="shared" si="2"/>
         <v>3.0666894056496422E-2</v>
       </c>
       <c r="M19" s="58"/>
-      <c r="N19" s="19">
+      <c r="N19" s="18">
         <f>'TOTAL to 24 YES GROW '!N19*(100%+(Z51))</f>
         <v>293294.33850361308</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="26">
         <f t="shared" si="3"/>
         <v>0.74074623324870603</v>
       </c>
       <c r="P19" s="58"/>
-      <c r="Q19" s="28">
+      <c r="Q19" s="27">
         <f t="shared" si="12"/>
         <v>395944.42109723063</v>
       </c>
       <c r="R19" s="59"/>
-      <c r="S19" s="27">
+      <c r="S19" s="26">
         <f t="shared" si="13"/>
         <v>-2.873914180888415E-2</v>
       </c>
       <c r="T19" s="58"/>
       <c r="U19" s="54"/>
       <c r="V19" s="58"/>
-      <c r="W19" s="19">
+      <c r="W19" s="18">
         <v>2023</v>
       </c>
-      <c r="X19" s="19">
+      <c r="X19" s="18">
         <v>6</v>
       </c>
       <c r="Y19" s="54"/>
-      <c r="AB19" s="29">
+      <c r="AB19" s="28">
         <v>45078</v>
       </c>
       <c r="AH19" s="34">
@@ -28732,23 +31572,23 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>18</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>2023</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <v>7</v>
       </c>
       <c r="D20" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <f>('TOTAL to 24 YES GROW '!E20)*(100%+(Z52))</f>
         <v>95498.266599999988</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <f t="shared" si="0"/>
         <v>9.5967999963450581E-2</v>
       </c>
@@ -28756,11 +31596,11 @@
         <f>SUM(E20:E22)/SUM(Q20:Q22)</f>
         <v>0.15297899562220707</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <f>'TOTAL to 24 YES GROW '!H20*(100%+(Z52))</f>
         <v>687.58751951999989</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <f t="shared" si="1"/>
         <v>6.9096959973684411E-4</v>
       </c>
@@ -28768,11 +31608,11 @@
         <f>SUM(H20:H22)/SUM(Q20:Q22)</f>
         <v>1.1014487684798909E-3</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="18">
         <f>'TOTAL to 24 YES GROW '!K20*(100%+(Z52))</f>
         <v>35735.803322162545</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="26">
         <f t="shared" si="2"/>
         <v>3.5911579277975843E-2</v>
       </c>
@@ -28780,11 +31620,11 @@
         <f>SUM(K20:K22)/SUM(Q20:Q22)</f>
         <v>3.3628835800101356E-2</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="18">
         <f>'TOTAL to 24 YES GROW '!N20*(100%+(Z52))</f>
         <v>863183.65512469911</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="26">
         <f t="shared" si="3"/>
         <v>0.86742945115883674</v>
       </c>
@@ -28792,7 +31632,7 @@
         <f>SUM(N20:N22)/SUM(Q20:Q22)</f>
         <v>0.81229071980921153</v>
       </c>
-      <c r="Q20" s="28">
+      <c r="Q20" s="27">
         <f t="shared" si="12"/>
         <v>995105.31256638165</v>
       </c>
@@ -28800,7 +31640,7 @@
         <f t="shared" ref="R20" si="19">SUM(Q20:Q22)</f>
         <v>1983327.83233384</v>
       </c>
-      <c r="S20" s="27">
+      <c r="S20" s="26">
         <f t="shared" si="13"/>
         <v>1.5132449392992389</v>
       </c>
@@ -28812,16 +31652,16 @@
         <v>8</v>
       </c>
       <c r="V20" s="58"/>
-      <c r="W20" s="19">
+      <c r="W20" s="18">
         <v>2023</v>
       </c>
-      <c r="X20" s="19">
+      <c r="X20" s="18">
         <v>7</v>
       </c>
       <c r="Y20" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AB20" s="29">
+      <c r="AB20" s="28">
         <v>45108</v>
       </c>
       <c r="AH20" s="34">
@@ -28830,72 +31670,72 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+      <c r="A21" s="21">
         <v>19</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>2023</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>8</v>
       </c>
       <c r="D21" s="54"/>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <f>('TOTAL to 24 YES GROW '!E21)*(100%+(Z53))</f>
         <v>101135.83326</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="26">
         <f t="shared" si="0"/>
         <v>0.2462010480617976</v>
       </c>
       <c r="G21" s="58"/>
-      <c r="H21" s="19">
+      <c r="H21" s="18">
         <f>'TOTAL to 24 YES GROW '!H21*(100%+(Z53))</f>
         <v>728.1779994719999</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="26">
         <f t="shared" si="1"/>
         <v>1.7726475460449426E-3</v>
       </c>
       <c r="J21" s="58"/>
-      <c r="K21" s="19">
+      <c r="K21" s="18">
         <f>'TOTAL to 24 YES GROW '!K21*(100%+(Z53))</f>
         <v>12280.921603510566</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="26">
         <f t="shared" si="2"/>
         <v>2.98961868655995E-2</v>
       </c>
       <c r="M21" s="58"/>
-      <c r="N21" s="19">
+      <c r="N21" s="18">
         <f>'TOTAL to 24 YES GROW '!N21*(100%+(Z53))</f>
         <v>296640.61844228418</v>
       </c>
-      <c r="O21" s="27">
+      <c r="O21" s="26">
         <f t="shared" si="3"/>
         <v>0.72213011752655798</v>
       </c>
       <c r="P21" s="58"/>
-      <c r="Q21" s="28">
+      <c r="Q21" s="27">
         <f t="shared" si="12"/>
         <v>410785.55130526674</v>
       </c>
       <c r="R21" s="59"/>
-      <c r="S21" s="27">
+      <c r="S21" s="26">
         <f t="shared" si="13"/>
         <v>-0.58719389182452586</v>
       </c>
       <c r="T21" s="58"/>
       <c r="U21" s="54"/>
       <c r="V21" s="58"/>
-      <c r="W21" s="19">
+      <c r="W21" s="18">
         <v>2023</v>
       </c>
-      <c r="X21" s="19">
+      <c r="X21" s="18">
         <v>8</v>
       </c>
       <c r="Y21" s="54"/>
-      <c r="AB21" s="29">
+      <c r="AB21" s="28">
         <v>45139</v>
       </c>
       <c r="AH21" s="34">
@@ -28904,72 +31744,72 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>20</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>2023</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <v>9</v>
       </c>
       <c r="D22" s="54"/>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <f>('TOTAL to 24 YES GROW '!E22)*(100%+(Z54))</f>
         <v>106773.39992</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="26">
         <f t="shared" si="0"/>
         <v>0.18490918619975943</v>
       </c>
       <c r="G22" s="58"/>
-      <c r="H22" s="19">
+      <c r="H22" s="18">
         <f>'TOTAL to 24 YES GROW '!H22*(100%+(Z54))</f>
         <v>768.76847942399991</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="26">
         <f t="shared" si="1"/>
         <v>1.3313461406382679E-3</v>
       </c>
       <c r="J22" s="58"/>
-      <c r="K22" s="19">
+      <c r="K22" s="18">
         <f>'TOTAL to 24 YES GROW '!K22*(100%+(Z54))</f>
         <v>18680.281085652561</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="26">
         <f t="shared" si="2"/>
         <v>3.2350337969183345E-2</v>
       </c>
       <c r="M22" s="58"/>
-      <c r="N22" s="19">
+      <c r="N22" s="18">
         <f>'TOTAL to 24 YES GROW '!N22*(100%+(Z54))</f>
         <v>451214.51897711493</v>
       </c>
-      <c r="O22" s="27">
+      <c r="O22" s="26">
         <f t="shared" si="3"/>
         <v>0.78140912969041887</v>
       </c>
       <c r="P22" s="58"/>
-      <c r="Q22" s="28">
+      <c r="Q22" s="27">
         <f t="shared" si="12"/>
         <v>577436.96846219152</v>
       </c>
       <c r="R22" s="59"/>
-      <c r="S22" s="27">
+      <c r="S22" s="26">
         <f t="shared" si="13"/>
         <v>0.40568957848539627</v>
       </c>
       <c r="T22" s="58"/>
       <c r="U22" s="54"/>
       <c r="V22" s="58"/>
-      <c r="W22" s="19">
+      <c r="W22" s="18">
         <v>2023</v>
       </c>
-      <c r="X22" s="19">
+      <c r="X22" s="18">
         <v>9</v>
       </c>
       <c r="Y22" s="54"/>
-      <c r="AB22" s="29">
+      <c r="AB22" s="28">
         <v>45170</v>
       </c>
       <c r="AH22" s="34">
@@ -28978,23 +31818,23 @@
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+      <c r="A23" s="21">
         <v>21</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>2023</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="18">
         <v>10</v>
       </c>
       <c r="D23" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <f>('TOTAL to 24 YES GROW '!E23)*(100%+(Z55))</f>
         <v>114206.77907999999</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="26">
         <f t="shared" si="0"/>
         <v>0.13443894208436369</v>
       </c>
@@ -29002,11 +31842,11 @@
         <f>SUM(E23:E25)/SUM(Q23:Q25)</f>
         <v>0.17800218990157013</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <f>'TOTAL to 24 YES GROW '!H23*(100%+(Z55))</f>
         <v>822.2888093759999</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <f t="shared" si="1"/>
         <v>9.6796038300741845E-4</v>
       </c>
@@ -29014,11 +31854,11 @@
         <f>SUM(H23:H25)/SUM(Q23:Q25)</f>
         <v>1.2816157672913048E-3</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="18">
         <f>'TOTAL to 24 YES GROW '!K23*(100%+(Z55))</f>
         <v>29198.55296463607</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="26">
         <f t="shared" si="2"/>
         <v>3.4371187092232407E-2</v>
       </c>
@@ -29026,11 +31866,11 @@
         <f>SUM(K23:K25)/SUM(Q23:Q25)</f>
         <v>3.2626896913106516E-2</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N23" s="18">
         <f>'TOTAL to 24 YES GROW '!N23*(100%+(Z55))</f>
         <v>705279.05711681338</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O23" s="26">
         <f t="shared" si="3"/>
         <v>0.8302219104403965</v>
       </c>
@@ -29038,7 +31878,7 @@
         <f>SUM(N23:N25)/SUM(Q23:Q25)</f>
         <v>0.78808929741803202</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="27">
         <f t="shared" si="12"/>
         <v>849506.67797082546</v>
       </c>
@@ -29046,7 +31886,7 @@
         <f t="shared" ref="R23" si="21">SUM(Q23:Q25)</f>
         <v>2022407.2238609272</v>
       </c>
-      <c r="S23" s="27">
+      <c r="S23" s="26">
         <f t="shared" si="13"/>
         <v>0.47116780595672597</v>
       </c>
@@ -29058,16 +31898,16 @@
         <v>7</v>
       </c>
       <c r="V23" s="58"/>
-      <c r="W23" s="19">
+      <c r="W23" s="18">
         <v>2023</v>
       </c>
-      <c r="X23" s="19">
+      <c r="X23" s="18">
         <v>10</v>
       </c>
       <c r="Y23" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AB23" s="29">
+      <c r="AB23" s="28">
         <v>45200</v>
       </c>
       <c r="AH23" s="34">
@@ -29076,72 +31916,72 @@
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
+      <c r="A24" s="21">
         <v>22</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>2023</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <v>11</v>
       </c>
       <c r="D24" s="54"/>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <f>('TOTAL to 24 YES GROW '!E24)*(100%+(Z56))</f>
         <v>119934.40824</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="26">
         <f t="shared" si="0"/>
         <v>0.20229983395501633</v>
       </c>
       <c r="G24" s="58"/>
-      <c r="H24" s="19">
+      <c r="H24" s="18">
         <f>'TOTAL to 24 YES GROW '!H24*(100%+(Z56))</f>
         <v>863.52773932799994</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <f t="shared" si="1"/>
         <v>1.4565588044761174E-3</v>
       </c>
       <c r="J24" s="58"/>
-      <c r="K24" s="19">
+      <c r="K24" s="18">
         <f>'TOTAL to 24 YES GROW '!K24*(100%+(Z56))</f>
         <v>18766.228354725205</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="26">
         <f t="shared" si="2"/>
         <v>3.1654009352560991E-2</v>
       </c>
       <c r="M24" s="58"/>
-      <c r="N24" s="19">
+      <c r="N24" s="18">
         <f>'TOTAL to 24 YES GROW '!N24*(100%+(Z56))</f>
         <v>453290.53996920784</v>
       </c>
-      <c r="O24" s="27">
+      <c r="O24" s="26">
         <f t="shared" si="3"/>
         <v>0.76458959788794667</v>
       </c>
       <c r="P24" s="58"/>
-      <c r="Q24" s="28">
+      <c r="Q24" s="27">
         <f t="shared" si="12"/>
         <v>592854.70430326101</v>
       </c>
       <c r="R24" s="59"/>
-      <c r="S24" s="27">
+      <c r="S24" s="26">
         <f t="shared" si="6"/>
         <v>-0.30211884182078041</v>
       </c>
       <c r="T24" s="58"/>
       <c r="U24" s="54"/>
       <c r="V24" s="58"/>
-      <c r="W24" s="19">
+      <c r="W24" s="18">
         <v>2023</v>
       </c>
-      <c r="X24" s="19">
+      <c r="X24" s="18">
         <v>11</v>
       </c>
       <c r="Y24" s="54"/>
-      <c r="AB24" s="29">
+      <c r="AB24" s="28">
         <v>45231</v>
       </c>
       <c r="AH24" s="34">
@@ -29150,72 +31990,72 @@
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
+      <c r="A25" s="21">
         <v>23</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>2023</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <v>12</v>
       </c>
       <c r="D25" s="54"/>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <f>('TOTAL to 24 YES GROW '!E25)*(100%+(Z57))</f>
         <v>125851.7274</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="26">
         <f t="shared" si="0"/>
         <v>0.21696858830278903</v>
       </c>
       <c r="G25" s="58"/>
-      <c r="H25" s="19">
+      <c r="H25" s="18">
         <f>'TOTAL to 24 YES GROW '!H25*(100%+(Z57))</f>
         <v>906.13243727999998</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <f t="shared" si="1"/>
         <v>1.562173835780081E-3</v>
       </c>
       <c r="J25" s="58"/>
-      <c r="K25" s="19">
+      <c r="K25" s="18">
         <f>'TOTAL to 24 YES GROW '!K25*(100%+(Z57))</f>
         <v>18020.09068987114</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="26">
         <f t="shared" si="2"/>
         <v>3.1066666456177488E-2</v>
       </c>
       <c r="M25" s="58"/>
-      <c r="N25" s="19">
+      <c r="N25" s="18">
         <f>'TOTAL to 24 YES GROW '!N25*(100%+(Z57))</f>
         <v>435267.8910596894</v>
       </c>
-      <c r="O25" s="27">
+      <c r="O25" s="26">
         <f t="shared" si="3"/>
         <v>0.75040257140525335</v>
       </c>
       <c r="P25" s="58"/>
-      <c r="Q25" s="28">
+      <c r="Q25" s="27">
         <f t="shared" si="12"/>
         <v>580045.84158684057</v>
       </c>
       <c r="R25" s="59"/>
-      <c r="S25" s="27">
+      <c r="S25" s="26">
         <f t="shared" si="6"/>
         <v>-2.1605399473845387E-2</v>
       </c>
       <c r="T25" s="58"/>
       <c r="U25" s="54"/>
       <c r="V25" s="58"/>
-      <c r="W25" s="19">
+      <c r="W25" s="18">
         <v>2023</v>
       </c>
-      <c r="X25" s="19">
+      <c r="X25" s="18">
         <v>12</v>
       </c>
       <c r="Y25" s="54"/>
-      <c r="AB25" s="29">
+      <c r="AB25" s="28">
         <v>45261</v>
       </c>
       <c r="AH25" s="34">
@@ -29224,23 +32064,23 @@
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
+      <c r="A26" s="21">
         <v>24</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>2024</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>1</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <f>('TOTAL to 24 YES GROW '!E26)*(100%+(Z58))</f>
         <v>132570.2616</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="26">
         <f t="shared" si="0"/>
         <v>0.10020004114522778</v>
       </c>
@@ -29248,11 +32088,11 @@
         <f>SUM(E26:E28)/SUM(Q26:Q28)</f>
         <v>0.15385619692383817</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="18">
         <f>'TOTAL to 24 YES GROW '!H26*(100%+(Z58))</f>
         <v>954.50588351999988</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <f t="shared" si="1"/>
         <v>7.2144029624563995E-4</v>
       </c>
@@ -29260,11 +32100,11 @@
         <f>SUM(H26:H28)/SUM(Q26:Q28)</f>
         <v>1.1077646178516349E-3</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="18">
         <f>'TOTAL to 24 YES GROW '!K26*(100%+(Z58))</f>
         <v>47288.833645111314</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="26">
         <f t="shared" si="2"/>
         <v>3.5742126626006336E-2</v>
       </c>
@@ -29272,11 +32112,11 @@
         <f>SUM(K26:K28)/SUM(Q26:Q28)</f>
         <v>3.3593712302836601E-2</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="18">
         <f>'TOTAL to 24 YES GROW '!N26*(100%+(Z58))</f>
         <v>1142242.3585775681</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="26">
         <f t="shared" si="3"/>
         <v>0.86333639193252032</v>
       </c>
@@ -29284,7 +32124,7 @@
         <f>SUM(N26:N28)/SUM(Q26:Q28)</f>
         <v>0.81144232615547374</v>
       </c>
-      <c r="Q26" s="28">
+      <c r="Q26" s="27">
         <f t="shared" si="12"/>
         <v>1323055.9597061994</v>
       </c>
@@ -29292,7 +32132,7 @@
         <f t="shared" ref="R26" si="23">SUM(Q26:Q28)</f>
         <v>2707630.7209531385</v>
       </c>
-      <c r="S26" s="27">
+      <c r="S26" s="26">
         <f t="shared" si="6"/>
         <v>1.2809506850125747</v>
       </c>
@@ -29307,16 +32147,16 @@
         <f>(SUM(Q26:Q37)-SUM(Q14:Q25))/SUM(Q14:Q25)</f>
         <v>0.87644678396803766</v>
       </c>
-      <c r="W26" s="19">
+      <c r="W26" s="18">
         <v>2024</v>
       </c>
-      <c r="X26" s="19">
+      <c r="X26" s="18">
         <v>1</v>
       </c>
       <c r="Y26" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AB26" s="29">
+      <c r="AB26" s="28">
         <v>45292</v>
       </c>
       <c r="AH26" s="34">
@@ -29325,72 +32165,72 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>25</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>2024</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>2</v>
       </c>
       <c r="D27" s="54"/>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <f>('TOTAL to 24 YES GROW '!E27)*(100%+(Z59))</f>
         <v>138349.35607499999</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="26">
         <f t="shared" si="0"/>
         <v>0.24069380098733598</v>
       </c>
       <c r="G27" s="58"/>
-      <c r="H27" s="19">
+      <c r="H27" s="18">
         <f>'TOTAL to 24 YES GROW '!H27*(100%+(Z59))</f>
         <v>996.11536373999991</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <f t="shared" si="1"/>
         <v>1.732995367108819E-3</v>
       </c>
       <c r="J27" s="58"/>
-      <c r="K27" s="19">
+      <c r="K27" s="18">
         <f>'TOTAL to 24 YES GROW '!K27*(100%+(Z59))</f>
         <v>17310.898475566268</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="26">
         <f t="shared" si="2"/>
         <v>3.0116699280704803E-2</v>
       </c>
       <c r="M27" s="58"/>
-      <c r="N27" s="19">
+      <c r="N27" s="18">
         <f>'TOTAL to 24 YES GROW '!N27*(100%+(Z59))</f>
         <v>418137.64433734951</v>
       </c>
-      <c r="O27" s="27">
+      <c r="O27" s="26">
         <f t="shared" si="3"/>
         <v>0.72745650436485043</v>
       </c>
       <c r="P27" s="58"/>
-      <c r="Q27" s="28">
+      <c r="Q27" s="27">
         <f t="shared" si="12"/>
         <v>574794.01425165578</v>
       </c>
       <c r="R27" s="59"/>
-      <c r="S27" s="27">
+      <c r="S27" s="26">
         <f t="shared" si="6"/>
         <v>-0.56555578013548591</v>
       </c>
       <c r="T27" s="58"/>
       <c r="U27" s="54"/>
       <c r="V27" s="58"/>
-      <c r="W27" s="19">
+      <c r="W27" s="18">
         <v>2024</v>
       </c>
-      <c r="X27" s="19">
+      <c r="X27" s="18">
         <v>2</v>
       </c>
       <c r="Y27" s="54"/>
-      <c r="AB27" s="29">
+      <c r="AB27" s="28">
         <v>45323</v>
       </c>
       <c r="AH27" s="34">
@@ -29399,72 +32239,72 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A28" s="22">
+      <c r="A28" s="21">
         <v>26</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>2024</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>3</v>
       </c>
       <c r="D28" s="54"/>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <f>('TOTAL to 24 YES GROW '!E28)*(100%+(Z60))</f>
         <v>145666.14772499999</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="26">
         <f t="shared" si="0"/>
         <v>0.17988344161737449</v>
       </c>
       <c r="G28" s="58"/>
-      <c r="H28" s="19">
+      <c r="H28" s="18">
         <f>'TOTAL to 24 YES GROW '!H28*(100%+(Z60))</f>
         <v>1048.79626362</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="26">
         <f t="shared" si="1"/>
         <v>1.2951607796450964E-3</v>
       </c>
       <c r="J28" s="58"/>
-      <c r="K28" s="19">
+      <c r="K28" s="18">
         <f>'TOTAL to 24 YES GROW '!K28*(100%+(Z60))</f>
         <v>26359.635341344216</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="26">
         <f t="shared" si="2"/>
         <v>3.2551570828464937E-2</v>
       </c>
       <c r="M28" s="58"/>
-      <c r="N28" s="19">
+      <c r="N28" s="18">
         <f>'TOTAL to 24 YES GROW '!N28*(100%+(Z60))</f>
         <v>636706.16766531928</v>
       </c>
-      <c r="O28" s="27">
+      <c r="O28" s="26">
         <f t="shared" si="3"/>
         <v>0.7862698267745154</v>
       </c>
       <c r="P28" s="58"/>
-      <c r="Q28" s="28">
+      <c r="Q28" s="27">
         <f t="shared" si="12"/>
         <v>809780.74699528352</v>
       </c>
       <c r="R28" s="59"/>
-      <c r="S28" s="27">
+      <c r="S28" s="26">
         <f t="shared" si="6"/>
         <v>0.40881903241383805</v>
       </c>
       <c r="T28" s="58"/>
       <c r="U28" s="54"/>
       <c r="V28" s="58"/>
-      <c r="W28" s="19">
+      <c r="W28" s="18">
         <v>2024</v>
       </c>
-      <c r="X28" s="19">
+      <c r="X28" s="18">
         <v>3</v>
       </c>
       <c r="Y28" s="54"/>
-      <c r="AB28" s="29">
+      <c r="AB28" s="28">
         <v>45352</v>
       </c>
       <c r="AH28" s="34">
@@ -29473,23 +32313,23 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A29" s="22">
+      <c r="A29" s="21">
         <v>27</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <v>2024</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>4</v>
       </c>
       <c r="D29" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <f>('TOTAL to 24 YES GROW '!E29)*(100%+(Z61))</f>
         <v>153194.5608375</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="26">
         <f t="shared" si="0"/>
         <v>0.13310091451104258</v>
       </c>
@@ -29497,11 +32337,11 @@
         <f>SUM(E29:E31)/SUM(Q29:Q31)</f>
         <v>0.17383919650004123</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="18">
         <f>'TOTAL to 24 YES GROW '!H29*(100%+(Z61))</f>
         <v>1103.0008380300001</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="26">
         <f t="shared" si="1"/>
         <v>9.5832658447950669E-4</v>
       </c>
@@ -29509,11 +32349,11 @@
         <f>SUM(H29:H31)/SUM(Q29:Q31)</f>
         <v>1.251642214800297E-3</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="18">
         <f>'TOTAL to 24 YES GROW '!K29*(100%+(Z61))</f>
         <v>39621.713764240099</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L29" s="26">
         <f t="shared" si="2"/>
         <v>3.4424762261038397E-2</v>
       </c>
@@ -29521,11 +32361,11 @@
         <f>SUM(K29:K31)/SUM(Q29:Q31)</f>
         <v>3.2793584863842477E-2</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N29" s="18">
         <f>'TOTAL to 24 YES GROW '!N29*(100%+(Z61))</f>
         <v>957046.22618937434</v>
       </c>
-      <c r="O29" s="27">
+      <c r="O29" s="26">
         <f t="shared" si="3"/>
         <v>0.83151599664343956</v>
       </c>
@@ -29533,7 +32373,7 @@
         <f>SUM(N29:N31)/SUM(Q29:Q31)</f>
         <v>0.79211557642131603</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q29" s="27">
         <f t="shared" si="12"/>
         <v>1150965.5016291444</v>
       </c>
@@ -29541,7 +32381,7 @@
         <f t="shared" ref="R29" si="25">SUM(Q29:Q31)</f>
         <v>2747838.3388661523</v>
       </c>
-      <c r="S29" s="27">
+      <c r="S29" s="26">
         <f t="shared" si="6"/>
         <v>0.42132979315677416</v>
       </c>
@@ -29553,16 +32393,16 @@
         <v>9</v>
       </c>
       <c r="V29" s="58"/>
-      <c r="W29" s="19">
+      <c r="W29" s="18">
         <v>2024</v>
       </c>
-      <c r="X29" s="19">
+      <c r="X29" s="18">
         <v>4</v>
       </c>
       <c r="Y29" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AB29" s="29">
+      <c r="AB29" s="28">
         <v>45383</v>
       </c>
       <c r="AH29" s="34">
@@ -29571,72 +32411,72 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
+      <c r="A30" s="21">
         <v>28</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>2024</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>5</v>
       </c>
       <c r="D30" s="54"/>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <f>('TOTAL to 24 YES GROW '!E30)*(100%+(Z62))</f>
         <v>159100.37325</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="26">
         <f t="shared" si="0"/>
         <v>0.19767794608857825</v>
       </c>
       <c r="G30" s="58"/>
-      <c r="H30" s="19">
+      <c r="H30" s="18">
         <f>'TOTAL to 24 YES GROW '!H30*(100%+(Z62))</f>
         <v>1145.5226874</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="26">
         <f t="shared" si="1"/>
         <v>1.4232812118377635E-3</v>
       </c>
       <c r="J30" s="58"/>
-      <c r="K30" s="19">
+      <c r="K30" s="18">
         <f>'TOTAL to 24 YES GROW '!K30*(100%+(Z62))</f>
         <v>25625.560562648006</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="26">
         <f t="shared" si="2"/>
         <v>3.1839071624508143E-2</v>
       </c>
       <c r="M30" s="58"/>
-      <c r="N30" s="19">
+      <c r="N30" s="18">
         <f>'TOTAL to 24 YES GROW '!N30*(100%+(Z62))</f>
         <v>618974.89281758468</v>
       </c>
-      <c r="O30" s="27">
+      <c r="O30" s="26">
         <f t="shared" si="3"/>
         <v>0.76905970107507593</v>
       </c>
       <c r="P30" s="58"/>
-      <c r="Q30" s="28">
+      <c r="Q30" s="27">
         <f t="shared" si="12"/>
         <v>804846.34931763262</v>
       </c>
       <c r="R30" s="59"/>
-      <c r="S30" s="27">
+      <c r="S30" s="26">
         <f t="shared" si="6"/>
         <v>-0.30072070085644997</v>
       </c>
       <c r="T30" s="58"/>
       <c r="U30" s="54"/>
       <c r="V30" s="58"/>
-      <c r="W30" s="19">
+      <c r="W30" s="18">
         <v>2024</v>
       </c>
-      <c r="X30" s="19">
+      <c r="X30" s="18">
         <v>5</v>
       </c>
       <c r="Y30" s="54"/>
-      <c r="AB30" s="29">
+      <c r="AB30" s="28">
         <v>45413</v>
       </c>
       <c r="AH30" s="34">
@@ -29645,72 +32485,72 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <v>29</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>2024</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <v>6</v>
       </c>
       <c r="D31" s="54"/>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <f>('TOTAL to 24 YES GROW '!E31)*(100%+(Z63))</f>
         <v>165387.074853</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="26">
         <f t="shared" si="0"/>
         <v>0.20881508052523065</v>
       </c>
       <c r="G31" s="58"/>
-      <c r="H31" s="19">
+      <c r="H31" s="18">
         <f>'TOTAL to 24 YES GROW '!H31*(100%+(Z63))</f>
         <v>1190.7869389416001</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="26">
         <f t="shared" si="1"/>
         <v>1.5034685797816608E-3</v>
       </c>
       <c r="J31" s="58"/>
-      <c r="K31" s="19">
+      <c r="K31" s="18">
         <f>'TOTAL to 24 YES GROW '!K31*(100%+(Z63))</f>
         <v>24864.19543083902</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="26">
         <f t="shared" si="2"/>
         <v>3.1393136227244559E-2</v>
       </c>
       <c r="M31" s="58"/>
-      <c r="N31" s="19">
+      <c r="N31" s="18">
         <f>'TOTAL to 24 YES GROW '!N31*(100%+(Z63))</f>
         <v>600584.43069659476</v>
       </c>
-      <c r="O31" s="27">
+      <c r="O31" s="26">
         <f t="shared" si="3"/>
         <v>0.75828831466774305</v>
       </c>
       <c r="P31" s="58"/>
-      <c r="Q31" s="28">
+      <c r="Q31" s="27">
         <f t="shared" si="12"/>
         <v>792026.48791937542</v>
       </c>
       <c r="R31" s="59"/>
-      <c r="S31" s="27">
+      <c r="S31" s="26">
         <f t="shared" si="6"/>
         <v>-1.5928333910101195E-2</v>
       </c>
       <c r="T31" s="58"/>
       <c r="U31" s="54"/>
       <c r="V31" s="58"/>
-      <c r="W31" s="19">
+      <c r="W31" s="18">
         <v>2024</v>
       </c>
-      <c r="X31" s="19">
+      <c r="X31" s="18">
         <v>6</v>
       </c>
       <c r="Y31" s="54"/>
-      <c r="AB31" s="29">
+      <c r="AB31" s="28">
         <v>45444</v>
       </c>
       <c r="AH31" s="34">
@@ -29719,23 +32559,23 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A32" s="22">
+      <c r="A32" s="21">
         <v>30</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <v>2024</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>7</v>
       </c>
       <c r="D32" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <f>('TOTAL to 24 YES GROW '!E32)*(100%+(Z64))</f>
         <v>171306.51984600004</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="26">
         <f t="shared" si="0"/>
         <v>9.9340486716645068E-2</v>
       </c>
@@ -29743,11 +32583,11 @@
         <f>SUM(E32:E34)/SUM(Q32:Q34)</f>
         <v>0.1497598134885747</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="18">
         <f>'TOTAL to 24 YES GROW '!H32*(100%+(Z64))</f>
         <v>1233.4069428912003</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="26">
         <f t="shared" si="1"/>
         <v>7.1525150435984455E-4</v>
       </c>
@@ -29755,11 +32595,11 @@
         <f>SUM(H32:H34)/SUM(Q32:Q34)</f>
         <v>1.0782706571177379E-3</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="18">
         <f>'TOTAL to 24 YES GROW '!K32*(100%+(Z64))</f>
         <v>61694.43464305508</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="26">
         <f t="shared" si="2"/>
         <v>3.5776543535289418E-2</v>
       </c>
@@ -29767,11 +32607,11 @@
         <f>SUM(K32:K34)/SUM(Q32:Q34)</f>
         <v>3.3757733163403435E-2</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="18">
         <f>'TOTAL to 24 YES GROW '!N32*(100%+(Z64))</f>
         <v>1490203.7353394947</v>
       </c>
-      <c r="O32" s="27">
+      <c r="O32" s="26">
         <f t="shared" si="3"/>
         <v>0.86416771824370564</v>
       </c>
@@ -29779,7 +32619,7 @@
         <f>SUM(N32:N34)/SUM(Q32:Q34)</f>
         <v>0.8154041826909042</v>
       </c>
-      <c r="Q32" s="28">
+      <c r="Q32" s="27">
         <f t="shared" si="12"/>
         <v>1724438.0967714409</v>
       </c>
@@ -29787,7 +32627,7 @@
         <f t="shared" ref="R32" si="27">SUM(Q32:Q34)</f>
         <v>3550204.0375975911</v>
       </c>
-      <c r="S32" s="27">
+      <c r="S32" s="26">
         <f t="shared" si="6"/>
         <v>1.1772480126283107</v>
       </c>
@@ -29799,16 +32639,16 @@
         <v>8</v>
       </c>
       <c r="V32" s="58"/>
-      <c r="W32" s="19">
+      <c r="W32" s="18">
         <v>2024</v>
       </c>
-      <c r="X32" s="19">
+      <c r="X32" s="18">
         <v>7</v>
       </c>
       <c r="Y32" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AB32" s="29">
+      <c r="AB32" s="28">
         <v>45474</v>
       </c>
       <c r="AH32" s="34">
@@ -29817,72 +32657,72 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A33" s="22">
+      <c r="A33" s="21">
         <v>31</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="18">
         <v>2024</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>8</v>
       </c>
       <c r="D33" s="54"/>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <f>('TOTAL to 24 YES GROW '!E33)*(100%+(Z65))</f>
         <v>177225.96483900002</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="26">
         <f t="shared" si="0"/>
         <v>0.23358466734475442</v>
       </c>
       <c r="G33" s="58"/>
-      <c r="H33" s="19">
+      <c r="H33" s="18">
         <f>'TOTAL to 24 YES GROW '!H33*(100%+(Z65))</f>
         <v>1276.0269468408001</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="26">
         <f t="shared" si="1"/>
         <v>1.6818096048822316E-3</v>
       </c>
       <c r="J33" s="58"/>
-      <c r="K33" s="19">
+      <c r="K33" s="18">
         <f>'TOTAL to 24 YES GROW '!K33*(100%+(Z65))</f>
         <v>23066.192578851747</v>
       </c>
-      <c r="L33" s="27">
+      <c r="L33" s="26">
         <f t="shared" si="2"/>
         <v>3.0401351886196502E-2</v>
       </c>
       <c r="M33" s="58"/>
-      <c r="N33" s="19">
+      <c r="N33" s="18">
         <f>'TOTAL to 24 YES GROW '!N33*(100%+(Z65))</f>
         <v>557154.41011719208</v>
       </c>
-      <c r="O33" s="27">
+      <c r="O33" s="26">
         <f t="shared" si="3"/>
         <v>0.73433217116416694</v>
       </c>
       <c r="P33" s="58"/>
-      <c r="Q33" s="28">
+      <c r="Q33" s="27">
         <f t="shared" si="12"/>
         <v>758722.59448188462</v>
       </c>
       <c r="R33" s="59"/>
-      <c r="S33" s="27">
+      <c r="S33" s="26">
         <f t="shared" si="6"/>
         <v>-0.56001749445086246</v>
       </c>
       <c r="T33" s="58"/>
       <c r="U33" s="54"/>
       <c r="V33" s="58"/>
-      <c r="W33" s="19">
+      <c r="W33" s="18">
         <v>2024</v>
       </c>
-      <c r="X33" s="19">
+      <c r="X33" s="18">
         <v>8</v>
       </c>
       <c r="Y33" s="54"/>
-      <c r="AB33" s="29">
+      <c r="AB33" s="28">
         <v>45505</v>
       </c>
       <c r="AH33" s="34">
@@ -29891,72 +32731,72 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
+      <c r="A34" s="21">
         <v>32</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="18">
         <v>2024</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="18">
         <v>9</v>
       </c>
       <c r="D34" s="54"/>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <f>('TOTAL to 24 YES GROW '!E34)*(100%+(Z66))</f>
         <v>183145.40983200003</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="26">
         <f t="shared" si="0"/>
         <v>0.17163820988103595</v>
       </c>
       <c r="G34" s="58"/>
-      <c r="H34" s="19">
+      <c r="H34" s="18">
         <f>'TOTAL to 24 YES GROW '!H34*(100%+(Z66))</f>
         <v>1318.6469507904001</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="26">
         <f t="shared" si="1"/>
         <v>1.2357951111434586E-3</v>
       </c>
       <c r="J34" s="58"/>
-      <c r="K34" s="19">
+      <c r="K34" s="18">
         <f>'TOTAL to 24 YES GROW '!K34*(100%+(Z66))</f>
         <v>35086.213354950145</v>
       </c>
-      <c r="L34" s="27">
+      <c r="L34" s="26">
         <f t="shared" si="2"/>
         <v>3.288171326418645E-2</v>
       </c>
       <c r="M34" s="58"/>
-      <c r="N34" s="19">
+      <c r="N34" s="18">
         <f>'TOTAL to 24 YES GROW '!N34*(100%+(Z66))</f>
         <v>847493.07620652521</v>
       </c>
-      <c r="O34" s="27">
+      <c r="O34" s="26">
         <f t="shared" si="3"/>
         <v>0.79424428174363404</v>
       </c>
       <c r="P34" s="58"/>
-      <c r="Q34" s="28">
+      <c r="Q34" s="27">
         <f t="shared" si="12"/>
         <v>1067043.3463442659</v>
       </c>
       <c r="R34" s="59"/>
-      <c r="S34" s="27">
+      <c r="S34" s="26">
         <f t="shared" si="6"/>
         <v>0.40636822219974467</v>
       </c>
       <c r="T34" s="58"/>
       <c r="U34" s="54"/>
       <c r="V34" s="58"/>
-      <c r="W34" s="19">
+      <c r="W34" s="18">
         <v>2024</v>
       </c>
-      <c r="X34" s="19">
+      <c r="X34" s="18">
         <v>9</v>
       </c>
       <c r="Y34" s="54"/>
-      <c r="AB34" s="29">
+      <c r="AB34" s="28">
         <v>45536</v>
       </c>
       <c r="AH34" s="34">
@@ -29965,23 +32805,23 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A35" s="22">
+      <c r="A35" s="21">
         <v>33</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="18">
         <v>2024</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="18">
         <v>10</v>
       </c>
       <c r="D35" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <f>('TOTAL to 24 YES GROW '!E35)*(100%+(Z67))</f>
         <v>192085.24545000002</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="26">
         <f t="shared" si="0"/>
         <v>0.13149180065544144</v>
       </c>
@@ -29989,11 +32829,11 @@
         <f>SUM(E35:E37)/SUM(Q35:Q37)</f>
         <v>0.16895924643292956</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="18">
         <f>'TOTAL to 24 YES GROW '!H35*(100%+(Z67))</f>
         <v>1383.0137672400001</v>
       </c>
-      <c r="I35" s="27">
+      <c r="I35" s="26">
         <f t="shared" si="1"/>
         <v>9.4674096471917841E-4</v>
       </c>
@@ -30001,11 +32841,11 @@
         <f>SUM(H35:H37)/SUM(Q35:Q37)</f>
         <v>1.2165065743170928E-3</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="18">
         <f>'TOTAL to 24 YES GROW '!K35*(100%+(Z67))</f>
         <v>50382.34206214673</v>
       </c>
-      <c r="L35" s="27">
+      <c r="L35" s="26">
         <f t="shared" si="2"/>
         <v>3.4489191834958084E-2</v>
       </c>
@@ -30013,11 +32853,11 @@
         <f>SUM(K35:K37)/SUM(Q35:Q37)</f>
         <v>3.2988980051373143E-2</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N35" s="18">
         <f>'TOTAL to 24 YES GROW '!N35*(100%+(Z67))</f>
         <v>1216964.7841098243</v>
       </c>
-      <c r="O35" s="27">
+      <c r="O35" s="26">
         <f t="shared" si="3"/>
         <v>0.83307226654488131</v>
       </c>
@@ -30025,7 +32865,7 @@
         <f>SUM(N35:N37)/SUM(Q35:Q37)</f>
         <v>0.79683526694138018</v>
       </c>
-      <c r="Q35" s="28">
+      <c r="Q35" s="27">
         <f t="shared" si="12"/>
         <v>1460815.3853892111</v>
       </c>
@@ -30033,7 +32873,7 @@
         <f t="shared" ref="R35" si="29">SUM(Q35:Q37)</f>
         <v>3519226.6470011524</v>
       </c>
-      <c r="S35" s="27">
+      <c r="S35" s="26">
         <f t="shared" si="6"/>
         <v>0.36903096804269891</v>
       </c>
@@ -30045,16 +32885,16 @@
         <v>7</v>
       </c>
       <c r="V35" s="58"/>
-      <c r="W35" s="19">
+      <c r="W35" s="18">
         <v>2024</v>
       </c>
-      <c r="X35" s="19">
+      <c r="X35" s="18">
         <v>10</v>
       </c>
       <c r="Y35" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AB35" s="29">
+      <c r="AB35" s="28">
         <v>45566</v>
       </c>
       <c r="AH35" s="34">
@@ -30063,72 +32903,72 @@
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A36" s="22">
+      <c r="A36" s="21">
         <v>34</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="18">
         <v>2024</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="18">
         <v>11</v>
       </c>
       <c r="D36" s="54"/>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <f>('TOTAL to 24 YES GROW '!E36)*(100%+(Z68))</f>
         <v>198099.25606800002</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="26">
         <f t="shared" si="0"/>
         <v>0.19264320114458658</v>
       </c>
       <c r="G36" s="58"/>
-      <c r="H36" s="19">
+      <c r="H36" s="18">
         <f>'TOTAL to 24 YES GROW '!H36*(100%+(Z68))</f>
         <v>1426.3146436896002</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="26">
         <f t="shared" si="1"/>
         <v>1.3870310482410233E-3</v>
       </c>
       <c r="J36" s="58"/>
-      <c r="K36" s="19">
+      <c r="K36" s="18">
         <f>'TOTAL to 24 YES GROW '!K36*(100%+(Z68))</f>
         <v>32948.122930687612</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="26">
         <f>K36/Q36</f>
         <v>3.2040664861932917E-2</v>
       </c>
       <c r="M36" s="58"/>
-      <c r="N36" s="19">
+      <c r="N36" s="18">
         <f>'TOTAL to 24 YES GROW '!N36*(100%+(Z68))</f>
         <v>795848.37996829976</v>
       </c>
-      <c r="O36" s="27">
+      <c r="O36" s="26">
         <f t="shared" si="3"/>
         <v>0.77392910294523942</v>
       </c>
       <c r="P36" s="58"/>
-      <c r="Q36" s="28">
+      <c r="Q36" s="27">
         <f t="shared" si="12"/>
         <v>1028322.073610677</v>
       </c>
       <c r="R36" s="59"/>
-      <c r="S36" s="27">
+      <c r="S36" s="26">
         <f t="shared" si="6"/>
         <v>-0.29606294957203172</v>
       </c>
       <c r="T36" s="58"/>
       <c r="U36" s="54"/>
       <c r="V36" s="58"/>
-      <c r="W36" s="19">
+      <c r="W36" s="18">
         <v>2024</v>
       </c>
-      <c r="X36" s="19">
+      <c r="X36" s="18">
         <v>11</v>
       </c>
       <c r="Y36" s="54"/>
-      <c r="AB36" s="29">
+      <c r="AB36" s="28">
         <v>45597</v>
       </c>
       <c r="AH36" s="34">
@@ -30137,72 +32977,72 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A37" s="22">
+      <c r="A37" s="21">
         <v>35</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="18">
         <v>2024</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="18">
         <v>12</v>
       </c>
       <c r="D37" s="54"/>
-      <c r="E37" s="19">
+      <c r="E37" s="18">
         <f>('TOTAL to 24 YES GROW '!E37)*(100%+(Z69))</f>
         <v>204421.38078600005</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="26">
         <f t="shared" si="0"/>
         <v>0.19845017612761232</v>
       </c>
       <c r="G37" s="58"/>
-      <c r="H37" s="19">
+      <c r="H37" s="18">
         <f>'TOTAL to 24 YES GROW '!H37*(100%+(Z69))</f>
         <v>1471.8339416592005</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="26">
         <f t="shared" si="1"/>
         <v>1.4288412681188088E-3</v>
       </c>
       <c r="J37" s="58"/>
-      <c r="K37" s="19">
+      <c r="K37" s="18">
         <f>'TOTAL to 24 YES GROW '!K37*(100%+(Z69))</f>
         <v>32765.232661347458</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="26">
         <f t="shared" si="2"/>
         <v>3.1808151219336209E-2</v>
       </c>
       <c r="M37" s="58"/>
-      <c r="N37" s="19">
+      <c r="N37" s="18">
         <f>'TOTAL to 24 YES GROW '!N37*(100%+(Z69))</f>
         <v>791430.7406122575</v>
       </c>
-      <c r="O37" s="27">
+      <c r="O37" s="26">
         <f t="shared" si="3"/>
         <v>0.76831283138493267</v>
       </c>
       <c r="P37" s="58"/>
-      <c r="Q37" s="28">
+      <c r="Q37" s="27">
         <f>SUM(E37,H37,K37,N37)</f>
         <v>1030089.1880012642</v>
       </c>
       <c r="R37" s="59"/>
-      <c r="S37" s="27">
+      <c r="S37" s="26">
         <f t="shared" si="6"/>
         <v>1.718444479541758E-3</v>
       </c>
       <c r="T37" s="58"/>
       <c r="U37" s="54"/>
       <c r="V37" s="58"/>
-      <c r="W37" s="19">
+      <c r="W37" s="18">
         <v>2024</v>
       </c>
-      <c r="X37" s="19">
+      <c r="X37" s="18">
         <v>12</v>
       </c>
       <c r="Y37" s="54"/>
-      <c r="AB37" s="29">
+      <c r="AB37" s="28">
         <v>45627</v>
       </c>
       <c r="AH37" s="34">
@@ -30210,70 +33050,76 @@
         <v>205893.21472765924</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="15">
         <f>AVERAGE(E2:E37)</f>
         <v>96381.213515319454</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="17">
         <f t="shared" ref="F38:G38" si="31">AVERAGE(F2:F37)</f>
         <v>0.15748577835306329</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="17">
         <f t="shared" si="31"/>
         <v>0.14692858102853001</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="15">
         <f>AVERAGE(H2:H37)</f>
         <v>693.88247064363327</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18">
+      <c r="I38" s="17"/>
+      <c r="J38" s="17">
         <f t="shared" ref="J38:T38" si="32">AVERAGE(J2:J37)</f>
         <v>1.0912530662957492E-3</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="15">
         <f t="shared" si="32"/>
         <v>20266.621157767848</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38" s="17">
         <f t="shared" si="32"/>
         <v>3.2968896499036601E-2</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="17">
         <f t="shared" si="32"/>
         <v>3.2742912955711828E-2</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N38" s="15">
         <f t="shared" si="32"/>
         <v>494364.61096706346</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O38" s="17">
         <f t="shared" si="32"/>
         <v>0.80841047756928686</v>
       </c>
-      <c r="P38" s="18">
+      <c r="P38" s="17">
         <f t="shared" si="32"/>
         <v>0.81923725294946237</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="Q38" s="14">
         <f t="shared" si="32"/>
         <v>611706.32811079442</v>
       </c>
-      <c r="R38" s="15">
+      <c r="R38" s="14">
         <f>AVERAGE(R2:R37)</f>
         <v>1835118.9843323829</v>
       </c>
-      <c r="S38" s="18">
+      <c r="S38" s="17">
         <f t="shared" si="32"/>
         <v>0.19782472710486684</v>
       </c>
-      <c r="T38" s="18">
+      <c r="T38" s="17">
         <f t="shared" si="32"/>
         <v>0.19751003741505835</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T41" s="29">
+        <f>(SUM(Q26:Q37)-SUM(Q2:Q13))/SUM(Q14:Q25)</f>
+        <v>1.4537024973962676</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
@@ -30285,7 +33131,7 @@
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="N43" s="55"/>
       <c r="O43" s="55"/>
-      <c r="W43" s="19">
+      <c r="W43" s="18">
         <v>1</v>
       </c>
       <c r="Z43" s="31">
@@ -30300,10 +33146,10 @@
         <f>AVERAGE(L3:L11)</f>
         <v>3.7789825830108155E-2</v>
       </c>
-      <c r="Q44" s="28" t="s">
+      <c r="Q44" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="W44" s="19">
+      <c r="W44" s="18">
         <v>2</v>
       </c>
       <c r="Z44" s="31">
@@ -30312,7 +33158,7 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W45" s="19">
+      <c r="W45" s="18">
         <v>3</v>
       </c>
       <c r="Z45" s="31">
@@ -30325,18 +33171,25 @@
         <v>29</v>
       </c>
       <c r="O46" s="55"/>
-      <c r="P46" s="27">
+      <c r="P46" s="26">
         <f>AVERAGE(K3:K11)/AVERAGE(N3:N11)</f>
         <v>4.1510504575368062E-2</v>
       </c>
-      <c r="Q46" s="28" t="s">
+      <c r="Q46" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="S46" s="19">
+      <c r="S46" s="18">
         <f>153/0.0072</f>
         <v>21250</v>
       </c>
-      <c r="W46" s="19">
+      <c r="U46" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="V46" s="31">
+        <f>V14</f>
+        <v>1.3654961918219275</v>
+      </c>
+      <c r="W46" s="18">
         <v>4</v>
       </c>
       <c r="Z46" s="31">
@@ -30347,7 +33200,14 @@
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="N47" s="55"/>
       <c r="O47" s="55"/>
-      <c r="W47" s="19">
+      <c r="U47" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="V47" s="31">
+        <f>V26</f>
+        <v>0.87644678396803766</v>
+      </c>
+      <c r="W47" s="18">
         <v>5</v>
       </c>
       <c r="Z47" s="31">
@@ -30358,7 +33218,7 @@
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="N48" s="55"/>
       <c r="O48" s="55"/>
-      <c r="W48" s="19">
+      <c r="W48" s="18">
         <v>6</v>
       </c>
       <c r="Z48" s="31">
@@ -30366,19 +33226,19 @@
         <v>0.86460000000000004</v>
       </c>
     </row>
-    <row r="49" spans="6:26" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F49" s="31"/>
       <c r="G49" s="31"/>
-      <c r="H49" s="19"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
-      <c r="K49" s="19"/>
+      <c r="K49" s="18"/>
       <c r="L49" s="31"/>
-      <c r="M49" s="19"/>
+      <c r="M49" s="18"/>
       <c r="N49" s="55"/>
       <c r="O49" s="55"/>
-      <c r="P49" s="19"/>
-      <c r="W49" s="19">
+      <c r="P49" s="18"/>
+      <c r="W49" s="18">
         <v>7</v>
       </c>
       <c r="Z49" s="31">
@@ -30387,7 +33247,7 @@
       </c>
     </row>
     <row r="50" spans="6:26" x14ac:dyDescent="0.2">
-      <c r="W50" s="19">
+      <c r="W50" s="18">
         <v>8</v>
       </c>
       <c r="Z50" s="31">
@@ -30395,27 +33255,27 @@
         <v>1.1528</v>
       </c>
     </row>
-    <row r="51" spans="6:26" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
-      <c r="H51" s="19"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
-      <c r="K51" s="19"/>
+      <c r="K51" s="18"/>
       <c r="L51" s="31"/>
-      <c r="M51" s="19"/>
+      <c r="M51" s="18"/>
       <c r="N51" s="56" t="s">
         <v>31</v>
       </c>
       <c r="O51" s="56"/>
-      <c r="P51" s="27">
+      <c r="P51" s="26">
         <f xml:space="preserve"> AVERAGE(H2:H10)/AVERAGE(E2:E10)</f>
         <v>7.1883236620862807E-3</v>
       </c>
-      <c r="Q51" s="28" t="s">
+      <c r="Q51" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="W51" s="19">
+      <c r="W51" s="18">
         <v>9</v>
       </c>
       <c r="Z51" s="31">
@@ -30424,7 +33284,7 @@
       </c>
     </row>
     <row r="52" spans="6:26" x14ac:dyDescent="0.2">
-      <c r="W52" s="19">
+      <c r="W52" s="18">
         <v>10</v>
       </c>
       <c r="Z52" s="31">
@@ -30441,7 +33301,7 @@
         <f>AVERAGE(S3:S10)</f>
         <v>0.14407192591628948</v>
       </c>
-      <c r="W53" s="19">
+      <c r="W53" s="18">
         <v>11</v>
       </c>
       <c r="Z53" s="31">
@@ -30452,7 +33312,14 @@
     <row r="54" spans="6:26" x14ac:dyDescent="0.2">
       <c r="N54" s="55"/>
       <c r="O54" s="55"/>
-      <c r="W54" s="19">
+      <c r="S54" s="18">
+        <v>2022</v>
+      </c>
+      <c r="T54" s="70">
+        <f>SUM(Q2:Q13)</f>
+        <v>2821731.9308359013</v>
+      </c>
+      <c r="W54" s="18">
         <v>12</v>
       </c>
       <c r="Z54" s="31">
@@ -30461,7 +33328,14 @@
       </c>
     </row>
     <row r="55" spans="6:26" x14ac:dyDescent="0.2">
-      <c r="W55" s="19">
+      <c r="S55" s="30">
+        <v>2023</v>
+      </c>
+      <c r="T55" s="70">
+        <f>SUM(Q14:Q25)</f>
+        <v>6674796.1367346589</v>
+      </c>
+      <c r="W55" s="18">
         <v>13</v>
       </c>
       <c r="Z55" s="31">
@@ -30470,7 +33344,14 @@
       </c>
     </row>
     <row r="56" spans="6:26" x14ac:dyDescent="0.2">
-      <c r="W56" s="19">
+      <c r="S56" s="30">
+        <v>2024</v>
+      </c>
+      <c r="T56" s="27">
+        <f>SUM(N26:N37)</f>
+        <v>10072786.846637385</v>
+      </c>
+      <c r="W56" s="18">
         <v>14</v>
       </c>
       <c r="Z56" s="31">
@@ -30479,7 +33360,7 @@
       </c>
     </row>
     <row r="57" spans="6:26" x14ac:dyDescent="0.2">
-      <c r="W57" s="19">
+      <c r="W57" s="18">
         <v>15</v>
       </c>
       <c r="Z57" s="31">
@@ -30491,15 +33372,15 @@
       <c r="N58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O58" s="10">
+      <c r="O58" s="9">
         <f>SUM(E2:E37)+SUM(H2:H37)</f>
         <v>3494703.4554946711</v>
       </c>
-      <c r="P58" s="8">
+      <c r="P58" s="7">
         <f>O58/O61</f>
         <v>0.15869558892053917</v>
       </c>
-      <c r="W58" s="19">
+      <c r="W58" s="18">
         <v>16</v>
       </c>
       <c r="Z58" s="31">
@@ -30511,15 +33392,15 @@
       <c r="N59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="10">
+      <c r="O59" s="9">
         <f>SUM(N2:N37)</f>
         <v>17797125.994814284</v>
       </c>
-      <c r="P59" s="8">
+      <c r="P59" s="7">
         <f>O59/O61</f>
         <v>0.80817311878049158</v>
       </c>
-      <c r="W59" s="19">
+      <c r="W59" s="18">
         <v>17</v>
       </c>
       <c r="Z59" s="31">
@@ -30531,15 +33412,15 @@
       <c r="N60" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O60" s="10">
+      <c r="O60" s="9">
         <f>SUM(K2:K37)</f>
         <v>729598.36167964258</v>
       </c>
-      <c r="P60" s="8">
+      <c r="P60" s="7">
         <f>O60/O61</f>
         <v>3.3131292298969134E-2</v>
       </c>
-      <c r="W60" s="19">
+      <c r="W60" s="18">
         <v>18</v>
       </c>
       <c r="Z60" s="31">
@@ -30551,12 +33432,12 @@
       <c r="N61" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O61" s="10">
+      <c r="O61" s="9">
         <f>SUM(O57:O60)</f>
         <v>22021427.8119886</v>
       </c>
-      <c r="P61" s="8"/>
-      <c r="W61" s="19">
+      <c r="P61" s="7"/>
+      <c r="W61" s="18">
         <v>19</v>
       </c>
       <c r="Z61" s="31">
@@ -30565,7 +33446,7 @@
       </c>
     </row>
     <row r="62" spans="6:26" x14ac:dyDescent="0.2">
-      <c r="W62" s="19">
+      <c r="W62" s="18">
         <v>20</v>
       </c>
       <c r="Z62" s="31">
@@ -30574,7 +33455,7 @@
       </c>
     </row>
     <row r="63" spans="6:26" x14ac:dyDescent="0.2">
-      <c r="W63" s="19">
+      <c r="W63" s="18">
         <v>21</v>
       </c>
       <c r="Z63" s="31">
@@ -30583,7 +33464,7 @@
       </c>
     </row>
     <row r="64" spans="6:26" x14ac:dyDescent="0.2">
-      <c r="W64" s="19">
+      <c r="W64" s="18">
         <v>22</v>
       </c>
       <c r="Z64" s="31">
@@ -30592,7 +33473,7 @@
       </c>
     </row>
     <row r="65" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W65" s="19">
+      <c r="W65" s="18">
         <v>23</v>
       </c>
       <c r="Z65" s="31">
@@ -30601,7 +33482,7 @@
       </c>
     </row>
     <row r="66" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W66" s="19">
+      <c r="W66" s="18">
         <v>24</v>
       </c>
       <c r="Z66" s="31">
@@ -30610,7 +33491,7 @@
       </c>
     </row>
     <row r="67" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W67" s="19">
+      <c r="W67" s="18">
         <v>25</v>
       </c>
       <c r="Z67" s="31">
@@ -30619,7 +33500,7 @@
       </c>
     </row>
     <row r="68" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W68" s="19">
+      <c r="W68" s="18">
         <v>26</v>
       </c>
       <c r="Z68" s="31">
@@ -30628,7 +33509,7 @@
       </c>
     </row>
     <row r="69" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W69" s="19">
+      <c r="W69" s="18">
         <v>27</v>
       </c>
       <c r="Z69" s="31">
@@ -30637,7 +33518,7 @@
       </c>
     </row>
     <row r="70" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W70" s="19">
+      <c r="W70" s="18">
         <v>28</v>
       </c>
       <c r="Z70" s="31">
@@ -30646,7 +33527,7 @@
       </c>
     </row>
     <row r="71" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W71" s="19">
+      <c r="W71" s="18">
         <v>29</v>
       </c>
       <c r="Z71" s="31">
@@ -30655,7 +33536,7 @@
       </c>
     </row>
     <row r="72" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W72" s="19">
+      <c r="W72" s="18">
         <v>30</v>
       </c>
       <c r="Z72" s="31">
@@ -30664,7 +33545,7 @@
       </c>
     </row>
     <row r="73" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W73" s="19">
+      <c r="W73" s="18">
         <v>31</v>
       </c>
       <c r="Z73" s="31">
@@ -30673,7 +33554,7 @@
       </c>
     </row>
     <row r="74" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W74" s="19">
+      <c r="W74" s="18">
         <v>32</v>
       </c>
       <c r="Z74" s="31">
@@ -30682,7 +33563,7 @@
       </c>
     </row>
     <row r="75" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W75" s="19">
+      <c r="W75" s="18">
         <v>33</v>
       </c>
       <c r="Z75" s="31">
@@ -30691,7 +33572,7 @@
       </c>
     </row>
     <row r="76" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W76" s="19">
+      <c r="W76" s="18">
         <v>34</v>
       </c>
       <c r="Z76" s="31">
@@ -30700,7 +33581,7 @@
       </c>
     </row>
     <row r="77" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W77" s="19">
+      <c r="W77" s="18">
         <v>35</v>
       </c>
       <c r="Z77" s="31">
@@ -30709,7 +33590,7 @@
       </c>
     </row>
     <row r="78" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W78" s="19">
+      <c r="W78" s="18">
         <v>36</v>
       </c>
       <c r="Z78" s="31">
@@ -30718,7 +33599,7 @@
       </c>
     </row>
     <row r="79" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W79" s="19">
+      <c r="W79" s="18">
         <v>37</v>
       </c>
       <c r="Z79" s="31">
@@ -30727,7 +33608,7 @@
       </c>
     </row>
     <row r="80" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W80" s="19">
+      <c r="W80" s="18">
         <v>38</v>
       </c>
       <c r="Z80" s="31">
@@ -30735,8 +33616,8 @@
         <v>5.4758000000000004</v>
       </c>
     </row>
-    <row r="81" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W81" s="19">
+    <row r="81" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="W81" s="18">
         <v>39</v>
       </c>
       <c r="Z81" s="31">
@@ -30744,8 +33625,14 @@
         <v>5.6199000000000003</v>
       </c>
     </row>
-    <row r="82" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W82" s="19">
+    <row r="82" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q82" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="R82" s="71">
+        <v>2382.4499999999998</v>
+      </c>
+      <c r="W82" s="18">
         <v>40</v>
       </c>
       <c r="Z82" s="31">
@@ -30753,8 +33640,14 @@
         <v>5.7640000000000002</v>
       </c>
     </row>
-    <row r="83" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W83" s="19">
+    <row r="83" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q83" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="R83" s="71">
+        <v>469.16</v>
+      </c>
+      <c r="W83" s="18">
         <v>41</v>
       </c>
       <c r="Z83" s="31">
@@ -30762,8 +33655,8 @@
         <v>5.9081000000000001</v>
       </c>
     </row>
-    <row r="84" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W84" s="19">
+    <row r="84" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="W84" s="18">
         <v>42</v>
       </c>
       <c r="Z84" s="31">
@@ -30771,8 +33664,8 @@
         <v>6.0522</v>
       </c>
     </row>
-    <row r="85" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W85" s="19">
+    <row r="85" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="W85" s="18">
         <v>43</v>
       </c>
       <c r="Z85" s="31">
@@ -30780,8 +33673,8 @@
         <v>6.1962999999999999</v>
       </c>
     </row>
-    <row r="86" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W86" s="19">
+    <row r="86" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="W86" s="18">
         <v>44</v>
       </c>
       <c r="Z86" s="31">
@@ -30789,8 +33682,8 @@
         <v>6.3404000000000007</v>
       </c>
     </row>
-    <row r="87" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W87" s="19">
+    <row r="87" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="W87" s="18">
         <v>45</v>
       </c>
       <c r="Z87" s="31">
@@ -30798,8 +33691,8 @@
         <v>6.4845000000000006</v>
       </c>
     </row>
-    <row r="88" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W88" s="19">
+    <row r="88" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="W88" s="18">
         <v>46</v>
       </c>
       <c r="Z88" s="31">
@@ -30853,7 +33746,7 @@
       </c>
     </row>
     <row r="115" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="S115" s="19">
+      <c r="S115" s="18">
         <f>SUM(S106:S114)/9</f>
         <v>153.33333333333334</v>
       </c>
@@ -30862,7 +33755,7 @@
       <c r="F128" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G128" s="28">
+      <c r="G128" s="27">
         <f>AVERAGE(AH2:AH13)</f>
         <v>28165.653839786668</v>
       </c>
@@ -30871,7 +33764,7 @@
       <c r="F129" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G129" s="28">
+      <c r="G129" s="27">
         <f>AVERAGE(AH14:AH25)</f>
         <v>93468.007257280682</v>
       </c>
@@ -30880,7 +33773,7 @@
       <c r="F130" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G130" s="28">
+      <c r="G130" s="27">
         <f>AVERAGE(AH26:AH37)</f>
         <v>169591.62686082188</v>
       </c>
@@ -30889,7 +33782,7 @@
       <c r="F131" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G131" s="28">
+      <c r="G131" s="27">
         <f>AVERAGE(K2:K13)</f>
         <v>7651.9069364422494</v>
       </c>
@@ -30898,7 +33791,7 @@
       <c r="F132" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G132" s="28">
+      <c r="G132" s="27">
         <f>AVERAGE(K14:K25)</f>
         <v>18396.841915962315</v>
       </c>
@@ -30907,7 +33800,7 @@
       <c r="F133" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G133" s="28">
+      <c r="G133" s="27">
         <f>AVERAGE(K26:K37)</f>
         <v>34751.114620898974</v>
       </c>
@@ -30916,7 +33809,7 @@
       <c r="F134" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G134" s="28">
+      <c r="G134" s="27">
         <f>AVERAGE(N2:N13)</f>
         <v>199326.76679342953</v>
       </c>
@@ -30925,7 +33818,7 @@
       <c r="F135" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G135" s="28">
+      <c r="G135" s="27">
         <f>AVERAGE(N14:N25)</f>
         <v>444368.162221312</v>
       </c>
@@ -30934,7 +33827,7 @@
       <c r="F136" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G136" s="28">
+      <c r="G136" s="27">
         <f>AVERAGE(N26:N37)</f>
         <v>839398.90388644871</v>
       </c>
@@ -31056,6 +33949,7 @@
     <mergeCell ref="U35:U37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>